--- a/data/reg.xlsx
+++ b/data/reg.xlsx
@@ -4,28 +4,29 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="348" windowWidth="22692" windowHeight="9804" firstSheet="1" activeTab="11"/>
+    <workbookView xWindow="288" yWindow="348" windowWidth="22692" windowHeight="9804"/>
   </bookViews>
   <sheets>
-    <sheet name="usa_land" sheetId="2" r:id="rId1"/>
-    <sheet name="usa_reg" sheetId="1" r:id="rId2"/>
-    <sheet name="chin_land" sheetId="3" r:id="rId3"/>
-    <sheet name="chin_reg" sheetId="4" r:id="rId4"/>
-    <sheet name="france_land" sheetId="6" r:id="rId5"/>
-    <sheet name="france_reg" sheetId="7" r:id="rId6"/>
-    <sheet name="italy_land" sheetId="8" r:id="rId7"/>
-    <sheet name="italy_reg" sheetId="9" r:id="rId8"/>
-    <sheet name="japan_land" sheetId="10" r:id="rId9"/>
-    <sheet name="japan_reg" sheetId="11" r:id="rId10"/>
-    <sheet name="sk_land" sheetId="12" r:id="rId11"/>
-    <sheet name="sk_reg" sheetId="13" r:id="rId12"/>
+    <sheet name="datadictionary" sheetId="14" r:id="rId1"/>
+    <sheet name="usa_land" sheetId="2" r:id="rId2"/>
+    <sheet name="usa_reg" sheetId="1" r:id="rId3"/>
+    <sheet name="chin_land" sheetId="3" r:id="rId4"/>
+    <sheet name="chin_reg" sheetId="4" r:id="rId5"/>
+    <sheet name="france_land" sheetId="6" r:id="rId6"/>
+    <sheet name="france_reg" sheetId="7" r:id="rId7"/>
+    <sheet name="italy_land" sheetId="8" r:id="rId8"/>
+    <sheet name="italy_reg" sheetId="9" r:id="rId9"/>
+    <sheet name="japan_land" sheetId="10" r:id="rId10"/>
+    <sheet name="japan_reg" sheetId="11" r:id="rId11"/>
+    <sheet name="sk_land" sheetId="12" r:id="rId12"/>
+    <sheet name="sk_reg" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="28">
   <si>
     <t>y</t>
   </si>
@@ -65,13 +66,106 @@
   <si>
     <t>y_n_who</t>
   </si>
+  <si>
+    <t>For each country, there are two tabs, _land and _reg</t>
+  </si>
+  <si>
+    <t>_land refers to data directly copied from the EDCD data.</t>
+  </si>
+  <si>
+    <t>_reg refers to the data used for creating the plots. The columns are as follows:</t>
+  </si>
+  <si>
+    <t>cumulative number of deaths up to and including the date</t>
+  </si>
+  <si>
+    <t>the number of days since 12/31/2019</t>
+  </si>
+  <si>
+    <t>cumulative number of deaths up to and including the date according to the most recent WHO situation report.*</t>
+  </si>
+  <si>
+    <t>*I could not find a spreadsheet showing the number of deaths per country per day from the WHO.</t>
+  </si>
+  <si>
+    <t>Therefore, while cumulative number of deaths for the most recent date is accurate, deaths on previous dates are backwardly-extrapolated according to a simple formula.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">For example, cell 90 of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y_n_who</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, the formula is ROUNDDOWN(C90-((C91-D91)/(E91-E89)),0)</t>
+    </r>
+  </si>
+  <si>
+    <t>The extrapolated values should not be that far off- compare columns C and D to see the difference.</t>
+  </si>
+  <si>
+    <t>The reason this step is taken is because the tournament is judged according to WHO data, but this data is not easily accessible and is arguably less reliable, click link to learn more.</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>number of deaths in the country on the date</t>
+  </si>
+  <si>
+    <t>Also, I did not want to add the most recent WHO value only because in some cases there would appear to be a spike or even a decline in the total number of cases.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -96,15 +190,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -404,10 +502,134 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A17" r:id="rId1" location="our-data-sources"/>
+    <hyperlink ref="A2" r:id="rId2" display="_land refers to data directly copied from the EDCD data, available here"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="E93" sqref="E93"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="L89" sqref="L89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -435,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -458,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -481,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -504,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -527,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -550,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -573,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -596,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -619,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -642,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -665,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -688,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -711,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -734,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -757,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -774,13 +996,13 @@
         <v>2020</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -803,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -826,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -849,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -872,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -895,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -912,13 +1134,13 @@
         <v>2020</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -941,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -964,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -981,13 +1203,13 @@
         <v>2020</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1004,13 +1226,13 @@
         <v>2020</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1027,13 +1249,13 @@
         <v>2020</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1050,13 +1272,13 @@
         <v>2020</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -1073,13 +1295,13 @@
         <v>2020</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -1096,13 +1318,13 @@
         <v>2020</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -1119,13 +1341,13 @@
         <v>2020</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -1142,13 +1364,13 @@
         <v>2020</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -1171,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -1188,13 +1410,13 @@
         <v>2020</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -1211,13 +1433,13 @@
         <v>2020</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -1240,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -1257,13 +1479,13 @@
         <v>2020</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -1280,13 +1502,13 @@
         <v>2020</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -1309,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -1332,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -1355,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -1378,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -1395,13 +1617,13 @@
         <v>2020</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -1424,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -1441,13 +1663,13 @@
         <v>2020</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -1470,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -1487,13 +1709,13 @@
         <v>2020</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -1510,13 +1732,13 @@
         <v>2020</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -1533,13 +1755,13 @@
         <v>2020</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -1562,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="G50" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -1579,13 +1801,13 @@
         <v>2020</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F51">
         <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -1602,13 +1824,13 @@
         <v>2020</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -1625,13 +1847,13 @@
         <v>2020</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F53">
         <v>0</v>
       </c>
       <c r="G53" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -1648,13 +1870,13 @@
         <v>2020</v>
       </c>
       <c r="E54">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F54">
         <v>0</v>
       </c>
       <c r="G54" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -1671,13 +1893,13 @@
         <v>2020</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -1694,13 +1916,13 @@
         <v>2020</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -1717,13 +1939,13 @@
         <v>2020</v>
       </c>
       <c r="E57">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
@@ -1740,13 +1962,13 @@
         <v>2020</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F58">
         <v>0</v>
       </c>
       <c r="G58" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -1763,13 +1985,13 @@
         <v>2020</v>
       </c>
       <c r="E59">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G59" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
@@ -1786,13 +2008,13 @@
         <v>2020</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -1809,13 +2031,13 @@
         <v>2020</v>
       </c>
       <c r="E61">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
@@ -1832,13 +2054,13 @@
         <v>2020</v>
       </c>
       <c r="E62">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G62" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
@@ -1855,13 +2077,13 @@
         <v>2020</v>
       </c>
       <c r="E63">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F63">
         <v>1</v>
       </c>
       <c r="G63" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
@@ -1878,13 +2100,13 @@
         <v>2020</v>
       </c>
       <c r="E64">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G64" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -1901,13 +2123,13 @@
         <v>2020</v>
       </c>
       <c r="E65">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F65">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G65" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -1924,13 +2146,13 @@
         <v>2020</v>
       </c>
       <c r="E66">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="F66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G66" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -1947,13 +2169,13 @@
         <v>2020</v>
       </c>
       <c r="E67">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -1970,13 +2192,13 @@
         <v>2020</v>
       </c>
       <c r="E68">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="F68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G68" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
@@ -1993,13 +2215,13 @@
         <v>2020</v>
       </c>
       <c r="E69">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="F69">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G69" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
@@ -2016,13 +2238,13 @@
         <v>2020</v>
       </c>
       <c r="E70">
-        <v>121</v>
+        <v>33</v>
       </c>
       <c r="F70">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G70" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
@@ -2039,13 +2261,13 @@
         <v>2020</v>
       </c>
       <c r="E71">
-        <v>200</v>
+        <v>26</v>
       </c>
       <c r="F71">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G71" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
@@ -2062,13 +2284,13 @@
         <v>2020</v>
       </c>
       <c r="E72">
-        <v>271</v>
+        <v>54</v>
       </c>
       <c r="F72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G72" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
@@ -2085,13 +2307,13 @@
         <v>2020</v>
       </c>
       <c r="E73">
-        <v>287</v>
+        <v>51</v>
       </c>
       <c r="F73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G73" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
@@ -2108,13 +2330,13 @@
         <v>2020</v>
       </c>
       <c r="E74">
-        <v>351</v>
+        <v>56</v>
       </c>
       <c r="F74">
+        <v>4</v>
+      </c>
+      <c r="G74" t="s">
         <v>10</v>
-      </c>
-      <c r="G74" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
@@ -2131,13 +2353,13 @@
         <v>2020</v>
       </c>
       <c r="E75">
-        <v>511</v>
+        <v>62</v>
       </c>
       <c r="F75">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G75" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
@@ -2154,13 +2376,13 @@
         <v>2020</v>
       </c>
       <c r="E76">
-        <v>777</v>
+        <v>43</v>
       </c>
       <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76" t="s">
         <v>10</v>
-      </c>
-      <c r="G76" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -2177,13 +2399,13 @@
         <v>2020</v>
       </c>
       <c r="E77">
-        <v>823</v>
+        <v>34</v>
       </c>
       <c r="F77">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G77" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
@@ -2200,13 +2422,13 @@
         <v>2020</v>
       </c>
       <c r="E78">
-        <v>887</v>
+        <v>10</v>
       </c>
       <c r="F78">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G78" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
@@ -2223,13 +2445,13 @@
         <v>2020</v>
       </c>
       <c r="E79">
-        <v>1766</v>
+        <v>5</v>
       </c>
       <c r="F79">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="G79" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
@@ -2246,13 +2468,13 @@
         <v>2020</v>
       </c>
       <c r="E80">
-        <v>2988</v>
+        <v>44</v>
       </c>
       <c r="F80">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="G80" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
@@ -2269,13 +2491,13 @@
         <v>2020</v>
       </c>
       <c r="E81">
-        <v>4835</v>
+        <v>77</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G81" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
@@ -2292,13 +2514,13 @@
         <v>2020</v>
       </c>
       <c r="E82">
-        <v>5374</v>
+        <v>57</v>
       </c>
       <c r="F82">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="G82" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
@@ -2315,13 +2537,13 @@
         <v>2020</v>
       </c>
       <c r="E83">
-        <v>7123</v>
+        <v>39</v>
       </c>
       <c r="F83">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="G83" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
@@ -2338,13 +2560,13 @@
         <v>2020</v>
       </c>
       <c r="E84">
-        <v>8459</v>
+        <v>43</v>
       </c>
       <c r="F84">
-        <v>131</v>
+        <v>5</v>
       </c>
       <c r="G84" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
@@ -2361,13 +2583,13 @@
         <v>2020</v>
       </c>
       <c r="E85">
-        <v>11236</v>
+        <v>39</v>
       </c>
       <c r="F85">
-        <v>119</v>
+        <v>1</v>
       </c>
       <c r="G85" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
@@ -2384,13 +2606,13 @@
         <v>2020</v>
       </c>
       <c r="E86">
-        <v>8789</v>
+        <v>65</v>
       </c>
       <c r="F86">
-        <v>211</v>
+        <v>1</v>
       </c>
       <c r="G86" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
@@ -2407,13 +2629,13 @@
         <v>2020</v>
       </c>
       <c r="E87">
-        <v>13963</v>
+        <v>75</v>
       </c>
       <c r="F87">
-        <v>249</v>
+        <v>2</v>
       </c>
       <c r="G87" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
@@ -2430,13 +2652,13 @@
         <v>2020</v>
       </c>
       <c r="E88">
-        <v>16797</v>
+        <v>96</v>
       </c>
       <c r="F88">
-        <v>246</v>
+        <v>1</v>
       </c>
       <c r="G88" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
@@ -2453,13 +2675,13 @@
         <v>2020</v>
       </c>
       <c r="E89">
-        <v>18695</v>
+        <v>135</v>
       </c>
       <c r="F89">
-        <v>411</v>
+        <v>3</v>
       </c>
       <c r="G89" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
@@ -2476,13 +2698,13 @@
         <v>2020</v>
       </c>
       <c r="E90">
-        <v>19979</v>
+        <v>194</v>
       </c>
       <c r="F90">
-        <v>484</v>
+        <v>3</v>
       </c>
       <c r="G90" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
@@ -2499,13 +2721,13 @@
         <v>2020</v>
       </c>
       <c r="E91">
-        <v>18360</v>
+        <v>173</v>
       </c>
       <c r="F91">
-        <v>318</v>
+        <v>2</v>
       </c>
       <c r="G91" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
@@ -2522,13 +2744,13 @@
         <v>2020</v>
       </c>
       <c r="E92">
-        <v>21595</v>
+        <v>87</v>
       </c>
       <c r="F92">
-        <v>661</v>
+        <v>2</v>
       </c>
       <c r="G92" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
@@ -2545,13 +2767,13 @@
         <v>2020</v>
       </c>
       <c r="E93">
-        <v>24998</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>909</v>
+        <v>0</v>
       </c>
       <c r="G93" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
@@ -2568,13 +2790,13 @@
         <v>2020</v>
       </c>
       <c r="E94">
-        <v>27103</v>
+        <v>225</v>
       </c>
       <c r="F94">
-        <v>1059</v>
+        <v>1</v>
       </c>
       <c r="G94" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
@@ -2591,13 +2813,13 @@
         <v>2020</v>
       </c>
       <c r="E95">
-        <v>28819</v>
+        <v>439</v>
       </c>
       <c r="F95">
-        <v>915</v>
+        <v>6</v>
       </c>
       <c r="G95" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
@@ -2614,13 +2836,13 @@
         <v>2020</v>
       </c>
       <c r="E96">
-        <v>32425</v>
+        <v>318</v>
       </c>
       <c r="F96">
-        <v>1104</v>
+        <v>6</v>
       </c>
       <c r="G96" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
@@ -2637,13 +2859,13 @@
         <v>2020</v>
       </c>
       <c r="E97">
-        <v>34272</v>
+        <v>336</v>
       </c>
       <c r="F97">
-        <v>1344</v>
+        <v>1</v>
       </c>
       <c r="G97" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
@@ -2660,13 +2882,13 @@
         <v>2020</v>
       </c>
       <c r="E98">
-        <v>25398</v>
+        <v>383</v>
       </c>
       <c r="F98">
-        <v>1146</v>
+        <v>3</v>
       </c>
       <c r="G98" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
@@ -2683,13 +2905,13 @@
         <v>2020</v>
       </c>
       <c r="E99">
-        <v>30561</v>
+        <v>163</v>
       </c>
       <c r="F99">
-        <v>1342</v>
+        <v>7</v>
       </c>
       <c r="G99" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
@@ -2706,13 +2928,13 @@
         <v>2020</v>
       </c>
       <c r="E100">
-        <v>30613</v>
+        <v>89</v>
       </c>
       <c r="F100">
-        <v>1906</v>
+        <v>0</v>
       </c>
       <c r="G100" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
@@ -2729,13 +2951,13 @@
         <v>2020</v>
       </c>
       <c r="E101">
-        <v>33323</v>
+        <v>351</v>
       </c>
       <c r="F101">
-        <v>1922</v>
+        <v>1</v>
       </c>
       <c r="G101" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
@@ -2752,13 +2974,13 @@
         <v>2020</v>
       </c>
       <c r="E102">
-        <v>33901</v>
+        <v>410</v>
       </c>
       <c r="F102">
-        <v>1873</v>
+        <v>4</v>
       </c>
       <c r="G102" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
@@ -2775,13 +2997,13 @@
         <v>2020</v>
       </c>
       <c r="E103">
-        <v>35527</v>
+        <v>680</v>
       </c>
       <c r="F103">
-        <v>2087</v>
+        <v>3</v>
       </c>
       <c r="G103" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2792,7 +3014,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F104"/>
   <sheetViews>
@@ -5064,7 +5286,7 @@
         <v>85</v>
       </c>
       <c r="D103" s="2">
-        <f t="shared" ref="D103:D104" si="2">ROUNDDOWN(C103-((C104-D104)/(E104-E102)),0)</f>
+        <f t="shared" ref="D103" si="2">ROUNDDOWN(C103-((C104-D104)/(E104-E102)),0)</f>
         <v>88</v>
       </c>
       <c r="E103">
@@ -5102,7 +5324,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G103"/>
   <sheetViews>
@@ -7492,11 +7714,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -9806,10 +10028,2400 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G103"/>
+  <sheetViews>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="E102" sqref="E102"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B1">
+        <v>31</v>
+      </c>
+      <c r="C1">
+        <v>12</v>
+      </c>
+      <c r="D1">
+        <v>2019</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>43831</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2020</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43832</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2020</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43833</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2020</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>43834</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2020</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>43835</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2020</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>43836</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>2020</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>43837</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>2020</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>43838</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>2020</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>43839</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>2020</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>43840</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>2020</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>43841</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>2020</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>43842</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>2020</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>43843</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>2020</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>43844</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>2020</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>43845</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>2020</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>43846</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>2020</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>43847</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>2020</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>43848</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>2020</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>43849</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>2020</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>43850</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>2020</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>43851</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>2020</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>43852</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>2020</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>43853</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>2020</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>43854</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>2020</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>43855</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>2020</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>43856</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>2020</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>43857</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>2020</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>43858</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>2020</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>43859</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>2020</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>43860</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>2020</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>43861</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>2020</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>43862</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>2020</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>43863</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>2020</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>43864</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>2020</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>43865</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>2020</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>43866</v>
+      </c>
+      <c r="B37">
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>2020</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>43867</v>
+      </c>
+      <c r="B38">
+        <v>6</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>2020</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>43868</v>
+      </c>
+      <c r="B39">
+        <v>7</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>2020</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>43869</v>
+      </c>
+      <c r="B40">
+        <v>8</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>2020</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>43870</v>
+      </c>
+      <c r="B41">
+        <v>9</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>2020</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>43871</v>
+      </c>
+      <c r="B42">
+        <v>10</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>2020</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>43872</v>
+      </c>
+      <c r="B43">
+        <v>11</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>2020</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>43873</v>
+      </c>
+      <c r="B44">
+        <v>12</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>2020</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>43874</v>
+      </c>
+      <c r="B45">
+        <v>13</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>2020</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>43875</v>
+      </c>
+      <c r="B46">
+        <v>14</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>2020</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>43876</v>
+      </c>
+      <c r="B47">
+        <v>15</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>2020</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>43877</v>
+      </c>
+      <c r="B48">
+        <v>16</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>2020</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>43878</v>
+      </c>
+      <c r="B49">
+        <v>17</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>2020</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>43879</v>
+      </c>
+      <c r="B50">
+        <v>18</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>2020</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>43880</v>
+      </c>
+      <c r="B51">
+        <v>19</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>2020</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>43881</v>
+      </c>
+      <c r="B52">
+        <v>20</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52">
+        <v>2020</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>43882</v>
+      </c>
+      <c r="B53">
+        <v>21</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53">
+        <v>2020</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B54">
+        <v>22</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54">
+        <v>2020</v>
+      </c>
+      <c r="E54">
+        <v>19</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B55">
+        <v>23</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>2020</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>43885</v>
+      </c>
+      <c r="B56">
+        <v>24</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <v>2020</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>43886</v>
+      </c>
+      <c r="B57">
+        <v>25</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57">
+        <v>2020</v>
+      </c>
+      <c r="E57">
+        <v>18</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>43887</v>
+      </c>
+      <c r="B58">
+        <v>26</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58">
+        <v>2020</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>43888</v>
+      </c>
+      <c r="B59">
+        <v>27</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="D59">
+        <v>2020</v>
+      </c>
+      <c r="E59">
+        <v>6</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>43889</v>
+      </c>
+      <c r="B60">
+        <v>28</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+      <c r="D60">
+        <v>2020</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>43890</v>
+      </c>
+      <c r="B61">
+        <v>29</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="D61">
+        <v>2020</v>
+      </c>
+      <c r="E61">
+        <v>6</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>43891</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="D62">
+        <v>2020</v>
+      </c>
+      <c r="E62">
+        <v>3</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>43892</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+      <c r="D63">
+        <v>2020</v>
+      </c>
+      <c r="E63">
+        <v>20</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>43893</v>
+      </c>
+      <c r="B64">
+        <v>3</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64">
+        <v>2020</v>
+      </c>
+      <c r="E64">
+        <v>14</v>
+      </c>
+      <c r="F64">
+        <v>4</v>
+      </c>
+      <c r="G64" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>43894</v>
+      </c>
+      <c r="B65">
+        <v>4</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65">
+        <v>2020</v>
+      </c>
+      <c r="E65">
+        <v>22</v>
+      </c>
+      <c r="F65">
+        <v>3</v>
+      </c>
+      <c r="G65" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>43895</v>
+      </c>
+      <c r="B66">
+        <v>5</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+      <c r="D66">
+        <v>2020</v>
+      </c>
+      <c r="E66">
+        <v>34</v>
+      </c>
+      <c r="F66">
+        <v>2</v>
+      </c>
+      <c r="G66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>43896</v>
+      </c>
+      <c r="B67">
+        <v>6</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+      <c r="D67">
+        <v>2020</v>
+      </c>
+      <c r="E67">
+        <v>74</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>43897</v>
+      </c>
+      <c r="B68">
+        <v>7</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+      <c r="D68">
+        <v>2020</v>
+      </c>
+      <c r="E68">
+        <v>105</v>
+      </c>
+      <c r="F68">
+        <v>2</v>
+      </c>
+      <c r="G68" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>43898</v>
+      </c>
+      <c r="B69">
+        <v>8</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="D69">
+        <v>2020</v>
+      </c>
+      <c r="E69">
+        <v>95</v>
+      </c>
+      <c r="F69">
+        <v>3</v>
+      </c>
+      <c r="G69" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>43899</v>
+      </c>
+      <c r="B70">
+        <v>9</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+      <c r="D70">
+        <v>2020</v>
+      </c>
+      <c r="E70">
+        <v>121</v>
+      </c>
+      <c r="F70">
+        <v>4</v>
+      </c>
+      <c r="G70" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>43900</v>
+      </c>
+      <c r="B71">
+        <v>10</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
+      <c r="D71">
+        <v>2020</v>
+      </c>
+      <c r="E71">
+        <v>200</v>
+      </c>
+      <c r="F71">
+        <v>5</v>
+      </c>
+      <c r="G71" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>43901</v>
+      </c>
+      <c r="B72">
+        <v>11</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+      <c r="D72">
+        <v>2020</v>
+      </c>
+      <c r="E72">
+        <v>271</v>
+      </c>
+      <c r="F72">
+        <v>2</v>
+      </c>
+      <c r="G72" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>43902</v>
+      </c>
+      <c r="B73">
+        <v>12</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+      <c r="D73">
+        <v>2020</v>
+      </c>
+      <c r="E73">
+        <v>287</v>
+      </c>
+      <c r="F73">
+        <v>2</v>
+      </c>
+      <c r="G73" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>43903</v>
+      </c>
+      <c r="B74">
+        <v>13</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
+      <c r="D74">
+        <v>2020</v>
+      </c>
+      <c r="E74">
+        <v>351</v>
+      </c>
+      <c r="F74">
+        <v>10</v>
+      </c>
+      <c r="G74" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>43904</v>
+      </c>
+      <c r="B75">
+        <v>14</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+      <c r="D75">
+        <v>2020</v>
+      </c>
+      <c r="E75">
+        <v>511</v>
+      </c>
+      <c r="F75">
+        <v>7</v>
+      </c>
+      <c r="G75" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>43905</v>
+      </c>
+      <c r="B76">
+        <v>15</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+      <c r="D76">
+        <v>2020</v>
+      </c>
+      <c r="E76">
+        <v>777</v>
+      </c>
+      <c r="F76">
+        <v>10</v>
+      </c>
+      <c r="G76" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>43906</v>
+      </c>
+      <c r="B77">
+        <v>16</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+      <c r="D77">
+        <v>2020</v>
+      </c>
+      <c r="E77">
+        <v>823</v>
+      </c>
+      <c r="F77">
+        <v>12</v>
+      </c>
+      <c r="G77" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>43907</v>
+      </c>
+      <c r="B78">
+        <v>17</v>
+      </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+      <c r="D78">
+        <v>2020</v>
+      </c>
+      <c r="E78">
+        <v>887</v>
+      </c>
+      <c r="F78">
+        <v>16</v>
+      </c>
+      <c r="G78" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>43908</v>
+      </c>
+      <c r="B79">
+        <v>18</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+      <c r="D79">
+        <v>2020</v>
+      </c>
+      <c r="E79">
+        <v>1766</v>
+      </c>
+      <c r="F79">
+        <v>23</v>
+      </c>
+      <c r="G79" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>43909</v>
+      </c>
+      <c r="B80">
+        <v>19</v>
+      </c>
+      <c r="C80">
+        <v>3</v>
+      </c>
+      <c r="D80">
+        <v>2020</v>
+      </c>
+      <c r="E80">
+        <v>2988</v>
+      </c>
+      <c r="F80">
+        <v>42</v>
+      </c>
+      <c r="G80" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>43910</v>
+      </c>
+      <c r="B81">
+        <v>20</v>
+      </c>
+      <c r="C81">
+        <v>3</v>
+      </c>
+      <c r="D81">
+        <v>2020</v>
+      </c>
+      <c r="E81">
+        <v>4835</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>43911</v>
+      </c>
+      <c r="B82">
+        <v>21</v>
+      </c>
+      <c r="C82">
+        <v>3</v>
+      </c>
+      <c r="D82">
+        <v>2020</v>
+      </c>
+      <c r="E82">
+        <v>5374</v>
+      </c>
+      <c r="F82">
+        <v>110</v>
+      </c>
+      <c r="G82" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>43912</v>
+      </c>
+      <c r="B83">
+        <v>22</v>
+      </c>
+      <c r="C83">
+        <v>3</v>
+      </c>
+      <c r="D83">
+        <v>2020</v>
+      </c>
+      <c r="E83">
+        <v>7123</v>
+      </c>
+      <c r="F83">
+        <v>80</v>
+      </c>
+      <c r="G83" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>43913</v>
+      </c>
+      <c r="B84">
+        <v>23</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+      <c r="D84">
+        <v>2020</v>
+      </c>
+      <c r="E84">
+        <v>8459</v>
+      </c>
+      <c r="F84">
+        <v>131</v>
+      </c>
+      <c r="G84" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>43914</v>
+      </c>
+      <c r="B85">
+        <v>24</v>
+      </c>
+      <c r="C85">
+        <v>3</v>
+      </c>
+      <c r="D85">
+        <v>2020</v>
+      </c>
+      <c r="E85">
+        <v>11236</v>
+      </c>
+      <c r="F85">
+        <v>119</v>
+      </c>
+      <c r="G85" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>43915</v>
+      </c>
+      <c r="B86">
+        <v>25</v>
+      </c>
+      <c r="C86">
+        <v>3</v>
+      </c>
+      <c r="D86">
+        <v>2020</v>
+      </c>
+      <c r="E86">
+        <v>8789</v>
+      </c>
+      <c r="F86">
+        <v>211</v>
+      </c>
+      <c r="G86" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>43916</v>
+      </c>
+      <c r="B87">
+        <v>26</v>
+      </c>
+      <c r="C87">
+        <v>3</v>
+      </c>
+      <c r="D87">
+        <v>2020</v>
+      </c>
+      <c r="E87">
+        <v>13963</v>
+      </c>
+      <c r="F87">
+        <v>249</v>
+      </c>
+      <c r="G87" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>43917</v>
+      </c>
+      <c r="B88">
+        <v>27</v>
+      </c>
+      <c r="C88">
+        <v>3</v>
+      </c>
+      <c r="D88">
+        <v>2020</v>
+      </c>
+      <c r="E88">
+        <v>16797</v>
+      </c>
+      <c r="F88">
+        <v>246</v>
+      </c>
+      <c r="G88" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>43918</v>
+      </c>
+      <c r="B89">
+        <v>28</v>
+      </c>
+      <c r="C89">
+        <v>3</v>
+      </c>
+      <c r="D89">
+        <v>2020</v>
+      </c>
+      <c r="E89">
+        <v>18695</v>
+      </c>
+      <c r="F89">
+        <v>411</v>
+      </c>
+      <c r="G89" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>43919</v>
+      </c>
+      <c r="B90">
+        <v>29</v>
+      </c>
+      <c r="C90">
+        <v>3</v>
+      </c>
+      <c r="D90">
+        <v>2020</v>
+      </c>
+      <c r="E90">
+        <v>19979</v>
+      </c>
+      <c r="F90">
+        <v>484</v>
+      </c>
+      <c r="G90" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>43920</v>
+      </c>
+      <c r="B91">
+        <v>30</v>
+      </c>
+      <c r="C91">
+        <v>3</v>
+      </c>
+      <c r="D91">
+        <v>2020</v>
+      </c>
+      <c r="E91">
+        <v>18360</v>
+      </c>
+      <c r="F91">
+        <v>318</v>
+      </c>
+      <c r="G91" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B92">
+        <v>31</v>
+      </c>
+      <c r="C92">
+        <v>3</v>
+      </c>
+      <c r="D92">
+        <v>2020</v>
+      </c>
+      <c r="E92">
+        <v>21595</v>
+      </c>
+      <c r="F92">
+        <v>661</v>
+      </c>
+      <c r="G92" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>43922</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93">
+        <v>4</v>
+      </c>
+      <c r="D93">
+        <v>2020</v>
+      </c>
+      <c r="E93">
+        <v>24998</v>
+      </c>
+      <c r="F93">
+        <v>909</v>
+      </c>
+      <c r="G93" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>43923</v>
+      </c>
+      <c r="B94">
+        <v>2</v>
+      </c>
+      <c r="C94">
+        <v>4</v>
+      </c>
+      <c r="D94">
+        <v>2020</v>
+      </c>
+      <c r="E94">
+        <v>27103</v>
+      </c>
+      <c r="F94">
+        <v>1059</v>
+      </c>
+      <c r="G94" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>43924</v>
+      </c>
+      <c r="B95">
+        <v>3</v>
+      </c>
+      <c r="C95">
+        <v>4</v>
+      </c>
+      <c r="D95">
+        <v>2020</v>
+      </c>
+      <c r="E95">
+        <v>28819</v>
+      </c>
+      <c r="F95">
+        <v>915</v>
+      </c>
+      <c r="G95" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B96">
+        <v>4</v>
+      </c>
+      <c r="C96">
+        <v>4</v>
+      </c>
+      <c r="D96">
+        <v>2020</v>
+      </c>
+      <c r="E96">
+        <v>32425</v>
+      </c>
+      <c r="F96">
+        <v>1104</v>
+      </c>
+      <c r="G96" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>43926</v>
+      </c>
+      <c r="B97">
+        <v>5</v>
+      </c>
+      <c r="C97">
+        <v>4</v>
+      </c>
+      <c r="D97">
+        <v>2020</v>
+      </c>
+      <c r="E97">
+        <v>34272</v>
+      </c>
+      <c r="F97">
+        <v>1344</v>
+      </c>
+      <c r="G97" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B98">
+        <v>6</v>
+      </c>
+      <c r="C98">
+        <v>4</v>
+      </c>
+      <c r="D98">
+        <v>2020</v>
+      </c>
+      <c r="E98">
+        <v>25398</v>
+      </c>
+      <c r="F98">
+        <v>1146</v>
+      </c>
+      <c r="G98" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B99">
+        <v>7</v>
+      </c>
+      <c r="C99">
+        <v>4</v>
+      </c>
+      <c r="D99">
+        <v>2020</v>
+      </c>
+      <c r="E99">
+        <v>30561</v>
+      </c>
+      <c r="F99">
+        <v>1342</v>
+      </c>
+      <c r="G99" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B100">
+        <v>8</v>
+      </c>
+      <c r="C100">
+        <v>4</v>
+      </c>
+      <c r="D100">
+        <v>2020</v>
+      </c>
+      <c r="E100">
+        <v>30613</v>
+      </c>
+      <c r="F100">
+        <v>1906</v>
+      </c>
+      <c r="G100" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B101">
+        <v>9</v>
+      </c>
+      <c r="C101">
+        <v>4</v>
+      </c>
+      <c r="D101">
+        <v>2020</v>
+      </c>
+      <c r="E101">
+        <v>33323</v>
+      </c>
+      <c r="F101">
+        <v>1922</v>
+      </c>
+      <c r="G101" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B102">
+        <v>10</v>
+      </c>
+      <c r="C102">
+        <v>4</v>
+      </c>
+      <c r="D102">
+        <v>2020</v>
+      </c>
+      <c r="E102">
+        <v>33901</v>
+      </c>
+      <c r="F102">
+        <v>1873</v>
+      </c>
+      <c r="G102" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B103">
+        <v>11</v>
+      </c>
+      <c r="C103">
+        <v>4</v>
+      </c>
+      <c r="D103">
+        <v>2020</v>
+      </c>
+      <c r="E103">
+        <v>35527</v>
+      </c>
+      <c r="F103">
+        <v>2087</v>
+      </c>
+      <c r="G103" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:G103">
+    <sortCondition ref="A1:A103"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L104"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="G91" sqref="G1:G1048576"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11792,7 +14404,7 @@
         <v>1707</v>
       </c>
       <c r="D90" s="2">
-        <f t="shared" si="1"/>
+        <f>ROUNDDOWN(C90-((C91-D91)/(E91-E89)),0)</f>
         <v>1706</v>
       </c>
       <c r="E90">
@@ -12122,7 +14734,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G103"/>
   <sheetViews>
@@ -14512,7 +17124,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F104"/>
   <sheetViews>
@@ -16822,7 +19434,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G103"/>
   <sheetViews>
@@ -19212,7 +21824,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F104"/>
   <sheetViews>
@@ -21522,7 +24134,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G103"/>
   <sheetViews>
@@ -23912,7 +26524,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F104"/>
   <sheetViews>
@@ -26220,2394 +28832,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G103"/>
-  <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="L89" sqref="L89"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
-        <v>43830</v>
-      </c>
-      <c r="B1">
-        <v>31</v>
-      </c>
-      <c r="C1">
-        <v>12</v>
-      </c>
-      <c r="D1">
-        <v>2019</v>
-      </c>
-      <c r="E1">
-        <v>0</v>
-      </c>
-      <c r="F1">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>43831</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>2020</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>43832</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>2020</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>43833</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>2020</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>43834</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>2020</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>43835</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>2020</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>43836</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>2020</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>43837</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>2020</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>43838</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>2020</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>43839</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>2020</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>43840</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>2020</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>43841</v>
-      </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>2020</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>43842</v>
-      </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>2020</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>43843</v>
-      </c>
-      <c r="B14">
-        <v>13</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>2020</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>43844</v>
-      </c>
-      <c r="B15">
-        <v>14</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>2020</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>43845</v>
-      </c>
-      <c r="B16">
-        <v>15</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>2020</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>43846</v>
-      </c>
-      <c r="B17">
-        <v>16</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>2020</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>43847</v>
-      </c>
-      <c r="B18">
-        <v>17</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>2020</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>43848</v>
-      </c>
-      <c r="B19">
-        <v>18</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>2020</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>43849</v>
-      </c>
-      <c r="B20">
-        <v>19</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>2020</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>43850</v>
-      </c>
-      <c r="B21">
-        <v>20</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>2020</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>43851</v>
-      </c>
-      <c r="B22">
-        <v>21</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>2020</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>43852</v>
-      </c>
-      <c r="B23">
-        <v>22</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>2020</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>43853</v>
-      </c>
-      <c r="B24">
-        <v>23</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>2020</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>43854</v>
-      </c>
-      <c r="B25">
-        <v>24</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>2020</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>43855</v>
-      </c>
-      <c r="B26">
-        <v>25</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>2020</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>43856</v>
-      </c>
-      <c r="B27">
-        <v>26</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>2020</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>43857</v>
-      </c>
-      <c r="B28">
-        <v>27</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>2020</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>43858</v>
-      </c>
-      <c r="B29">
-        <v>28</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <v>2020</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>43859</v>
-      </c>
-      <c r="B30">
-        <v>29</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>2020</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>43860</v>
-      </c>
-      <c r="B31">
-        <v>30</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>2020</v>
-      </c>
-      <c r="E31">
-        <v>4</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>43861</v>
-      </c>
-      <c r="B32">
-        <v>31</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>2020</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <v>43862</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <v>2</v>
-      </c>
-      <c r="D33">
-        <v>2020</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
-        <v>43863</v>
-      </c>
-      <c r="B34">
-        <v>2</v>
-      </c>
-      <c r="C34">
-        <v>2</v>
-      </c>
-      <c r="D34">
-        <v>2020</v>
-      </c>
-      <c r="E34">
-        <v>4</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
-        <v>43864</v>
-      </c>
-      <c r="B35">
-        <v>3</v>
-      </c>
-      <c r="C35">
-        <v>2</v>
-      </c>
-      <c r="D35">
-        <v>2020</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
-        <v>43865</v>
-      </c>
-      <c r="B36">
-        <v>4</v>
-      </c>
-      <c r="C36">
-        <v>2</v>
-      </c>
-      <c r="D36">
-        <v>2020</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
-        <v>43866</v>
-      </c>
-      <c r="B37">
-        <v>5</v>
-      </c>
-      <c r="C37">
-        <v>2</v>
-      </c>
-      <c r="D37">
-        <v>2020</v>
-      </c>
-      <c r="E37">
-        <v>5</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
-        <v>43867</v>
-      </c>
-      <c r="B38">
-        <v>6</v>
-      </c>
-      <c r="C38">
-        <v>2</v>
-      </c>
-      <c r="D38">
-        <v>2020</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
-        <v>43868</v>
-      </c>
-      <c r="B39">
-        <v>7</v>
-      </c>
-      <c r="C39">
-        <v>2</v>
-      </c>
-      <c r="D39">
-        <v>2020</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
-        <v>43869</v>
-      </c>
-      <c r="B40">
-        <v>8</v>
-      </c>
-      <c r="C40">
-        <v>2</v>
-      </c>
-      <c r="D40">
-        <v>2020</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
-        <v>43870</v>
-      </c>
-      <c r="B41">
-        <v>9</v>
-      </c>
-      <c r="C41">
-        <v>2</v>
-      </c>
-      <c r="D41">
-        <v>2020</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
-        <v>43871</v>
-      </c>
-      <c r="B42">
-        <v>10</v>
-      </c>
-      <c r="C42">
-        <v>2</v>
-      </c>
-      <c r="D42">
-        <v>2020</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
-        <v>43872</v>
-      </c>
-      <c r="B43">
-        <v>11</v>
-      </c>
-      <c r="C43">
-        <v>2</v>
-      </c>
-      <c r="D43">
-        <v>2020</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
-        <v>43873</v>
-      </c>
-      <c r="B44">
-        <v>12</v>
-      </c>
-      <c r="C44">
-        <v>2</v>
-      </c>
-      <c r="D44">
-        <v>2020</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
-        <v>43874</v>
-      </c>
-      <c r="B45">
-        <v>13</v>
-      </c>
-      <c r="C45">
-        <v>2</v>
-      </c>
-      <c r="D45">
-        <v>2020</v>
-      </c>
-      <c r="E45">
-        <v>4</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="G45" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
-        <v>43875</v>
-      </c>
-      <c r="B46">
-        <v>14</v>
-      </c>
-      <c r="C46">
-        <v>2</v>
-      </c>
-      <c r="D46">
-        <v>2020</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
-        <v>43876</v>
-      </c>
-      <c r="B47">
-        <v>15</v>
-      </c>
-      <c r="C47">
-        <v>2</v>
-      </c>
-      <c r="D47">
-        <v>2020</v>
-      </c>
-      <c r="E47">
-        <v>8</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
-        <v>43877</v>
-      </c>
-      <c r="B48">
-        <v>16</v>
-      </c>
-      <c r="C48">
-        <v>2</v>
-      </c>
-      <c r="D48">
-        <v>2020</v>
-      </c>
-      <c r="E48">
-        <v>14</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
-        <v>43878</v>
-      </c>
-      <c r="B49">
-        <v>17</v>
-      </c>
-      <c r="C49">
-        <v>2</v>
-      </c>
-      <c r="D49">
-        <v>2020</v>
-      </c>
-      <c r="E49">
-        <v>7</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
-        <v>43879</v>
-      </c>
-      <c r="B50">
-        <v>18</v>
-      </c>
-      <c r="C50">
-        <v>2</v>
-      </c>
-      <c r="D50">
-        <v>2020</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
-        <v>43880</v>
-      </c>
-      <c r="B51">
-        <v>19</v>
-      </c>
-      <c r="C51">
-        <v>2</v>
-      </c>
-      <c r="D51">
-        <v>2020</v>
-      </c>
-      <c r="E51">
-        <v>7</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
-        <v>43881</v>
-      </c>
-      <c r="B52">
-        <v>20</v>
-      </c>
-      <c r="C52">
-        <v>2</v>
-      </c>
-      <c r="D52">
-        <v>2020</v>
-      </c>
-      <c r="E52">
-        <v>18</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="1">
-        <v>43882</v>
-      </c>
-      <c r="B53">
-        <v>21</v>
-      </c>
-      <c r="C53">
-        <v>2</v>
-      </c>
-      <c r="D53">
-        <v>2020</v>
-      </c>
-      <c r="E53">
-        <v>9</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="1">
-        <v>43883</v>
-      </c>
-      <c r="B54">
-        <v>22</v>
-      </c>
-      <c r="C54">
-        <v>2</v>
-      </c>
-      <c r="D54">
-        <v>2020</v>
-      </c>
-      <c r="E54">
-        <v>12</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="1">
-        <v>43884</v>
-      </c>
-      <c r="B55">
-        <v>23</v>
-      </c>
-      <c r="C55">
-        <v>2</v>
-      </c>
-      <c r="D55">
-        <v>2020</v>
-      </c>
-      <c r="E55">
-        <v>27</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="1">
-        <v>43885</v>
-      </c>
-      <c r="B56">
-        <v>24</v>
-      </c>
-      <c r="C56">
-        <v>2</v>
-      </c>
-      <c r="D56">
-        <v>2020</v>
-      </c>
-      <c r="E56">
-        <v>12</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="1">
-        <v>43886</v>
-      </c>
-      <c r="B57">
-        <v>25</v>
-      </c>
-      <c r="C57">
-        <v>2</v>
-      </c>
-      <c r="D57">
-        <v>2020</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="1">
-        <v>43887</v>
-      </c>
-      <c r="B58">
-        <v>26</v>
-      </c>
-      <c r="C58">
-        <v>2</v>
-      </c>
-      <c r="D58">
-        <v>2020</v>
-      </c>
-      <c r="E58">
-        <v>20</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="1">
-        <v>43888</v>
-      </c>
-      <c r="B59">
-        <v>27</v>
-      </c>
-      <c r="C59">
-        <v>2</v>
-      </c>
-      <c r="D59">
-        <v>2020</v>
-      </c>
-      <c r="E59">
-        <v>22</v>
-      </c>
-      <c r="F59">
-        <v>2</v>
-      </c>
-      <c r="G59" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="1">
-        <v>43889</v>
-      </c>
-      <c r="B60">
-        <v>28</v>
-      </c>
-      <c r="C60">
-        <v>2</v>
-      </c>
-      <c r="D60">
-        <v>2020</v>
-      </c>
-      <c r="E60">
-        <v>24</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="1">
-        <v>43890</v>
-      </c>
-      <c r="B61">
-        <v>29</v>
-      </c>
-      <c r="C61">
-        <v>2</v>
-      </c>
-      <c r="D61">
-        <v>2020</v>
-      </c>
-      <c r="E61">
-        <v>20</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="1">
-        <v>43891</v>
-      </c>
-      <c r="B62">
-        <v>1</v>
-      </c>
-      <c r="C62">
-        <v>3</v>
-      </c>
-      <c r="D62">
-        <v>2020</v>
-      </c>
-      <c r="E62">
-        <v>9</v>
-      </c>
-      <c r="F62">
-        <v>2</v>
-      </c>
-      <c r="G62" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="1">
-        <v>43892</v>
-      </c>
-      <c r="B63">
-        <v>2</v>
-      </c>
-      <c r="C63">
-        <v>3</v>
-      </c>
-      <c r="D63">
-        <v>2020</v>
-      </c>
-      <c r="E63">
-        <v>15</v>
-      </c>
-      <c r="F63">
-        <v>1</v>
-      </c>
-      <c r="G63" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="1">
-        <v>43893</v>
-      </c>
-      <c r="B64">
-        <v>3</v>
-      </c>
-      <c r="C64">
-        <v>3</v>
-      </c>
-      <c r="D64">
-        <v>2020</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="1">
-        <v>43894</v>
-      </c>
-      <c r="B65">
-        <v>4</v>
-      </c>
-      <c r="C65">
-        <v>3</v>
-      </c>
-      <c r="D65">
-        <v>2020</v>
-      </c>
-      <c r="E65">
-        <v>14</v>
-      </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="G65" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="1">
-        <v>43895</v>
-      </c>
-      <c r="B66">
-        <v>5</v>
-      </c>
-      <c r="C66">
-        <v>3</v>
-      </c>
-      <c r="D66">
-        <v>2020</v>
-      </c>
-      <c r="E66">
-        <v>49</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="G66" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="1">
-        <v>43896</v>
-      </c>
-      <c r="B67">
-        <v>6</v>
-      </c>
-      <c r="C67">
-        <v>3</v>
-      </c>
-      <c r="D67">
-        <v>2020</v>
-      </c>
-      <c r="E67">
-        <v>32</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="1">
-        <v>43897</v>
-      </c>
-      <c r="B68">
-        <v>7</v>
-      </c>
-      <c r="C68">
-        <v>3</v>
-      </c>
-      <c r="D68">
-        <v>2020</v>
-      </c>
-      <c r="E68">
-        <v>59</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="G68" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="1">
-        <v>43898</v>
-      </c>
-      <c r="B69">
-        <v>8</v>
-      </c>
-      <c r="C69">
-        <v>3</v>
-      </c>
-      <c r="D69">
-        <v>2020</v>
-      </c>
-      <c r="E69">
-        <v>47</v>
-      </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-      <c r="G69" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="1">
-        <v>43899</v>
-      </c>
-      <c r="B70">
-        <v>9</v>
-      </c>
-      <c r="C70">
-        <v>3</v>
-      </c>
-      <c r="D70">
-        <v>2020</v>
-      </c>
-      <c r="E70">
-        <v>33</v>
-      </c>
-      <c r="F70">
-        <v>1</v>
-      </c>
-      <c r="G70" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="1">
-        <v>43900</v>
-      </c>
-      <c r="B71">
-        <v>10</v>
-      </c>
-      <c r="C71">
-        <v>3</v>
-      </c>
-      <c r="D71">
-        <v>2020</v>
-      </c>
-      <c r="E71">
-        <v>26</v>
-      </c>
-      <c r="F71">
-        <v>2</v>
-      </c>
-      <c r="G71" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="1">
-        <v>43901</v>
-      </c>
-      <c r="B72">
-        <v>11</v>
-      </c>
-      <c r="C72">
-        <v>3</v>
-      </c>
-      <c r="D72">
-        <v>2020</v>
-      </c>
-      <c r="E72">
-        <v>54</v>
-      </c>
-      <c r="F72">
-        <v>3</v>
-      </c>
-      <c r="G72" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="1">
-        <v>43902</v>
-      </c>
-      <c r="B73">
-        <v>12</v>
-      </c>
-      <c r="C73">
-        <v>3</v>
-      </c>
-      <c r="D73">
-        <v>2020</v>
-      </c>
-      <c r="E73">
-        <v>51</v>
-      </c>
-      <c r="F73">
-        <v>3</v>
-      </c>
-      <c r="G73" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="1">
-        <v>43903</v>
-      </c>
-      <c r="B74">
-        <v>13</v>
-      </c>
-      <c r="C74">
-        <v>3</v>
-      </c>
-      <c r="D74">
-        <v>2020</v>
-      </c>
-      <c r="E74">
-        <v>56</v>
-      </c>
-      <c r="F74">
-        <v>4</v>
-      </c>
-      <c r="G74" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="1">
-        <v>43904</v>
-      </c>
-      <c r="B75">
-        <v>14</v>
-      </c>
-      <c r="C75">
-        <v>3</v>
-      </c>
-      <c r="D75">
-        <v>2020</v>
-      </c>
-      <c r="E75">
-        <v>62</v>
-      </c>
-      <c r="F75">
-        <v>2</v>
-      </c>
-      <c r="G75" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="1">
-        <v>43905</v>
-      </c>
-      <c r="B76">
-        <v>15</v>
-      </c>
-      <c r="C76">
-        <v>3</v>
-      </c>
-      <c r="D76">
-        <v>2020</v>
-      </c>
-      <c r="E76">
-        <v>43</v>
-      </c>
-      <c r="F76">
-        <v>1</v>
-      </c>
-      <c r="G76" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="1">
-        <v>43906</v>
-      </c>
-      <c r="B77">
-        <v>16</v>
-      </c>
-      <c r="C77">
-        <v>3</v>
-      </c>
-      <c r="D77">
-        <v>2020</v>
-      </c>
-      <c r="E77">
-        <v>34</v>
-      </c>
-      <c r="F77">
-        <v>2</v>
-      </c>
-      <c r="G77" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="1">
-        <v>43907</v>
-      </c>
-      <c r="B78">
-        <v>17</v>
-      </c>
-      <c r="C78">
-        <v>3</v>
-      </c>
-      <c r="D78">
-        <v>2020</v>
-      </c>
-      <c r="E78">
-        <v>10</v>
-      </c>
-      <c r="F78">
-        <v>4</v>
-      </c>
-      <c r="G78" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="1">
-        <v>43908</v>
-      </c>
-      <c r="B79">
-        <v>18</v>
-      </c>
-      <c r="C79">
-        <v>3</v>
-      </c>
-      <c r="D79">
-        <v>2020</v>
-      </c>
-      <c r="E79">
-        <v>5</v>
-      </c>
-      <c r="F79">
-        <v>0</v>
-      </c>
-      <c r="G79" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="1">
-        <v>43909</v>
-      </c>
-      <c r="B80">
-        <v>19</v>
-      </c>
-      <c r="C80">
-        <v>3</v>
-      </c>
-      <c r="D80">
-        <v>2020</v>
-      </c>
-      <c r="E80">
-        <v>44</v>
-      </c>
-      <c r="F80">
-        <v>1</v>
-      </c>
-      <c r="G80" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="1">
-        <v>43910</v>
-      </c>
-      <c r="B81">
-        <v>20</v>
-      </c>
-      <c r="C81">
-        <v>3</v>
-      </c>
-      <c r="D81">
-        <v>2020</v>
-      </c>
-      <c r="E81">
-        <v>77</v>
-      </c>
-      <c r="F81">
-        <v>4</v>
-      </c>
-      <c r="G81" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="1">
-        <v>43911</v>
-      </c>
-      <c r="B82">
-        <v>21</v>
-      </c>
-      <c r="C82">
-        <v>3</v>
-      </c>
-      <c r="D82">
-        <v>2020</v>
-      </c>
-      <c r="E82">
-        <v>57</v>
-      </c>
-      <c r="F82">
-        <v>2</v>
-      </c>
-      <c r="G82" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="1">
-        <v>43912</v>
-      </c>
-      <c r="B83">
-        <v>22</v>
-      </c>
-      <c r="C83">
-        <v>3</v>
-      </c>
-      <c r="D83">
-        <v>2020</v>
-      </c>
-      <c r="E83">
-        <v>39</v>
-      </c>
-      <c r="F83">
-        <v>1</v>
-      </c>
-      <c r="G83" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="1">
-        <v>43913</v>
-      </c>
-      <c r="B84">
-        <v>23</v>
-      </c>
-      <c r="C84">
-        <v>3</v>
-      </c>
-      <c r="D84">
-        <v>2020</v>
-      </c>
-      <c r="E84">
-        <v>43</v>
-      </c>
-      <c r="F84">
-        <v>5</v>
-      </c>
-      <c r="G84" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A85" s="1">
-        <v>43914</v>
-      </c>
-      <c r="B85">
-        <v>24</v>
-      </c>
-      <c r="C85">
-        <v>3</v>
-      </c>
-      <c r="D85">
-        <v>2020</v>
-      </c>
-      <c r="E85">
-        <v>39</v>
-      </c>
-      <c r="F85">
-        <v>1</v>
-      </c>
-      <c r="G85" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A86" s="1">
-        <v>43915</v>
-      </c>
-      <c r="B86">
-        <v>25</v>
-      </c>
-      <c r="C86">
-        <v>3</v>
-      </c>
-      <c r="D86">
-        <v>2020</v>
-      </c>
-      <c r="E86">
-        <v>65</v>
-      </c>
-      <c r="F86">
-        <v>1</v>
-      </c>
-      <c r="G86" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A87" s="1">
-        <v>43916</v>
-      </c>
-      <c r="B87">
-        <v>26</v>
-      </c>
-      <c r="C87">
-        <v>3</v>
-      </c>
-      <c r="D87">
-        <v>2020</v>
-      </c>
-      <c r="E87">
-        <v>75</v>
-      </c>
-      <c r="F87">
-        <v>2</v>
-      </c>
-      <c r="G87" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A88" s="1">
-        <v>43917</v>
-      </c>
-      <c r="B88">
-        <v>27</v>
-      </c>
-      <c r="C88">
-        <v>3</v>
-      </c>
-      <c r="D88">
-        <v>2020</v>
-      </c>
-      <c r="E88">
-        <v>96</v>
-      </c>
-      <c r="F88">
-        <v>1</v>
-      </c>
-      <c r="G88" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A89" s="1">
-        <v>43918</v>
-      </c>
-      <c r="B89">
-        <v>28</v>
-      </c>
-      <c r="C89">
-        <v>3</v>
-      </c>
-      <c r="D89">
-        <v>2020</v>
-      </c>
-      <c r="E89">
-        <v>135</v>
-      </c>
-      <c r="F89">
-        <v>3</v>
-      </c>
-      <c r="G89" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A90" s="1">
-        <v>43919</v>
-      </c>
-      <c r="B90">
-        <v>29</v>
-      </c>
-      <c r="C90">
-        <v>3</v>
-      </c>
-      <c r="D90">
-        <v>2020</v>
-      </c>
-      <c r="E90">
-        <v>194</v>
-      </c>
-      <c r="F90">
-        <v>3</v>
-      </c>
-      <c r="G90" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A91" s="1">
-        <v>43920</v>
-      </c>
-      <c r="B91">
-        <v>30</v>
-      </c>
-      <c r="C91">
-        <v>3</v>
-      </c>
-      <c r="D91">
-        <v>2020</v>
-      </c>
-      <c r="E91">
-        <v>173</v>
-      </c>
-      <c r="F91">
-        <v>2</v>
-      </c>
-      <c r="G91" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A92" s="1">
-        <v>43921</v>
-      </c>
-      <c r="B92">
-        <v>31</v>
-      </c>
-      <c r="C92">
-        <v>3</v>
-      </c>
-      <c r="D92">
-        <v>2020</v>
-      </c>
-      <c r="E92">
-        <v>87</v>
-      </c>
-      <c r="F92">
-        <v>2</v>
-      </c>
-      <c r="G92" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A93" s="1">
-        <v>43922</v>
-      </c>
-      <c r="B93">
-        <v>1</v>
-      </c>
-      <c r="C93">
-        <v>4</v>
-      </c>
-      <c r="D93">
-        <v>2020</v>
-      </c>
-      <c r="E93">
-        <v>0</v>
-      </c>
-      <c r="F93">
-        <v>0</v>
-      </c>
-      <c r="G93" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A94" s="1">
-        <v>43923</v>
-      </c>
-      <c r="B94">
-        <v>2</v>
-      </c>
-      <c r="C94">
-        <v>4</v>
-      </c>
-      <c r="D94">
-        <v>2020</v>
-      </c>
-      <c r="E94">
-        <v>225</v>
-      </c>
-      <c r="F94">
-        <v>1</v>
-      </c>
-      <c r="G94" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A95" s="1">
-        <v>43924</v>
-      </c>
-      <c r="B95">
-        <v>3</v>
-      </c>
-      <c r="C95">
-        <v>4</v>
-      </c>
-      <c r="D95">
-        <v>2020</v>
-      </c>
-      <c r="E95">
-        <v>439</v>
-      </c>
-      <c r="F95">
-        <v>6</v>
-      </c>
-      <c r="G95" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A96" s="1">
-        <v>43925</v>
-      </c>
-      <c r="B96">
-        <v>4</v>
-      </c>
-      <c r="C96">
-        <v>4</v>
-      </c>
-      <c r="D96">
-        <v>2020</v>
-      </c>
-      <c r="E96">
-        <v>318</v>
-      </c>
-      <c r="F96">
-        <v>6</v>
-      </c>
-      <c r="G96" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A97" s="1">
-        <v>43926</v>
-      </c>
-      <c r="B97">
-        <v>5</v>
-      </c>
-      <c r="C97">
-        <v>4</v>
-      </c>
-      <c r="D97">
-        <v>2020</v>
-      </c>
-      <c r="E97">
-        <v>336</v>
-      </c>
-      <c r="F97">
-        <v>1</v>
-      </c>
-      <c r="G97" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A98" s="1">
-        <v>43927</v>
-      </c>
-      <c r="B98">
-        <v>6</v>
-      </c>
-      <c r="C98">
-        <v>4</v>
-      </c>
-      <c r="D98">
-        <v>2020</v>
-      </c>
-      <c r="E98">
-        <v>383</v>
-      </c>
-      <c r="F98">
-        <v>3</v>
-      </c>
-      <c r="G98" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A99" s="1">
-        <v>43928</v>
-      </c>
-      <c r="B99">
-        <v>7</v>
-      </c>
-      <c r="C99">
-        <v>4</v>
-      </c>
-      <c r="D99">
-        <v>2020</v>
-      </c>
-      <c r="E99">
-        <v>163</v>
-      </c>
-      <c r="F99">
-        <v>7</v>
-      </c>
-      <c r="G99" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A100" s="1">
-        <v>43929</v>
-      </c>
-      <c r="B100">
-        <v>8</v>
-      </c>
-      <c r="C100">
-        <v>4</v>
-      </c>
-      <c r="D100">
-        <v>2020</v>
-      </c>
-      <c r="E100">
-        <v>89</v>
-      </c>
-      <c r="F100">
-        <v>0</v>
-      </c>
-      <c r="G100" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A101" s="1">
-        <v>43930</v>
-      </c>
-      <c r="B101">
-        <v>9</v>
-      </c>
-      <c r="C101">
-        <v>4</v>
-      </c>
-      <c r="D101">
-        <v>2020</v>
-      </c>
-      <c r="E101">
-        <v>351</v>
-      </c>
-      <c r="F101">
-        <v>1</v>
-      </c>
-      <c r="G101" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A102" s="1">
-        <v>43931</v>
-      </c>
-      <c r="B102">
-        <v>10</v>
-      </c>
-      <c r="C102">
-        <v>4</v>
-      </c>
-      <c r="D102">
-        <v>2020</v>
-      </c>
-      <c r="E102">
-        <v>410</v>
-      </c>
-      <c r="F102">
-        <v>4</v>
-      </c>
-      <c r="G102" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A103" s="1">
-        <v>43932</v>
-      </c>
-      <c r="B103">
-        <v>11</v>
-      </c>
-      <c r="C103">
-        <v>4</v>
-      </c>
-      <c r="D103">
-        <v>2020</v>
-      </c>
-      <c r="E103">
-        <v>680</v>
-      </c>
-      <c r="F103">
-        <v>3</v>
-      </c>
-      <c r="G103" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A1:G103">
-    <sortCondition ref="A1:A103"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/reg.xlsx
+++ b/data/reg.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="348" windowWidth="22692" windowHeight="9804"/>
+    <workbookView xWindow="288" yWindow="348" windowWidth="22692" windowHeight="9804" firstSheet="2" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="datadictionary" sheetId="14" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="28">
   <si>
     <t>y</t>
   </si>
@@ -504,7 +504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -626,10 +626,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G103"/>
+  <dimension ref="A1:G105"/>
   <sheetViews>
     <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="L89" sqref="L89"/>
+      <selection activeCell="I89" sqref="I89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3006,9 +3006,55 @@
         <v>10</v>
       </c>
     </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B104">
+        <v>12</v>
+      </c>
+      <c r="C104">
+        <v>4</v>
+      </c>
+      <c r="D104">
+        <v>2020</v>
+      </c>
+      <c r="E104">
+        <v>1401</v>
+      </c>
+      <c r="F104">
+        <v>10</v>
+      </c>
+      <c r="G104" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B105">
+        <v>13</v>
+      </c>
+      <c r="C105">
+        <v>4</v>
+      </c>
+      <c r="D105">
+        <v>2020</v>
+      </c>
+      <c r="E105">
+        <v>507</v>
+      </c>
+      <c r="F105">
+        <v>4</v>
+      </c>
+      <c r="G105" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A1:G103">
-    <sortCondition ref="A1:A103"/>
+  <sortState ref="A1:G105">
+    <sortCondition ref="A1:A105"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3016,10 +3062,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:F106"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="F103" sqref="F103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4488,7 +4534,7 @@
         <v>6</v>
       </c>
       <c r="D67" s="2">
-        <f t="shared" ref="D67:D102" si="1">ROUNDDOWN(C67-((C68-D68)/(E68-E66)),0)</f>
+        <f t="shared" ref="D67:D104" si="1">ROUNDDOWN(C67-((C68-D68)/(E68-E66)),0)</f>
         <v>6</v>
       </c>
       <c r="E67">
@@ -5263,7 +5309,7 @@
       </c>
       <c r="D102" s="2">
         <f t="shared" si="1"/>
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E102">
         <v>101</v>
@@ -5286,8 +5332,8 @@
         <v>85</v>
       </c>
       <c r="D103" s="2">
-        <f t="shared" ref="D103" si="2">ROUNDDOWN(C103-((C104-D104)/(E104-E102)),0)</f>
-        <v>88</v>
+        <f t="shared" si="1"/>
+        <v>85</v>
       </c>
       <c r="E103">
         <v>102</v>
@@ -5309,13 +5355,61 @@
         <f>SUM(B$2:B104)</f>
         <v>88</v>
       </c>
-      <c r="D104">
-        <v>94</v>
+      <c r="D104" s="2">
+        <f t="shared" si="1"/>
+        <v>88</v>
       </c>
       <c r="E104">
         <v>103</v>
       </c>
       <c r="F104" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <f>japan_land!A104</f>
+        <v>43933</v>
+      </c>
+      <c r="B105">
+        <f>japan_land!F104</f>
+        <v>10</v>
+      </c>
+      <c r="C105">
+        <f>SUM(B$2:B105)</f>
+        <v>98</v>
+      </c>
+      <c r="D105" s="2">
+        <f t="shared" ref="D105" si="2">ROUNDDOWN(C105-((C106-D106)/(E106-E104)),0)</f>
+        <v>98</v>
+      </c>
+      <c r="E105">
+        <v>104</v>
+      </c>
+      <c r="F105" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <f>japan_land!A105</f>
+        <v>43934</v>
+      </c>
+      <c r="B106">
+        <f>japan_land!F105</f>
+        <v>4</v>
+      </c>
+      <c r="C106">
+        <f>SUM(B$2:B106)</f>
+        <v>102</v>
+      </c>
+      <c r="D106">
+        <v>102</v>
+      </c>
+      <c r="E106">
+        <v>105</v>
+      </c>
+      <c r="F106" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5326,10 +5420,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G103"/>
+  <dimension ref="A1:G105"/>
   <sheetViews>
     <sheetView topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="O82" sqref="O82"/>
+      <selection activeCell="H89" sqref="H89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7706,9 +7800,55 @@
         <v>11</v>
       </c>
     </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B104">
+        <v>12</v>
+      </c>
+      <c r="C104">
+        <v>4</v>
+      </c>
+      <c r="D104">
+        <v>2020</v>
+      </c>
+      <c r="E104">
+        <v>62</v>
+      </c>
+      <c r="F104">
+        <v>6</v>
+      </c>
+      <c r="G104" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B105">
+        <v>13</v>
+      </c>
+      <c r="C105">
+        <v>4</v>
+      </c>
+      <c r="D105">
+        <v>2020</v>
+      </c>
+      <c r="E105">
+        <v>25</v>
+      </c>
+      <c r="F105">
+        <v>3</v>
+      </c>
+      <c r="G105" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A1:G103">
-    <sortCondition ref="A1:A103"/>
+  <sortState ref="A1:G105">
+    <sortCondition ref="A1:A105"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7716,10 +7856,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:F106"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9190,7 +9330,7 @@
         <v>35</v>
       </c>
       <c r="D67" s="2">
-        <f t="shared" ref="D67:D102" si="1">ROUNDDOWN(C67-((C68-D68)/(E68-E66)),0)</f>
+        <f t="shared" ref="D67:D104" si="1">ROUNDDOWN(C67-((C68-D68)/(E68-E66)),0)</f>
         <v>35</v>
       </c>
       <c r="E67">
@@ -9988,8 +10128,8 @@
         <v>208</v>
       </c>
       <c r="D103" s="2">
-        <f t="shared" ref="D103" si="2">ROUNDDOWN(C103-((C104-D104)/(E104-E102)),0)</f>
-        <v>209</v>
+        <f t="shared" si="1"/>
+        <v>208</v>
       </c>
       <c r="E103">
         <v>102</v>
@@ -10011,13 +10151,61 @@
         <f>SUM(B$2:B104)</f>
         <v>208</v>
       </c>
-      <c r="D104">
-        <v>211</v>
+      <c r="D104" s="2">
+        <f t="shared" si="1"/>
+        <v>208</v>
       </c>
       <c r="E104">
         <v>103</v>
       </c>
       <c r="F104" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <f>sk_land!A104</f>
+        <v>43933</v>
+      </c>
+      <c r="B105">
+        <f>sk_land!F104</f>
+        <v>6</v>
+      </c>
+      <c r="C105">
+        <f>SUM(B$2:B105)</f>
+        <v>214</v>
+      </c>
+      <c r="D105" s="2">
+        <f t="shared" ref="D105" si="2">ROUNDDOWN(C105-((C106-D106)/(E106-E104)),0)</f>
+        <v>214</v>
+      </c>
+      <c r="E105">
+        <v>104</v>
+      </c>
+      <c r="F105" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <f>sk_land!A105</f>
+        <v>43934</v>
+      </c>
+      <c r="B106">
+        <f>sk_land!F105</f>
+        <v>3</v>
+      </c>
+      <c r="C106">
+        <f>SUM(B$2:B106)</f>
+        <v>217</v>
+      </c>
+      <c r="D106">
+        <v>217</v>
+      </c>
+      <c r="E106">
+        <v>105</v>
+      </c>
+      <c r="F106" t="s">
         <v>11</v>
       </c>
     </row>
@@ -10028,10 +10216,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G103"/>
+  <dimension ref="A1:G105"/>
   <sheetViews>
     <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="E102" sqref="E102"/>
+      <selection activeCell="M88" sqref="M88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12408,9 +12596,55 @@
         <v>4</v>
       </c>
     </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B104">
+        <v>12</v>
+      </c>
+      <c r="C104">
+        <v>4</v>
+      </c>
+      <c r="D104">
+        <v>2020</v>
+      </c>
+      <c r="E104">
+        <v>28391</v>
+      </c>
+      <c r="F104">
+        <v>1831</v>
+      </c>
+      <c r="G104" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B105">
+        <v>13</v>
+      </c>
+      <c r="C105">
+        <v>4</v>
+      </c>
+      <c r="D105">
+        <v>2020</v>
+      </c>
+      <c r="E105">
+        <v>27620</v>
+      </c>
+      <c r="F105">
+        <v>1500</v>
+      </c>
+      <c r="G105" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A1:G103">
-    <sortCondition ref="A1:A103"/>
+  <sortState ref="A1:G105">
+    <sortCondition ref="A1:A105"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12418,10 +12652,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L104"/>
+  <dimension ref="A1:L106"/>
   <sheetViews>
     <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102"/>
+      <selection activeCell="F104" sqref="F104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13920,7 +14154,7 @@
         <v>12</v>
       </c>
       <c r="D68" s="2">
-        <f t="shared" ref="D68:D103" si="1">ROUNDDOWN(C68-((C69-D69)/(E69-E67)),0)</f>
+        <f t="shared" ref="D68:D105" si="1">ROUNDDOWN(C68-((C69-D69)/(E69-E67)),0)</f>
         <v>11</v>
       </c>
       <c r="E68">
@@ -14471,7 +14705,7 @@
       </c>
       <c r="D93" s="2">
         <f t="shared" si="1"/>
-        <v>3168</v>
+        <v>3169</v>
       </c>
       <c r="E93">
         <v>92</v>
@@ -14493,7 +14727,7 @@
       </c>
       <c r="D94" s="2">
         <f t="shared" si="1"/>
-        <v>4076</v>
+        <v>4078</v>
       </c>
       <c r="E94">
         <v>93</v>
@@ -14515,7 +14749,7 @@
       </c>
       <c r="D95" s="2">
         <f t="shared" si="1"/>
-        <v>5133</v>
+        <v>5137</v>
       </c>
       <c r="E95">
         <v>94</v>
@@ -14537,7 +14771,7 @@
       </c>
       <c r="D96" s="2">
         <f t="shared" si="1"/>
-        <v>6044</v>
+        <v>6051</v>
       </c>
       <c r="E96">
         <v>95</v>
@@ -14559,7 +14793,7 @@
       </c>
       <c r="D97" s="2">
         <f t="shared" si="1"/>
-        <v>7139</v>
+        <v>7153</v>
       </c>
       <c r="E97">
         <v>96</v>
@@ -14581,7 +14815,7 @@
       </c>
       <c r="D98" s="2">
         <f t="shared" si="1"/>
-        <v>8466</v>
+        <v>8494</v>
       </c>
       <c r="E98">
         <v>97</v>
@@ -14603,7 +14837,7 @@
       </c>
       <c r="D99" s="2">
         <f t="shared" si="1"/>
-        <v>9578</v>
+        <v>9634</v>
       </c>
       <c r="E99">
         <v>98</v>
@@ -14625,7 +14859,7 @@
       </c>
       <c r="D100" s="2">
         <f t="shared" si="1"/>
-        <v>10852</v>
+        <v>10963</v>
       </c>
       <c r="E100">
         <v>99</v>
@@ -14649,7 +14883,7 @@
       </c>
       <c r="D101" s="2">
         <f t="shared" si="1"/>
-        <v>12622</v>
+        <v>12843</v>
       </c>
       <c r="E101">
         <v>100</v>
@@ -14673,7 +14907,7 @@
       </c>
       <c r="D102" s="2">
         <f t="shared" si="1"/>
-        <v>14271</v>
+        <v>14713</v>
       </c>
       <c r="E102">
         <v>101</v>
@@ -14697,7 +14931,7 @@
       </c>
       <c r="D103" s="2">
         <f t="shared" si="1"/>
-        <v>15599</v>
+        <v>16482</v>
       </c>
       <c r="E103">
         <v>102</v>
@@ -14720,12 +14954,60 @@
         <v>18777</v>
       </c>
       <c r="D104" s="2">
-        <v>16596</v>
+        <f t="shared" si="1"/>
+        <v>18361</v>
       </c>
       <c r="E104">
         <v>103</v>
       </c>
       <c r="F104" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <f>usa_land!A104</f>
+        <v>43933</v>
+      </c>
+      <c r="B105">
+        <f>usa_land!F104</f>
+        <v>1831</v>
+      </c>
+      <c r="C105">
+        <f>SUM(B$2:B105)</f>
+        <v>20608</v>
+      </c>
+      <c r="D105" s="2">
+        <f t="shared" si="1"/>
+        <v>19776</v>
+      </c>
+      <c r="E105">
+        <v>104</v>
+      </c>
+      <c r="F105" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <f>usa_land!A105</f>
+        <v>43934</v>
+      </c>
+      <c r="B106">
+        <f>usa_land!F105</f>
+        <v>1500</v>
+      </c>
+      <c r="C106">
+        <f>SUM(B$2:B106)</f>
+        <v>22108</v>
+      </c>
+      <c r="D106" s="2">
+        <v>20444</v>
+      </c>
+      <c r="E106">
+        <v>105</v>
+      </c>
+      <c r="F106" t="s">
         <v>9</v>
       </c>
     </row>
@@ -14736,10 +15018,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G103"/>
+  <dimension ref="A1:G105"/>
   <sheetViews>
     <sheetView topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101"/>
+      <selection activeCell="M94" sqref="M94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17116,9 +17398,55 @@
         <v>5</v>
       </c>
     </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B104">
+        <v>12</v>
+      </c>
+      <c r="C104">
+        <v>4</v>
+      </c>
+      <c r="D104">
+        <v>2020</v>
+      </c>
+      <c r="E104">
+        <v>93</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B105">
+        <v>13</v>
+      </c>
+      <c r="C105">
+        <v>4</v>
+      </c>
+      <c r="D105">
+        <v>2020</v>
+      </c>
+      <c r="E105">
+        <v>112</v>
+      </c>
+      <c r="F105">
+        <v>2</v>
+      </c>
+      <c r="G105" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A1:G103">
-    <sortCondition ref="A1:A103"/>
+  <sortState ref="A1:G105">
+    <sortCondition ref="A1:A105"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17126,10 +17454,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:F106"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18576,7 +18904,7 @@
         <v>2983</v>
       </c>
       <c r="D66" s="2">
-        <f t="shared" ref="D66:D102" si="1">ROUNDDOWN(C66-((C67-D67)/(E67-E65)),0)</f>
+        <f t="shared" ref="D66:D104" si="1">ROUNDDOWN(C66-((C67-D67)/(E67-E65)),0)</f>
         <v>2983</v>
       </c>
       <c r="E66">
@@ -19396,7 +19724,7 @@
         <v>3345</v>
       </c>
       <c r="D103" s="2">
-        <f t="shared" ref="D103" si="2">ROUNDDOWN(C103-((C104-D104)/(E104-E102)),0)</f>
+        <f t="shared" si="1"/>
         <v>3345</v>
       </c>
       <c r="E103">
@@ -19419,13 +19747,61 @@
         <f>SUM(B$2:B104)</f>
         <v>3348</v>
       </c>
-      <c r="D104">
-        <v>3349</v>
+      <c r="D104" s="2">
+        <f t="shared" si="1"/>
+        <v>3348</v>
       </c>
       <c r="E104">
         <v>103</v>
       </c>
       <c r="F104" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <f>chin_land!A104</f>
+        <v>43933</v>
+      </c>
+      <c r="B105">
+        <f>chin_land!F104</f>
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <f>SUM(B$2:B105)</f>
+        <v>3348</v>
+      </c>
+      <c r="D105" s="2">
+        <f t="shared" ref="D105" si="2">ROUNDDOWN(C105-((C106-D106)/(E106-E104)),0)</f>
+        <v>3348</v>
+      </c>
+      <c r="E105">
+        <v>104</v>
+      </c>
+      <c r="F105" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <f>chin_land!A105</f>
+        <v>43934</v>
+      </c>
+      <c r="B106">
+        <f>chin_land!F105</f>
+        <v>2</v>
+      </c>
+      <c r="C106">
+        <f>SUM(B$2:B106)</f>
+        <v>3350</v>
+      </c>
+      <c r="D106">
+        <v>3351</v>
+      </c>
+      <c r="E106">
+        <v>105</v>
+      </c>
+      <c r="F106" t="s">
         <v>5</v>
       </c>
     </row>
@@ -19436,7 +19812,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G103"/>
+  <dimension ref="A1:G105"/>
   <sheetViews>
     <sheetView topLeftCell="A82" workbookViewId="0">
       <selection activeCell="J88" sqref="J88"/>
@@ -21816,9 +22192,55 @@
         <v>6</v>
       </c>
     </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B104">
+        <v>12</v>
+      </c>
+      <c r="C104">
+        <v>4</v>
+      </c>
+      <c r="D104">
+        <v>2020</v>
+      </c>
+      <c r="E104">
+        <v>3114</v>
+      </c>
+      <c r="F104">
+        <v>635</v>
+      </c>
+      <c r="G104" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B105">
+        <v>13</v>
+      </c>
+      <c r="C105">
+        <v>4</v>
+      </c>
+      <c r="D105">
+        <v>2020</v>
+      </c>
+      <c r="E105">
+        <v>1613</v>
+      </c>
+      <c r="F105">
+        <v>561</v>
+      </c>
+      <c r="G105" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A1:G103">
-    <sortCondition ref="A1:A103"/>
+  <sortState ref="A1:G105">
+    <sortCondition ref="A1:A105"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21826,10 +22248,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:F106"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23320,7 +23742,7 @@
         <v>7</v>
       </c>
       <c r="D68" s="2">
-        <f t="shared" ref="D68:D103" si="1">ROUNDDOWN(C68-((C69-D69)/(E69-E67)),0)</f>
+        <f t="shared" ref="D68:D104" si="1">ROUNDDOWN(C68-((C69-D69)/(E69-E67)),0)</f>
         <v>6</v>
       </c>
       <c r="E68">
@@ -24025,7 +24447,7 @@
       </c>
       <c r="D100" s="2">
         <f t="shared" si="1"/>
-        <v>8909</v>
+        <v>8910</v>
       </c>
       <c r="E100">
         <v>99</v>
@@ -24049,7 +24471,7 @@
       </c>
       <c r="D101" s="2">
         <f t="shared" si="1"/>
-        <v>10325</v>
+        <v>10327</v>
       </c>
       <c r="E101">
         <v>100</v>
@@ -24073,7 +24495,7 @@
       </c>
       <c r="D102" s="2">
         <f t="shared" si="1"/>
-        <v>10864</v>
+        <v>10867</v>
       </c>
       <c r="E102">
         <v>101</v>
@@ -24097,7 +24519,7 @@
       </c>
       <c r="D103" s="2">
         <f t="shared" si="1"/>
-        <v>12201</v>
+        <v>12207</v>
       </c>
       <c r="E103">
         <v>102</v>
@@ -24119,13 +24541,61 @@
         <f>SUM(B$2:B104)</f>
         <v>13197</v>
       </c>
-      <c r="D104">
-        <v>13179</v>
+      <c r="D104" s="2">
+        <f t="shared" si="1"/>
+        <v>13192</v>
       </c>
       <c r="E104">
         <v>103</v>
       </c>
       <c r="F104" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <f>france_land!A104</f>
+        <v>43933</v>
+      </c>
+      <c r="B105">
+        <f>france_land!F104</f>
+        <v>635</v>
+      </c>
+      <c r="C105">
+        <f>SUM(B$2:B105)</f>
+        <v>13832</v>
+      </c>
+      <c r="D105" s="2">
+        <f t="shared" ref="D105:D106" si="2">ROUNDDOWN(C105-((C106-D106)/(E106-E104)),0)</f>
+        <v>13822</v>
+      </c>
+      <c r="E105">
+        <v>104</v>
+      </c>
+      <c r="F105" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <f>france_land!A105</f>
+        <v>43934</v>
+      </c>
+      <c r="B106">
+        <f>france_land!F105</f>
+        <v>561</v>
+      </c>
+      <c r="C106">
+        <f>SUM(B$2:B106)</f>
+        <v>14393</v>
+      </c>
+      <c r="D106">
+        <v>14374</v>
+      </c>
+      <c r="E106">
+        <v>105</v>
+      </c>
+      <c r="F106" t="s">
         <v>6</v>
       </c>
     </row>
@@ -24136,10 +24606,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G103"/>
+  <dimension ref="A1:G105"/>
   <sheetViews>
     <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="J93" sqref="J93"/>
+      <selection activeCell="I94" sqref="I94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26516,9 +26986,55 @@
         <v>7</v>
       </c>
     </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B104">
+        <v>12</v>
+      </c>
+      <c r="C104">
+        <v>4</v>
+      </c>
+      <c r="D104">
+        <v>2020</v>
+      </c>
+      <c r="E104">
+        <v>4694</v>
+      </c>
+      <c r="F104">
+        <v>619</v>
+      </c>
+      <c r="G104" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B105">
+        <v>13</v>
+      </c>
+      <c r="C105">
+        <v>4</v>
+      </c>
+      <c r="D105">
+        <v>2020</v>
+      </c>
+      <c r="E105">
+        <v>4092</v>
+      </c>
+      <c r="F105">
+        <v>431</v>
+      </c>
+      <c r="G105" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A1:G103">
-    <sortCondition ref="A1:A103"/>
+  <sortState ref="A1:G105">
+    <sortCondition ref="A1:A105"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -26526,10 +27042,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:F106"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27998,7 +28514,7 @@
         <v>107</v>
       </c>
       <c r="D67" s="2">
-        <f t="shared" ref="D67:D102" si="1">ROUNDDOWN(C67-((C68-D68)/(E68-E66)),0)</f>
+        <f t="shared" ref="D67:D104" si="1">ROUNDDOWN(C67-((C68-D68)/(E68-E66)),0)</f>
         <v>107</v>
       </c>
       <c r="E67">
@@ -28796,7 +29312,7 @@
         <v>18281</v>
       </c>
       <c r="D103" s="2">
-        <f t="shared" ref="D103" si="2">ROUNDDOWN(C103-((C104-D104)/(E104-E102)),0)</f>
+        <f t="shared" si="1"/>
         <v>18281</v>
       </c>
       <c r="E103">
@@ -28819,13 +29335,61 @@
         <f>SUM(B$2:B104)</f>
         <v>18851</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="2">
+        <f t="shared" si="1"/>
         <v>18851</v>
       </c>
       <c r="E104">
         <v>103</v>
       </c>
       <c r="F104" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <f>italy_land!A104</f>
+        <v>43933</v>
+      </c>
+      <c r="B105">
+        <f>italy_land!F104</f>
+        <v>619</v>
+      </c>
+      <c r="C105">
+        <f>SUM(B$2:B105)</f>
+        <v>19470</v>
+      </c>
+      <c r="D105" s="2">
+        <f t="shared" ref="D105" si="2">ROUNDDOWN(C105-((C106-D106)/(E106-E104)),0)</f>
+        <v>19470</v>
+      </c>
+      <c r="E105">
+        <v>104</v>
+      </c>
+      <c r="F105" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <f>italy_land!A105</f>
+        <v>43934</v>
+      </c>
+      <c r="B106">
+        <f>italy_land!F105</f>
+        <v>431</v>
+      </c>
+      <c r="C106">
+        <f>SUM(B$2:B106)</f>
+        <v>19901</v>
+      </c>
+      <c r="D106">
+        <v>19901</v>
+      </c>
+      <c r="E106">
+        <v>105</v>
+      </c>
+      <c r="F106" t="s">
         <v>7</v>
       </c>
     </row>

--- a/data/reg.xlsx
+++ b/data/reg.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1565" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="30">
   <si>
     <t>y</t>
   </si>
@@ -636,10 +636,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G107"/>
+  <dimension ref="A1:G116"/>
   <sheetViews>
     <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A103" sqref="A1:G107"/>
+      <selection activeCell="A98" sqref="A1:G116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3108,9 +3108,216 @@
         <v>10</v>
       </c>
     </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B108">
+        <v>16</v>
+      </c>
+      <c r="C108">
+        <v>4</v>
+      </c>
+      <c r="D108">
+        <v>2020</v>
+      </c>
+      <c r="E108">
+        <v>482</v>
+      </c>
+      <c r="F108">
+        <v>17</v>
+      </c>
+      <c r="G108" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B109">
+        <v>17</v>
+      </c>
+      <c r="C109">
+        <v>4</v>
+      </c>
+      <c r="D109">
+        <v>2020</v>
+      </c>
+      <c r="E109">
+        <v>585</v>
+      </c>
+      <c r="F109">
+        <v>12</v>
+      </c>
+      <c r="G109" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B110">
+        <v>18</v>
+      </c>
+      <c r="C110">
+        <v>4</v>
+      </c>
+      <c r="D110">
+        <v>2020</v>
+      </c>
+      <c r="E110">
+        <v>628</v>
+      </c>
+      <c r="F110">
+        <v>6</v>
+      </c>
+      <c r="G110" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B111">
+        <v>19</v>
+      </c>
+      <c r="C111">
+        <v>4</v>
+      </c>
+      <c r="D111">
+        <v>2020</v>
+      </c>
+      <c r="E111">
+        <v>566</v>
+      </c>
+      <c r="F111">
+        <v>7</v>
+      </c>
+      <c r="G111" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B112">
+        <v>20</v>
+      </c>
+      <c r="C112">
+        <v>4</v>
+      </c>
+      <c r="D112">
+        <v>2020</v>
+      </c>
+      <c r="E112">
+        <v>390</v>
+      </c>
+      <c r="F112">
+        <v>10</v>
+      </c>
+      <c r="G112" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B113">
+        <v>21</v>
+      </c>
+      <c r="C113">
+        <v>4</v>
+      </c>
+      <c r="D113">
+        <v>2020</v>
+      </c>
+      <c r="E113">
+        <v>367</v>
+      </c>
+      <c r="F113">
+        <v>15</v>
+      </c>
+      <c r="G113" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B114">
+        <v>22</v>
+      </c>
+      <c r="C114">
+        <v>4</v>
+      </c>
+      <c r="D114">
+        <v>2020</v>
+      </c>
+      <c r="E114">
+        <v>378</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B115">
+        <v>23</v>
+      </c>
+      <c r="C115">
+        <v>4</v>
+      </c>
+      <c r="D115">
+        <v>2020</v>
+      </c>
+      <c r="E115">
+        <v>276</v>
+      </c>
+      <c r="F115">
+        <v>101</v>
+      </c>
+      <c r="G115" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B116">
+        <v>24</v>
+      </c>
+      <c r="C116">
+        <v>4</v>
+      </c>
+      <c r="D116">
+        <v>2020</v>
+      </c>
+      <c r="E116">
+        <v>468</v>
+      </c>
+      <c r="F116">
+        <v>30</v>
+      </c>
+      <c r="G116" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A1:G107">
-    <sortCondition ref="A1:A107"/>
+  <sortState ref="A1:G116">
+    <sortCondition ref="A1:A116"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3118,10 +3325,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F108"/>
+  <dimension ref="A1:F117"/>
   <sheetViews>
     <sheetView topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="D105" sqref="D105:D107"/>
+      <selection activeCell="J115" sqref="J115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5436,7 +5643,7 @@
         <v>98</v>
       </c>
       <c r="D105" s="2">
-        <f t="shared" ref="D105:D107" si="2">ROUNDDOWN(C105-((C106-D106)/(E106-E104)),0)</f>
+        <f t="shared" ref="D105:D110" si="2">ROUNDDOWN(C105-((C106-D106)/(E106-E104)),0)</f>
         <v>98</v>
       </c>
       <c r="E105">
@@ -5507,13 +5714,230 @@
         <f>SUM(B$2:B108)</f>
         <v>119</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="2">
+        <f t="shared" si="2"/>
         <v>119</v>
       </c>
       <c r="E108">
         <v>107</v>
       </c>
       <c r="F108" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <f>japan_land!A108</f>
+        <v>43937</v>
+      </c>
+      <c r="B109">
+        <f>japan_land!F108</f>
+        <v>17</v>
+      </c>
+      <c r="C109">
+        <f>SUM(B$2:B109)</f>
+        <v>136</v>
+      </c>
+      <c r="D109" s="2">
+        <f t="shared" si="2"/>
+        <v>136</v>
+      </c>
+      <c r="E109">
+        <v>108</v>
+      </c>
+      <c r="F109" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <f>japan_land!A109</f>
+        <v>43938</v>
+      </c>
+      <c r="B110">
+        <f>japan_land!F109</f>
+        <v>12</v>
+      </c>
+      <c r="C110">
+        <f>SUM(B$2:B110)</f>
+        <v>148</v>
+      </c>
+      <c r="D110" s="2">
+        <f t="shared" si="2"/>
+        <v>148</v>
+      </c>
+      <c r="E110">
+        <v>109</v>
+      </c>
+      <c r="F110" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <f>japan_land!A110</f>
+        <v>43939</v>
+      </c>
+      <c r="B111">
+        <f>japan_land!F110</f>
+        <v>6</v>
+      </c>
+      <c r="C111">
+        <f>SUM(B$2:B111)</f>
+        <v>154</v>
+      </c>
+      <c r="D111" s="2">
+        <f t="shared" ref="D111:D117" si="3">ROUNDDOWN(C111-((C112-D112)/(E112-E110)),0)</f>
+        <v>154</v>
+      </c>
+      <c r="E111">
+        <v>110</v>
+      </c>
+      <c r="F111" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <f>japan_land!A111</f>
+        <v>43940</v>
+      </c>
+      <c r="B112">
+        <f>japan_land!F111</f>
+        <v>7</v>
+      </c>
+      <c r="C112">
+        <f>SUM(B$2:B112)</f>
+        <v>161</v>
+      </c>
+      <c r="D112" s="2">
+        <f t="shared" si="3"/>
+        <v>161</v>
+      </c>
+      <c r="E112">
+        <v>111</v>
+      </c>
+      <c r="F112" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <f>japan_land!A112</f>
+        <v>43941</v>
+      </c>
+      <c r="B113">
+        <f>japan_land!F112</f>
+        <v>10</v>
+      </c>
+      <c r="C113">
+        <f>SUM(B$2:B113)</f>
+        <v>171</v>
+      </c>
+      <c r="D113" s="2">
+        <f t="shared" si="3"/>
+        <v>171</v>
+      </c>
+      <c r="E113">
+        <v>112</v>
+      </c>
+      <c r="F113" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <f>japan_land!A113</f>
+        <v>43942</v>
+      </c>
+      <c r="B114">
+        <f>japan_land!F113</f>
+        <v>15</v>
+      </c>
+      <c r="C114">
+        <f>SUM(B$2:B114)</f>
+        <v>186</v>
+      </c>
+      <c r="D114" s="2">
+        <f t="shared" si="3"/>
+        <v>186</v>
+      </c>
+      <c r="E114">
+        <v>113</v>
+      </c>
+      <c r="F114" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <f>japan_land!A114</f>
+        <v>43943</v>
+      </c>
+      <c r="B115">
+        <f>japan_land!F114</f>
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <f>SUM(B$2:B115)</f>
+        <v>186</v>
+      </c>
+      <c r="D115" s="2">
+        <f t="shared" si="3"/>
+        <v>186</v>
+      </c>
+      <c r="E115">
+        <v>114</v>
+      </c>
+      <c r="F115" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <f>japan_land!A115</f>
+        <v>43944</v>
+      </c>
+      <c r="B116">
+        <f>japan_land!F115</f>
+        <v>101</v>
+      </c>
+      <c r="C116">
+        <f>SUM(B$2:B116)</f>
+        <v>287</v>
+      </c>
+      <c r="D116" s="2">
+        <f t="shared" si="3"/>
+        <v>287</v>
+      </c>
+      <c r="E116">
+        <v>115</v>
+      </c>
+      <c r="F116" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <f>japan_land!A116</f>
+        <v>43945</v>
+      </c>
+      <c r="B117">
+        <f>japan_land!F116</f>
+        <v>30</v>
+      </c>
+      <c r="C117">
+        <f>SUM(B$2:B117)</f>
+        <v>317</v>
+      </c>
+      <c r="D117" s="2">
+        <f t="shared" si="3"/>
+        <v>317</v>
+      </c>
+      <c r="E117">
+        <v>116</v>
+      </c>
+      <c r="F117" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5524,10 +5948,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G107"/>
+  <dimension ref="A1:G116"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="B101" sqref="A1:G107"/>
+    <sheetView topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="K104" sqref="K104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7996,9 +8420,216 @@
         <v>11</v>
       </c>
     </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B108">
+        <v>16</v>
+      </c>
+      <c r="C108">
+        <v>4</v>
+      </c>
+      <c r="D108">
+        <v>2020</v>
+      </c>
+      <c r="E108">
+        <v>22</v>
+      </c>
+      <c r="F108">
+        <v>4</v>
+      </c>
+      <c r="G108" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B109">
+        <v>17</v>
+      </c>
+      <c r="C109">
+        <v>4</v>
+      </c>
+      <c r="D109">
+        <v>2020</v>
+      </c>
+      <c r="E109">
+        <v>22</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+      <c r="G109" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B110">
+        <v>18</v>
+      </c>
+      <c r="C110">
+        <v>4</v>
+      </c>
+      <c r="D110">
+        <v>2020</v>
+      </c>
+      <c r="E110">
+        <v>18</v>
+      </c>
+      <c r="F110">
+        <v>2</v>
+      </c>
+      <c r="G110" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B111">
+        <v>19</v>
+      </c>
+      <c r="C111">
+        <v>4</v>
+      </c>
+      <c r="D111">
+        <v>2020</v>
+      </c>
+      <c r="E111">
+        <v>8</v>
+      </c>
+      <c r="F111">
+        <v>2</v>
+      </c>
+      <c r="G111" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B112">
+        <v>20</v>
+      </c>
+      <c r="C112">
+        <v>4</v>
+      </c>
+      <c r="D112">
+        <v>2020</v>
+      </c>
+      <c r="E112">
+        <v>13</v>
+      </c>
+      <c r="F112">
+        <v>2</v>
+      </c>
+      <c r="G112" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B113">
+        <v>21</v>
+      </c>
+      <c r="C113">
+        <v>4</v>
+      </c>
+      <c r="D113">
+        <v>2020</v>
+      </c>
+      <c r="E113">
+        <v>9</v>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+      <c r="G113" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B114">
+        <v>22</v>
+      </c>
+      <c r="C114">
+        <v>4</v>
+      </c>
+      <c r="D114">
+        <v>2020</v>
+      </c>
+      <c r="E114">
+        <v>11</v>
+      </c>
+      <c r="F114">
+        <v>1</v>
+      </c>
+      <c r="G114" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B115">
+        <v>23</v>
+      </c>
+      <c r="C115">
+        <v>4</v>
+      </c>
+      <c r="D115">
+        <v>2020</v>
+      </c>
+      <c r="E115">
+        <v>8</v>
+      </c>
+      <c r="F115">
+        <v>2</v>
+      </c>
+      <c r="G115" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B116">
+        <v>24</v>
+      </c>
+      <c r="C116">
+        <v>4</v>
+      </c>
+      <c r="D116">
+        <v>2020</v>
+      </c>
+      <c r="E116">
+        <v>6</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A1:G107">
-    <sortCondition ref="A1:A107"/>
+  <sortState ref="A1:G116">
+    <sortCondition ref="A1:A116"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8006,10 +8637,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F108"/>
+  <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="F108" sqref="F108"/>
+    <sheetView topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10326,7 +10957,7 @@
         <v>214</v>
       </c>
       <c r="D105" s="2">
-        <f t="shared" ref="D105:D107" si="2">ROUNDDOWN(C105-((C106-D106)/(E106-E104)),0)</f>
+        <f t="shared" ref="D105:D110" si="2">ROUNDDOWN(C105-((C106-D106)/(E106-E104)),0)</f>
         <v>214</v>
       </c>
       <c r="E105">
@@ -10397,13 +11028,230 @@
         <f>SUM(B$2:B108)</f>
         <v>225</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="2">
+        <f t="shared" si="2"/>
         <v>225</v>
       </c>
       <c r="E108">
         <v>107</v>
       </c>
       <c r="F108" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <f>sk_land!A108</f>
+        <v>43937</v>
+      </c>
+      <c r="B109">
+        <f>sk_land!F108</f>
+        <v>4</v>
+      </c>
+      <c r="C109">
+        <f>SUM(B$2:B109)</f>
+        <v>229</v>
+      </c>
+      <c r="D109" s="2">
+        <f t="shared" si="2"/>
+        <v>229</v>
+      </c>
+      <c r="E109">
+        <v>108</v>
+      </c>
+      <c r="F109" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <f>sk_land!A109</f>
+        <v>43938</v>
+      </c>
+      <c r="B110">
+        <f>sk_land!F109</f>
+        <v>1</v>
+      </c>
+      <c r="C110">
+        <f>SUM(B$2:B110)</f>
+        <v>230</v>
+      </c>
+      <c r="D110" s="2">
+        <f t="shared" si="2"/>
+        <v>230</v>
+      </c>
+      <c r="E110">
+        <v>109</v>
+      </c>
+      <c r="F110" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <f>sk_land!A110</f>
+        <v>43939</v>
+      </c>
+      <c r="B111">
+        <f>sk_land!F110</f>
+        <v>2</v>
+      </c>
+      <c r="C111">
+        <f>SUM(B$2:B111)</f>
+        <v>232</v>
+      </c>
+      <c r="D111" s="2">
+        <f t="shared" ref="D111:D117" si="3">ROUNDDOWN(C111-((C112-D112)/(E112-E110)),0)</f>
+        <v>232</v>
+      </c>
+      <c r="E111">
+        <v>110</v>
+      </c>
+      <c r="F111" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <f>sk_land!A111</f>
+        <v>43940</v>
+      </c>
+      <c r="B112">
+        <f>sk_land!F111</f>
+        <v>2</v>
+      </c>
+      <c r="C112">
+        <f>SUM(B$2:B112)</f>
+        <v>234</v>
+      </c>
+      <c r="D112" s="2">
+        <f t="shared" si="3"/>
+        <v>234</v>
+      </c>
+      <c r="E112">
+        <v>111</v>
+      </c>
+      <c r="F112" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <f>sk_land!A112</f>
+        <v>43941</v>
+      </c>
+      <c r="B113">
+        <f>sk_land!F112</f>
+        <v>2</v>
+      </c>
+      <c r="C113">
+        <f>SUM(B$2:B113)</f>
+        <v>236</v>
+      </c>
+      <c r="D113" s="2">
+        <f t="shared" si="3"/>
+        <v>236</v>
+      </c>
+      <c r="E113">
+        <v>112</v>
+      </c>
+      <c r="F113" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <f>sk_land!A113</f>
+        <v>43942</v>
+      </c>
+      <c r="B114">
+        <f>sk_land!F113</f>
+        <v>1</v>
+      </c>
+      <c r="C114">
+        <f>SUM(B$2:B114)</f>
+        <v>237</v>
+      </c>
+      <c r="D114" s="2">
+        <f t="shared" si="3"/>
+        <v>237</v>
+      </c>
+      <c r="E114">
+        <v>113</v>
+      </c>
+      <c r="F114" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <f>sk_land!A114</f>
+        <v>43943</v>
+      </c>
+      <c r="B115">
+        <f>sk_land!F114</f>
+        <v>1</v>
+      </c>
+      <c r="C115">
+        <f>SUM(B$2:B115)</f>
+        <v>238</v>
+      </c>
+      <c r="D115" s="2">
+        <f t="shared" si="3"/>
+        <v>238</v>
+      </c>
+      <c r="E115">
+        <v>114</v>
+      </c>
+      <c r="F115" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <f>sk_land!A115</f>
+        <v>43944</v>
+      </c>
+      <c r="B116">
+        <f>sk_land!F115</f>
+        <v>2</v>
+      </c>
+      <c r="C116">
+        <f>SUM(B$2:B116)</f>
+        <v>240</v>
+      </c>
+      <c r="D116" s="2">
+        <f t="shared" si="3"/>
+        <v>240</v>
+      </c>
+      <c r="E116">
+        <v>115</v>
+      </c>
+      <c r="F116" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <f>sk_land!A116</f>
+        <v>43945</v>
+      </c>
+      <c r="B117">
+        <f>sk_land!F116</f>
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <f>SUM(B$2:B117)</f>
+        <v>240</v>
+      </c>
+      <c r="D117" s="2">
+        <f t="shared" si="3"/>
+        <v>240</v>
+      </c>
+      <c r="E117">
+        <v>116</v>
+      </c>
+      <c r="F117" t="s">
         <v>11</v>
       </c>
     </row>
@@ -10414,10 +11262,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I98" sqref="I98"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="J102" sqref="J102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12817,9 +13665,216 @@
         <v>28</v>
       </c>
     </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B105">
+        <v>16</v>
+      </c>
+      <c r="C105">
+        <v>4</v>
+      </c>
+      <c r="D105">
+        <v>2020</v>
+      </c>
+      <c r="E105">
+        <v>3058</v>
+      </c>
+      <c r="F105">
+        <v>204</v>
+      </c>
+      <c r="G105" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B106">
+        <v>17</v>
+      </c>
+      <c r="C106">
+        <v>4</v>
+      </c>
+      <c r="D106">
+        <v>2020</v>
+      </c>
+      <c r="E106">
+        <v>2105</v>
+      </c>
+      <c r="F106">
+        <v>188</v>
+      </c>
+      <c r="G106" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B107">
+        <v>18</v>
+      </c>
+      <c r="C107">
+        <v>4</v>
+      </c>
+      <c r="D107">
+        <v>2020</v>
+      </c>
+      <c r="E107">
+        <v>3257</v>
+      </c>
+      <c r="F107">
+        <v>217</v>
+      </c>
+      <c r="G107" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B108">
+        <v>19</v>
+      </c>
+      <c r="C108">
+        <v>4</v>
+      </c>
+      <c r="D108">
+        <v>2020</v>
+      </c>
+      <c r="E108">
+        <v>2917</v>
+      </c>
+      <c r="F108">
+        <v>206</v>
+      </c>
+      <c r="G108" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B109">
+        <v>20</v>
+      </c>
+      <c r="C109">
+        <v>4</v>
+      </c>
+      <c r="D109">
+        <v>2020</v>
+      </c>
+      <c r="E109">
+        <v>2055</v>
+      </c>
+      <c r="F109">
+        <v>115</v>
+      </c>
+      <c r="G109" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B110">
+        <v>21</v>
+      </c>
+      <c r="C110">
+        <v>4</v>
+      </c>
+      <c r="D110">
+        <v>2020</v>
+      </c>
+      <c r="E110">
+        <v>1927</v>
+      </c>
+      <c r="F110">
+        <v>113</v>
+      </c>
+      <c r="G110" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B111">
+        <v>22</v>
+      </c>
+      <c r="C111">
+        <v>4</v>
+      </c>
+      <c r="D111">
+        <v>2020</v>
+      </c>
+      <c r="E111">
+        <v>2498</v>
+      </c>
+      <c r="F111">
+        <v>166</v>
+      </c>
+      <c r="G111" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B112">
+        <v>23</v>
+      </c>
+      <c r="C112">
+        <v>4</v>
+      </c>
+      <c r="D112">
+        <v>2020</v>
+      </c>
+      <c r="E112">
+        <v>2678</v>
+      </c>
+      <c r="F112">
+        <v>165</v>
+      </c>
+      <c r="G112" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B113">
+        <v>24</v>
+      </c>
+      <c r="C113">
+        <v>4</v>
+      </c>
+      <c r="D113">
+        <v>2020</v>
+      </c>
+      <c r="E113">
+        <v>3735</v>
+      </c>
+      <c r="F113">
+        <v>407</v>
+      </c>
+      <c r="G113" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A1:G104">
-    <sortCondition ref="A1:A104"/>
+  <sortState ref="A1:G113">
+    <sortCondition ref="A1:A113"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12827,10 +13882,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F105"/>
+  <dimension ref="A1:F114"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91"/>
+    <sheetView topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="D115" sqref="D115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12923,7 +13978,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D3:D66" si="0">ROUNDDOWN(C4-((C5-D5)/(E5-E3)),0)</f>
+        <f t="shared" ref="D4:D66" si="0">ROUNDDOWN(C4-((C5-D5)/(E5-E3)),0)</f>
         <v>0</v>
       </c>
       <c r="E4">
@@ -14498,7 +15553,7 @@
         <v>0</v>
       </c>
       <c r="D67" s="2">
-        <f t="shared" ref="D67:D105" si="1">ROUNDDOWN(C67-((C68-D68)/(E68-E66)),0)</f>
+        <f t="shared" ref="D67:D104" si="1">ROUNDDOWN(C67-((C68-D68)/(E68-E66)),0)</f>
         <v>0</v>
       </c>
       <c r="E67">
@@ -15274,7 +16329,7 @@
       </c>
       <c r="D98" s="2">
         <f t="shared" si="1"/>
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="E98">
         <v>97</v>
@@ -15299,7 +16354,7 @@
       </c>
       <c r="D99" s="2">
         <f t="shared" si="1"/>
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="E99">
         <v>98</v>
@@ -15324,7 +16379,7 @@
       </c>
       <c r="D100" s="2">
         <f t="shared" si="1"/>
-        <v>934</v>
+        <v>940</v>
       </c>
       <c r="E100">
         <v>99</v>
@@ -15349,7 +16404,7 @@
       </c>
       <c r="D101" s="2">
         <f t="shared" si="1"/>
-        <v>1043</v>
+        <v>1055</v>
       </c>
       <c r="E101">
         <v>100</v>
@@ -15374,7 +16429,7 @@
       </c>
       <c r="D102" s="2">
         <f t="shared" si="1"/>
-        <v>1098</v>
+        <v>1123</v>
       </c>
       <c r="E102">
         <v>101</v>
@@ -15399,7 +16454,7 @@
       </c>
       <c r="D103" s="2">
         <f t="shared" si="1"/>
-        <v>1172</v>
+        <v>1222</v>
       </c>
       <c r="E103">
         <v>102</v>
@@ -15424,7 +16479,7 @@
       </c>
       <c r="D104" s="2">
         <f t="shared" si="1"/>
-        <v>1226</v>
+        <v>1327</v>
       </c>
       <c r="E104">
         <v>103</v>
@@ -15448,13 +16503,238 @@
         <v>1532</v>
       </c>
       <c r="D105" s="2">
-        <v>1328</v>
+        <f t="shared" ref="D105:D114" si="2">ROUNDDOWN(C105-((C106-D106)/(E106-E104)),0)</f>
+        <v>1531</v>
       </c>
       <c r="E105">
         <v>104</v>
       </c>
       <c r="F105" t="str">
         <f>brazil_land!G104</f>
+        <v>Brazil</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <f>brazil_land!A105</f>
+        <v>43937</v>
+      </c>
+      <c r="B106">
+        <f>brazil_land!F105</f>
+        <v>204</v>
+      </c>
+      <c r="C106">
+        <f>SUM(B$2:B106)</f>
+        <v>1736</v>
+      </c>
+      <c r="D106" s="2">
+        <f t="shared" si="2"/>
+        <v>1734</v>
+      </c>
+      <c r="E106">
+        <v>105</v>
+      </c>
+      <c r="F106" t="str">
+        <f>brazil_land!G105</f>
+        <v>Brazil</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <f>brazil_land!A106</f>
+        <v>43938</v>
+      </c>
+      <c r="B107">
+        <f>brazil_land!F106</f>
+        <v>188</v>
+      </c>
+      <c r="C107">
+        <f>SUM(B$2:B107)</f>
+        <v>1924</v>
+      </c>
+      <c r="D107" s="2">
+        <f t="shared" si="2"/>
+        <v>1920</v>
+      </c>
+      <c r="E107">
+        <v>106</v>
+      </c>
+      <c r="F107" t="str">
+        <f>brazil_land!G106</f>
+        <v>Brazil</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <f>brazil_land!A107</f>
+        <v>43939</v>
+      </c>
+      <c r="B108">
+        <f>brazil_land!F107</f>
+        <v>217</v>
+      </c>
+      <c r="C108">
+        <f>SUM(B$2:B108)</f>
+        <v>2141</v>
+      </c>
+      <c r="D108" s="2">
+        <f t="shared" si="2"/>
+        <v>2134</v>
+      </c>
+      <c r="E108">
+        <v>107</v>
+      </c>
+      <c r="F108" t="str">
+        <f>brazil_land!G107</f>
+        <v>Brazil</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <f>brazil_land!A108</f>
+        <v>43940</v>
+      </c>
+      <c r="B109">
+        <f>brazil_land!F108</f>
+        <v>206</v>
+      </c>
+      <c r="C109">
+        <f>SUM(B$2:B109)</f>
+        <v>2347</v>
+      </c>
+      <c r="D109" s="2">
+        <f t="shared" si="2"/>
+        <v>2334</v>
+      </c>
+      <c r="E109">
+        <v>108</v>
+      </c>
+      <c r="F109" t="str">
+        <f>brazil_land!G108</f>
+        <v>Brazil</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <f>brazil_land!A109</f>
+        <v>43941</v>
+      </c>
+      <c r="B110">
+        <f>brazil_land!F109</f>
+        <v>115</v>
+      </c>
+      <c r="C110">
+        <f>SUM(B$2:B110)</f>
+        <v>2462</v>
+      </c>
+      <c r="D110" s="2">
+        <f t="shared" si="2"/>
+        <v>2436</v>
+      </c>
+      <c r="E110">
+        <v>109</v>
+      </c>
+      <c r="F110" t="str">
+        <f>brazil_land!G109</f>
+        <v>Brazil</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <f>brazil_land!A110</f>
+        <v>43942</v>
+      </c>
+      <c r="B111">
+        <f>brazil_land!F110</f>
+        <v>113</v>
+      </c>
+      <c r="C111">
+        <f>SUM(B$2:B111)</f>
+        <v>2575</v>
+      </c>
+      <c r="D111" s="2">
+        <f t="shared" si="2"/>
+        <v>2524</v>
+      </c>
+      <c r="E111">
+        <v>110</v>
+      </c>
+      <c r="F111" t="str">
+        <f>brazil_land!G110</f>
+        <v>Brazil</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <f>brazil_land!A111</f>
+        <v>43943</v>
+      </c>
+      <c r="B112">
+        <f>brazil_land!F111</f>
+        <v>166</v>
+      </c>
+      <c r="C112">
+        <f>SUM(B$2:B112)</f>
+        <v>2741</v>
+      </c>
+      <c r="D112" s="2">
+        <f t="shared" si="2"/>
+        <v>2639</v>
+      </c>
+      <c r="E112">
+        <v>111</v>
+      </c>
+      <c r="F112" t="str">
+        <f>brazil_land!G111</f>
+        <v>Brazil</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <f>brazil_land!A112</f>
+        <v>43944</v>
+      </c>
+      <c r="B113">
+        <f>brazil_land!F112</f>
+        <v>165</v>
+      </c>
+      <c r="C113">
+        <f>SUM(B$2:B113)</f>
+        <v>2906</v>
+      </c>
+      <c r="D113" s="2">
+        <f t="shared" si="2"/>
+        <v>2702</v>
+      </c>
+      <c r="E113">
+        <v>112</v>
+      </c>
+      <c r="F113" t="str">
+        <f>brazil_land!G112</f>
+        <v>Brazil</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <f>brazil_land!A113</f>
+        <v>43945</v>
+      </c>
+      <c r="B114">
+        <f>brazil_land!F113</f>
+        <v>407</v>
+      </c>
+      <c r="C114">
+        <f>SUM(B$2:B114)</f>
+        <v>3313</v>
+      </c>
+      <c r="D114" s="2">
+        <v>2906</v>
+      </c>
+      <c r="E114">
+        <v>113</v>
+      </c>
+      <c r="F114" t="str">
+        <f>brazil_land!G113</f>
         <v>Brazil</v>
       </c>
     </row>
@@ -15465,10 +16745,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G106"/>
+  <dimension ref="A1:G115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A107" sqref="A107:XFD107"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="M106" sqref="M106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17914,9 +19194,216 @@
         <v>29</v>
       </c>
     </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B107">
+        <v>16</v>
+      </c>
+      <c r="C107">
+        <v>4</v>
+      </c>
+      <c r="D107">
+        <v>2020</v>
+      </c>
+      <c r="E107">
+        <v>942</v>
+      </c>
+      <c r="F107">
+        <v>37</v>
+      </c>
+      <c r="G107" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B108">
+        <v>17</v>
+      </c>
+      <c r="C108">
+        <v>4</v>
+      </c>
+      <c r="D108">
+        <v>2020</v>
+      </c>
+      <c r="E108">
+        <v>1007</v>
+      </c>
+      <c r="F108">
+        <v>23</v>
+      </c>
+      <c r="G108" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B109">
+        <v>18</v>
+      </c>
+      <c r="C109">
+        <v>4</v>
+      </c>
+      <c r="D109">
+        <v>2020</v>
+      </c>
+      <c r="E109">
+        <v>991</v>
+      </c>
+      <c r="F109">
+        <v>43</v>
+      </c>
+      <c r="G109" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B110">
+        <v>19</v>
+      </c>
+      <c r="C110">
+        <v>4</v>
+      </c>
+      <c r="D110">
+        <v>2020</v>
+      </c>
+      <c r="E110">
+        <v>1334</v>
+      </c>
+      <c r="F110">
+        <v>27</v>
+      </c>
+      <c r="G110" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B111">
+        <v>20</v>
+      </c>
+      <c r="C111">
+        <v>4</v>
+      </c>
+      <c r="D111">
+        <v>2020</v>
+      </c>
+      <c r="E111">
+        <v>1553</v>
+      </c>
+      <c r="F111">
+        <v>36</v>
+      </c>
+      <c r="G111" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B112">
+        <v>21</v>
+      </c>
+      <c r="C112">
+        <v>4</v>
+      </c>
+      <c r="D112">
+        <v>2020</v>
+      </c>
+      <c r="E112">
+        <v>1335</v>
+      </c>
+      <c r="F112">
+        <v>47</v>
+      </c>
+      <c r="G112" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B113">
+        <v>22</v>
+      </c>
+      <c r="C113">
+        <v>4</v>
+      </c>
+      <c r="D113">
+        <v>2020</v>
+      </c>
+      <c r="E113">
+        <v>1384</v>
+      </c>
+      <c r="F113">
+        <v>50</v>
+      </c>
+      <c r="G113" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B114">
+        <v>23</v>
+      </c>
+      <c r="C114">
+        <v>4</v>
+      </c>
+      <c r="D114">
+        <v>2020</v>
+      </c>
+      <c r="E114">
+        <v>1409</v>
+      </c>
+      <c r="F114">
+        <v>41</v>
+      </c>
+      <c r="G114" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B115">
+        <v>24</v>
+      </c>
+      <c r="C115">
+        <v>4</v>
+      </c>
+      <c r="D115">
+        <v>2020</v>
+      </c>
+      <c r="E115">
+        <v>1684</v>
+      </c>
+      <c r="F115">
+        <v>37</v>
+      </c>
+      <c r="G115" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A1:G106">
-    <sortCondition ref="A1:A106"/>
+  <sortState ref="A1:G115">
+    <sortCondition ref="A1:A115"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17924,10 +19411,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F108"/>
+  <dimension ref="A1:F116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="D101" sqref="D101"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="I116" sqref="I116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20594,7 +22081,8 @@
         <f>SUM(B$2:B107)</f>
         <v>377</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="2">
+        <f t="shared" ref="D107:D116" si="2">ROUNDDOWN(C107-((C108-D108)/(E108-E106)),0)</f>
         <v>377</v>
       </c>
       <c r="E107">
@@ -20606,7 +22094,229 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A108" s="1"/>
+      <c r="A108" s="1">
+        <f>india_land!A107</f>
+        <v>43937</v>
+      </c>
+      <c r="B108">
+        <f>india_land!F107</f>
+        <v>37</v>
+      </c>
+      <c r="C108">
+        <f>SUM(B$2:B108)</f>
+        <v>414</v>
+      </c>
+      <c r="D108" s="2">
+        <f t="shared" si="2"/>
+        <v>414</v>
+      </c>
+      <c r="E108">
+        <v>107</v>
+      </c>
+      <c r="F108" t="str">
+        <f>india_land!G107</f>
+        <v>India</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <f>india_land!A108</f>
+        <v>43938</v>
+      </c>
+      <c r="B109">
+        <f>india_land!F108</f>
+        <v>23</v>
+      </c>
+      <c r="C109">
+        <f>SUM(B$2:B109)</f>
+        <v>437</v>
+      </c>
+      <c r="D109" s="2">
+        <f t="shared" si="2"/>
+        <v>437</v>
+      </c>
+      <c r="E109">
+        <v>108</v>
+      </c>
+      <c r="F109" t="str">
+        <f>india_land!G108</f>
+        <v>India</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <f>india_land!A109</f>
+        <v>43939</v>
+      </c>
+      <c r="B110">
+        <f>india_land!F109</f>
+        <v>43</v>
+      </c>
+      <c r="C110">
+        <f>SUM(B$2:B110)</f>
+        <v>480</v>
+      </c>
+      <c r="D110" s="2">
+        <f t="shared" si="2"/>
+        <v>480</v>
+      </c>
+      <c r="E110">
+        <v>109</v>
+      </c>
+      <c r="F110" t="str">
+        <f>india_land!G109</f>
+        <v>India</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <f>india_land!A110</f>
+        <v>43940</v>
+      </c>
+      <c r="B111">
+        <f>india_land!F110</f>
+        <v>27</v>
+      </c>
+      <c r="C111">
+        <f>SUM(B$2:B111)</f>
+        <v>507</v>
+      </c>
+      <c r="D111" s="2">
+        <f t="shared" si="2"/>
+        <v>507</v>
+      </c>
+      <c r="E111">
+        <v>110</v>
+      </c>
+      <c r="F111" t="str">
+        <f>india_land!G110</f>
+        <v>India</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <f>india_land!A111</f>
+        <v>43941</v>
+      </c>
+      <c r="B112">
+        <f>india_land!F111</f>
+        <v>36</v>
+      </c>
+      <c r="C112">
+        <f>SUM(B$2:B112)</f>
+        <v>543</v>
+      </c>
+      <c r="D112" s="2">
+        <f t="shared" si="2"/>
+        <v>543</v>
+      </c>
+      <c r="E112">
+        <v>111</v>
+      </c>
+      <c r="F112" t="str">
+        <f>india_land!G111</f>
+        <v>India</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <f>india_land!A112</f>
+        <v>43942</v>
+      </c>
+      <c r="B113">
+        <f>india_land!F112</f>
+        <v>47</v>
+      </c>
+      <c r="C113">
+        <f>SUM(B$2:B113)</f>
+        <v>590</v>
+      </c>
+      <c r="D113" s="2">
+        <f t="shared" si="2"/>
+        <v>590</v>
+      </c>
+      <c r="E113">
+        <v>112</v>
+      </c>
+      <c r="F113" t="str">
+        <f>india_land!G112</f>
+        <v>India</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <f>india_land!A113</f>
+        <v>43943</v>
+      </c>
+      <c r="B114">
+        <f>india_land!F113</f>
+        <v>50</v>
+      </c>
+      <c r="C114">
+        <f>SUM(B$2:B114)</f>
+        <v>640</v>
+      </c>
+      <c r="D114" s="2">
+        <f t="shared" si="2"/>
+        <v>640</v>
+      </c>
+      <c r="E114">
+        <v>113</v>
+      </c>
+      <c r="F114" t="str">
+        <f>india_land!G113</f>
+        <v>India</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <f>india_land!A114</f>
+        <v>43944</v>
+      </c>
+      <c r="B115">
+        <f>india_land!F114</f>
+        <v>41</v>
+      </c>
+      <c r="C115">
+        <f>SUM(B$2:B115)</f>
+        <v>681</v>
+      </c>
+      <c r="D115" s="2">
+        <f t="shared" si="2"/>
+        <v>681</v>
+      </c>
+      <c r="E115">
+        <v>114</v>
+      </c>
+      <c r="F115" t="str">
+        <f>india_land!G114</f>
+        <v>India</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <f>india_land!A115</f>
+        <v>43945</v>
+      </c>
+      <c r="B116">
+        <f>india_land!F115</f>
+        <v>37</v>
+      </c>
+      <c r="C116">
+        <f>SUM(B$2:B116)</f>
+        <v>718</v>
+      </c>
+      <c r="D116" s="2">
+        <f t="shared" si="2"/>
+        <v>718</v>
+      </c>
+      <c r="E116">
+        <v>115</v>
+      </c>
+      <c r="F116" t="str">
+        <f>india_land!G115</f>
+        <v>India</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20615,10 +22325,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G107"/>
+  <dimension ref="A1:G116"/>
   <sheetViews>
     <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="F101" sqref="A1:G107"/>
+      <selection activeCell="J100" sqref="J100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23087,9 +24797,216 @@
         <v>4</v>
       </c>
     </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B108">
+        <v>16</v>
+      </c>
+      <c r="C108">
+        <v>4</v>
+      </c>
+      <c r="D108">
+        <v>2020</v>
+      </c>
+      <c r="E108">
+        <v>30148</v>
+      </c>
+      <c r="F108">
+        <v>4928</v>
+      </c>
+      <c r="G108" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B109">
+        <v>17</v>
+      </c>
+      <c r="C109">
+        <v>4</v>
+      </c>
+      <c r="D109">
+        <v>2020</v>
+      </c>
+      <c r="E109">
+        <v>31667</v>
+      </c>
+      <c r="F109">
+        <v>2299</v>
+      </c>
+      <c r="G109" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B110">
+        <v>18</v>
+      </c>
+      <c r="C110">
+        <v>4</v>
+      </c>
+      <c r="D110">
+        <v>2020</v>
+      </c>
+      <c r="E110">
+        <v>30833</v>
+      </c>
+      <c r="F110">
+        <v>3770</v>
+      </c>
+      <c r="G110" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B111">
+        <v>19</v>
+      </c>
+      <c r="C111">
+        <v>4</v>
+      </c>
+      <c r="D111">
+        <v>2020</v>
+      </c>
+      <c r="E111">
+        <v>32922</v>
+      </c>
+      <c r="F111">
+        <v>1856</v>
+      </c>
+      <c r="G111" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B112">
+        <v>20</v>
+      </c>
+      <c r="C112">
+        <v>4</v>
+      </c>
+      <c r="D112">
+        <v>2020</v>
+      </c>
+      <c r="E112">
+        <v>24601</v>
+      </c>
+      <c r="F112">
+        <v>1772</v>
+      </c>
+      <c r="G112" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B113">
+        <v>21</v>
+      </c>
+      <c r="C113">
+        <v>4</v>
+      </c>
+      <c r="D113">
+        <v>2020</v>
+      </c>
+      <c r="E113">
+        <v>28065</v>
+      </c>
+      <c r="F113">
+        <v>1857</v>
+      </c>
+      <c r="G113" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B114">
+        <v>22</v>
+      </c>
+      <c r="C114">
+        <v>4</v>
+      </c>
+      <c r="D114">
+        <v>2020</v>
+      </c>
+      <c r="E114">
+        <v>37289</v>
+      </c>
+      <c r="F114">
+        <v>2524</v>
+      </c>
+      <c r="G114" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B115">
+        <v>23</v>
+      </c>
+      <c r="C115">
+        <v>4</v>
+      </c>
+      <c r="D115">
+        <v>2020</v>
+      </c>
+      <c r="E115">
+        <v>17588</v>
+      </c>
+      <c r="F115">
+        <v>1721</v>
+      </c>
+      <c r="G115" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B116">
+        <v>24</v>
+      </c>
+      <c r="C116">
+        <v>4</v>
+      </c>
+      <c r="D116">
+        <v>2020</v>
+      </c>
+      <c r="E116">
+        <v>26543</v>
+      </c>
+      <c r="F116">
+        <v>3179</v>
+      </c>
+      <c r="G116" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A1:G107">
-    <sortCondition ref="A1:A107"/>
+  <sortState ref="A1:G116">
+    <sortCondition ref="A1:A116"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23097,10 +25014,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L108"/>
+  <dimension ref="A1:L117"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="D100" sqref="D100"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="D118" sqref="D118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25238,7 +27155,7 @@
       </c>
       <c r="D97" s="2">
         <f t="shared" si="1"/>
-        <v>7155</v>
+        <v>7156</v>
       </c>
       <c r="E97">
         <v>96</v>
@@ -25260,7 +27177,7 @@
       </c>
       <c r="D98" s="2">
         <f t="shared" si="1"/>
-        <v>8498</v>
+        <v>8500</v>
       </c>
       <c r="E98">
         <v>97</v>
@@ -25282,7 +27199,7 @@
       </c>
       <c r="D99" s="2">
         <f t="shared" si="1"/>
-        <v>9641</v>
+        <v>9646</v>
       </c>
       <c r="E99">
         <v>98</v>
@@ -25304,7 +27221,7 @@
       </c>
       <c r="D100" s="2">
         <f t="shared" si="1"/>
-        <v>10978</v>
+        <v>10988</v>
       </c>
       <c r="E100">
         <v>99</v>
@@ -25328,7 +27245,7 @@
       </c>
       <c r="D101" s="2">
         <f t="shared" si="1"/>
-        <v>12874</v>
+        <v>12894</v>
       </c>
       <c r="E101">
         <v>100</v>
@@ -25352,7 +27269,7 @@
       </c>
       <c r="D102" s="2">
         <f t="shared" si="1"/>
-        <v>14776</v>
+        <v>14816</v>
       </c>
       <c r="E102">
         <v>101</v>
@@ -25376,7 +27293,7 @@
       </c>
       <c r="D103" s="2">
         <f t="shared" si="1"/>
-        <v>16609</v>
+        <v>16689</v>
       </c>
       <c r="E103">
         <v>102</v>
@@ -25400,7 +27317,7 @@
       </c>
       <c r="D104" s="2">
         <f t="shared" si="1"/>
-        <v>18615</v>
+        <v>18776</v>
       </c>
       <c r="E104">
         <v>103</v>
@@ -25424,7 +27341,7 @@
       </c>
       <c r="D105" s="2">
         <f t="shared" si="1"/>
-        <v>20285</v>
+        <v>20606</v>
       </c>
       <c r="E105">
         <v>104</v>
@@ -25448,7 +27365,7 @@
       </c>
       <c r="D106" s="2">
         <f t="shared" si="1"/>
-        <v>21462</v>
+        <v>22104</v>
       </c>
       <c r="E106">
         <v>105</v>
@@ -25472,7 +27389,7 @@
       </c>
       <c r="D107" s="2">
         <f t="shared" si="1"/>
-        <v>22358</v>
+        <v>23641</v>
       </c>
       <c r="E107">
         <v>106</v>
@@ -25495,12 +27412,228 @@
         <v>26057</v>
       </c>
       <c r="D108" s="2">
-        <v>23476</v>
+        <f t="shared" ref="D108:D117" si="2">ROUNDDOWN(C108-((C109-D109)/(E109-E107)),0)</f>
+        <v>26042</v>
       </c>
       <c r="E108">
         <v>107</v>
       </c>
       <c r="F108" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <f>usa_land!A108</f>
+        <v>43937</v>
+      </c>
+      <c r="B109">
+        <f>usa_land!F108</f>
+        <v>4928</v>
+      </c>
+      <c r="C109">
+        <f>SUM(B$2:B109)</f>
+        <v>30985</v>
+      </c>
+      <c r="D109" s="2">
+        <f t="shared" si="2"/>
+        <v>30955</v>
+      </c>
+      <c r="E109">
+        <v>108</v>
+      </c>
+      <c r="F109" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <f>usa_land!A109</f>
+        <v>43938</v>
+      </c>
+      <c r="B110">
+        <f>usa_land!F109</f>
+        <v>2299</v>
+      </c>
+      <c r="C110">
+        <f>SUM(B$2:B110)</f>
+        <v>33284</v>
+      </c>
+      <c r="D110" s="2">
+        <f t="shared" si="2"/>
+        <v>33224</v>
+      </c>
+      <c r="E110">
+        <v>109</v>
+      </c>
+      <c r="F110" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <f>usa_land!A110</f>
+        <v>43939</v>
+      </c>
+      <c r="B111">
+        <f>usa_land!F110</f>
+        <v>3770</v>
+      </c>
+      <c r="C111">
+        <f>SUM(B$2:B111)</f>
+        <v>37054</v>
+      </c>
+      <c r="D111" s="2">
+        <f t="shared" si="2"/>
+        <v>36934</v>
+      </c>
+      <c r="E111">
+        <v>110</v>
+      </c>
+      <c r="F111" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <f>usa_land!A111</f>
+        <v>43940</v>
+      </c>
+      <c r="B112">
+        <f>usa_land!F111</f>
+        <v>1856</v>
+      </c>
+      <c r="C112">
+        <f>SUM(B$2:B112)</f>
+        <v>38910</v>
+      </c>
+      <c r="D112" s="2">
+        <f t="shared" si="2"/>
+        <v>38670</v>
+      </c>
+      <c r="E112">
+        <v>111</v>
+      </c>
+      <c r="F112" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <f>usa_land!A112</f>
+        <v>43941</v>
+      </c>
+      <c r="B113">
+        <f>usa_land!F112</f>
+        <v>1772</v>
+      </c>
+      <c r="C113">
+        <f>SUM(B$2:B113)</f>
+        <v>40682</v>
+      </c>
+      <c r="D113" s="2">
+        <f t="shared" si="2"/>
+        <v>40203</v>
+      </c>
+      <c r="E113">
+        <v>112</v>
+      </c>
+      <c r="F113" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <f>usa_land!A113</f>
+        <v>43942</v>
+      </c>
+      <c r="B114">
+        <f>usa_land!F113</f>
+        <v>1857</v>
+      </c>
+      <c r="C114">
+        <f>SUM(B$2:B114)</f>
+        <v>42539</v>
+      </c>
+      <c r="D114" s="2">
+        <f t="shared" si="2"/>
+        <v>41582</v>
+      </c>
+      <c r="E114">
+        <v>113</v>
+      </c>
+      <c r="F114" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <f>usa_land!A114</f>
+        <v>43943</v>
+      </c>
+      <c r="B115">
+        <f>usa_land!F114</f>
+        <v>2524</v>
+      </c>
+      <c r="C115">
+        <f>SUM(B$2:B115)</f>
+        <v>45063</v>
+      </c>
+      <c r="D115" s="2">
+        <f t="shared" si="2"/>
+        <v>43150</v>
+      </c>
+      <c r="E115">
+        <v>114</v>
+      </c>
+      <c r="F115" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <f>usa_land!A115</f>
+        <v>43944</v>
+      </c>
+      <c r="B116">
+        <f>usa_land!F115</f>
+        <v>1721</v>
+      </c>
+      <c r="C116">
+        <f>SUM(B$2:B116)</f>
+        <v>46784</v>
+      </c>
+      <c r="D116" s="2">
+        <f t="shared" si="2"/>
+        <v>42958</v>
+      </c>
+      <c r="E116">
+        <v>115</v>
+      </c>
+      <c r="F116" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <f>usa_land!A116</f>
+        <v>43945</v>
+      </c>
+      <c r="B117">
+        <f>usa_land!F116</f>
+        <v>3179</v>
+      </c>
+      <c r="C117">
+        <f>SUM(B$2:B117)</f>
+        <v>49963</v>
+      </c>
+      <c r="D117" s="2">
+        <v>42311</v>
+      </c>
+      <c r="E117">
+        <v>116</v>
+      </c>
+      <c r="F117" t="s">
         <v>9</v>
       </c>
     </row>
@@ -25511,10 +27644,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G107"/>
+  <dimension ref="A1:G116"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="B105" sqref="A1:G107"/>
+    <sheetView topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="B105" sqref="A1:G116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27983,9 +30116,216 @@
         <v>5</v>
       </c>
     </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B108">
+        <v>16</v>
+      </c>
+      <c r="C108">
+        <v>4</v>
+      </c>
+      <c r="D108">
+        <v>2020</v>
+      </c>
+      <c r="E108">
+        <v>50</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B109">
+        <v>17</v>
+      </c>
+      <c r="C109">
+        <v>4</v>
+      </c>
+      <c r="D109">
+        <v>2020</v>
+      </c>
+      <c r="E109">
+        <v>352</v>
+      </c>
+      <c r="F109">
+        <v>1290</v>
+      </c>
+      <c r="G109" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B110">
+        <v>18</v>
+      </c>
+      <c r="C110">
+        <v>4</v>
+      </c>
+      <c r="D110">
+        <v>2020</v>
+      </c>
+      <c r="E110">
+        <v>31</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B111">
+        <v>19</v>
+      </c>
+      <c r="C111">
+        <v>4</v>
+      </c>
+      <c r="D111">
+        <v>2020</v>
+      </c>
+      <c r="E111">
+        <v>18</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B112">
+        <v>20</v>
+      </c>
+      <c r="C112">
+        <v>4</v>
+      </c>
+      <c r="D112">
+        <v>2020</v>
+      </c>
+      <c r="E112">
+        <v>14</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B113">
+        <v>21</v>
+      </c>
+      <c r="C113">
+        <v>4</v>
+      </c>
+      <c r="D113">
+        <v>2020</v>
+      </c>
+      <c r="E113">
+        <v>32</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B114">
+        <v>22</v>
+      </c>
+      <c r="C114">
+        <v>4</v>
+      </c>
+      <c r="D114">
+        <v>2020</v>
+      </c>
+      <c r="E114">
+        <v>15</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B115">
+        <v>23</v>
+      </c>
+      <c r="C115">
+        <v>4</v>
+      </c>
+      <c r="D115">
+        <v>2020</v>
+      </c>
+      <c r="E115">
+        <v>12</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B116">
+        <v>24</v>
+      </c>
+      <c r="C116">
+        <v>4</v>
+      </c>
+      <c r="D116">
+        <v>2020</v>
+      </c>
+      <c r="E116">
+        <v>8</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A1:G107">
-    <sortCondition ref="A1:A107"/>
+  <sortState ref="A1:G116">
+    <sortCondition ref="A1:A116"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -27993,10 +30333,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F109"/>
+  <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="D101" sqref="D101"/>
+    <sheetView topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="E117" sqref="E117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30335,7 +32675,7 @@
         <v>3350</v>
       </c>
       <c r="D106" s="2">
-        <f t="shared" ref="D106:D109" si="3">ROUNDDOWN(C106-((C107-D107)/(E107-E105)),0)</f>
+        <f t="shared" ref="D106:D110" si="3">ROUNDDOWN(C106-((C107-D107)/(E107-E105)),0)</f>
         <v>3350</v>
       </c>
       <c r="E106">
@@ -30383,7 +32723,8 @@
         <v>3351</v>
       </c>
       <c r="D108" s="2">
-        <v>3352</v>
+        <f t="shared" si="3"/>
+        <v>3351</v>
       </c>
       <c r="E108">
         <v>107</v>
@@ -30393,8 +32734,220 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A109" s="1"/>
-      <c r="D109" s="2"/>
+      <c r="A109" s="1">
+        <f>chin_land!A108</f>
+        <v>43937</v>
+      </c>
+      <c r="B109">
+        <f>chin_land!F108</f>
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <f>SUM(B$2:B109)</f>
+        <v>3351</v>
+      </c>
+      <c r="D109" s="2">
+        <f t="shared" si="3"/>
+        <v>3351</v>
+      </c>
+      <c r="E109">
+        <v>108</v>
+      </c>
+      <c r="F109" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <f>chin_land!A109</f>
+        <v>43938</v>
+      </c>
+      <c r="B110">
+        <f>chin_land!F109</f>
+        <v>1290</v>
+      </c>
+      <c r="C110">
+        <f>SUM(B$2:B110)</f>
+        <v>4641</v>
+      </c>
+      <c r="D110" s="2">
+        <f t="shared" si="3"/>
+        <v>4641</v>
+      </c>
+      <c r="E110">
+        <v>109</v>
+      </c>
+      <c r="F110" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <f>chin_land!A110</f>
+        <v>43939</v>
+      </c>
+      <c r="B111">
+        <f>chin_land!F110</f>
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <f>SUM(B$2:B111)</f>
+        <v>4641</v>
+      </c>
+      <c r="D111" s="2">
+        <f t="shared" ref="D111:D117" si="4">ROUNDDOWN(C111-((C112-D112)/(E112-E110)),0)</f>
+        <v>4641</v>
+      </c>
+      <c r="E111">
+        <v>110</v>
+      </c>
+      <c r="F111" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <f>chin_land!A111</f>
+        <v>43940</v>
+      </c>
+      <c r="B112">
+        <f>chin_land!F111</f>
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <f>SUM(B$2:B112)</f>
+        <v>4641</v>
+      </c>
+      <c r="D112" s="2">
+        <f t="shared" si="4"/>
+        <v>4641</v>
+      </c>
+      <c r="E112">
+        <v>111</v>
+      </c>
+      <c r="F112" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <f>chin_land!A112</f>
+        <v>43941</v>
+      </c>
+      <c r="B113">
+        <f>chin_land!F112</f>
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <f>SUM(B$2:B113)</f>
+        <v>4641</v>
+      </c>
+      <c r="D113" s="2">
+        <f t="shared" si="4"/>
+        <v>4641</v>
+      </c>
+      <c r="E113">
+        <v>112</v>
+      </c>
+      <c r="F113" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <f>chin_land!A113</f>
+        <v>43942</v>
+      </c>
+      <c r="B114">
+        <f>chin_land!F113</f>
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <f>SUM(B$2:B114)</f>
+        <v>4641</v>
+      </c>
+      <c r="D114" s="2">
+        <f t="shared" si="4"/>
+        <v>4641</v>
+      </c>
+      <c r="E114">
+        <v>113</v>
+      </c>
+      <c r="F114" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <f>chin_land!A114</f>
+        <v>43943</v>
+      </c>
+      <c r="B115">
+        <f>chin_land!F114</f>
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <f>SUM(B$2:B115)</f>
+        <v>4641</v>
+      </c>
+      <c r="D115" s="2">
+        <f t="shared" si="4"/>
+        <v>4641</v>
+      </c>
+      <c r="E115">
+        <v>114</v>
+      </c>
+      <c r="F115" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <f>chin_land!A115</f>
+        <v>43944</v>
+      </c>
+      <c r="B116">
+        <f>chin_land!F115</f>
+        <v>0</v>
+      </c>
+      <c r="C116">
+        <f>SUM(B$2:B116)</f>
+        <v>4641</v>
+      </c>
+      <c r="D116" s="2">
+        <f t="shared" si="4"/>
+        <v>4641</v>
+      </c>
+      <c r="E116">
+        <v>115</v>
+      </c>
+      <c r="F116" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <f>chin_land!A116</f>
+        <v>43945</v>
+      </c>
+      <c r="B117">
+        <f>chin_land!F116</f>
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <f>SUM(B$2:B117)</f>
+        <v>4641</v>
+      </c>
+      <c r="D117" s="2">
+        <f t="shared" si="4"/>
+        <v>4641</v>
+      </c>
+      <c r="E117">
+        <v>116</v>
+      </c>
+      <c r="F117" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30403,10 +32956,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G107"/>
+  <dimension ref="A1:G116"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B100" sqref="A1:G107"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="F116" sqref="F116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32875,9 +35428,216 @@
         <v>6</v>
       </c>
     </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B108">
+        <v>16</v>
+      </c>
+      <c r="C108">
+        <v>4</v>
+      </c>
+      <c r="D108">
+        <v>2020</v>
+      </c>
+      <c r="E108">
+        <v>2633</v>
+      </c>
+      <c r="F108">
+        <v>1438</v>
+      </c>
+      <c r="G108" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B109">
+        <v>17</v>
+      </c>
+      <c r="C109">
+        <v>4</v>
+      </c>
+      <c r="D109">
+        <v>2020</v>
+      </c>
+      <c r="E109">
+        <v>2641</v>
+      </c>
+      <c r="F109">
+        <v>753</v>
+      </c>
+      <c r="G109" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B110">
+        <v>18</v>
+      </c>
+      <c r="C110">
+        <v>4</v>
+      </c>
+      <c r="D110">
+        <v>2020</v>
+      </c>
+      <c r="E110">
+        <v>405</v>
+      </c>
+      <c r="F110">
+        <v>761</v>
+      </c>
+      <c r="G110" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B111">
+        <v>19</v>
+      </c>
+      <c r="C111">
+        <v>4</v>
+      </c>
+      <c r="D111">
+        <v>2020</v>
+      </c>
+      <c r="E111">
+        <v>2569</v>
+      </c>
+      <c r="F111">
+        <v>642</v>
+      </c>
+      <c r="G111" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B112">
+        <v>20</v>
+      </c>
+      <c r="C112">
+        <v>4</v>
+      </c>
+      <c r="D112">
+        <v>2020</v>
+      </c>
+      <c r="E112">
+        <v>785</v>
+      </c>
+      <c r="F112">
+        <v>395</v>
+      </c>
+      <c r="G112" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B113">
+        <v>21</v>
+      </c>
+      <c r="C113">
+        <v>4</v>
+      </c>
+      <c r="D113">
+        <v>2020</v>
+      </c>
+      <c r="E113">
+        <v>2051</v>
+      </c>
+      <c r="F113">
+        <v>547</v>
+      </c>
+      <c r="G113" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B114">
+        <v>22</v>
+      </c>
+      <c r="C114">
+        <v>4</v>
+      </c>
+      <c r="D114">
+        <v>2020</v>
+      </c>
+      <c r="E114">
+        <v>2667</v>
+      </c>
+      <c r="F114">
+        <v>531</v>
+      </c>
+      <c r="G114" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B115">
+        <v>23</v>
+      </c>
+      <c r="C115">
+        <v>4</v>
+      </c>
+      <c r="D115">
+        <v>2020</v>
+      </c>
+      <c r="E115">
+        <v>1827</v>
+      </c>
+      <c r="F115">
+        <v>544</v>
+      </c>
+      <c r="G115" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B116">
+        <v>24</v>
+      </c>
+      <c r="C116">
+        <v>4</v>
+      </c>
+      <c r="D116">
+        <v>2020</v>
+      </c>
+      <c r="E116">
+        <v>1653</v>
+      </c>
+      <c r="F116">
+        <v>516</v>
+      </c>
+      <c r="G116" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A1:G107">
-    <sortCondition ref="A1:A107"/>
+  <sortState ref="A1:G116">
+    <sortCondition ref="A1:A116"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -32885,10 +35645,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F108"/>
+  <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="E109" sqref="E109"/>
+    <sheetView topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="E117" sqref="E117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35180,7 +37940,7 @@
       </c>
       <c r="D104" s="2">
         <f t="shared" si="1"/>
-        <v>13195</v>
+        <v>13196</v>
       </c>
       <c r="E104">
         <v>103</v>
@@ -35203,8 +37963,8 @@
         <v>13832</v>
       </c>
       <c r="D105" s="2">
-        <f t="shared" ref="D105:D107" si="2">ROUNDDOWN(C105-((C106-D106)/(E106-E104)),0)</f>
-        <v>13829</v>
+        <f t="shared" ref="D105:D110" si="2">ROUNDDOWN(C105-((C106-D106)/(E106-E104)),0)</f>
+        <v>13831</v>
       </c>
       <c r="E105">
         <v>104</v>
@@ -35228,7 +37988,7 @@
       </c>
       <c r="D106" s="2">
         <f t="shared" si="2"/>
-        <v>14387</v>
+        <v>14392</v>
       </c>
       <c r="E106">
         <v>105</v>
@@ -35252,7 +38012,7 @@
       </c>
       <c r="D107" s="2">
         <f t="shared" si="2"/>
-        <v>14956</v>
+        <v>14966</v>
       </c>
       <c r="E107">
         <v>106</v>
@@ -35274,13 +38034,229 @@
         <f>SUM(B$2:B108)</f>
         <v>15729</v>
       </c>
-      <c r="D108">
-        <v>15708</v>
+      <c r="D108" s="2">
+        <f t="shared" si="2"/>
+        <v>15728</v>
       </c>
       <c r="E108">
         <v>107</v>
       </c>
       <c r="F108" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <f>france_land!A108</f>
+        <v>43937</v>
+      </c>
+      <c r="B109">
+        <f>france_land!F108</f>
+        <v>1438</v>
+      </c>
+      <c r="C109">
+        <f>SUM(B$2:B109)</f>
+        <v>17167</v>
+      </c>
+      <c r="D109" s="2">
+        <f t="shared" si="2"/>
+        <v>17166</v>
+      </c>
+      <c r="E109">
+        <v>108</v>
+      </c>
+      <c r="F109" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <f>france_land!A109</f>
+        <v>43938</v>
+      </c>
+      <c r="B110">
+        <f>france_land!F109</f>
+        <v>753</v>
+      </c>
+      <c r="C110">
+        <f>SUM(B$2:B110)</f>
+        <v>17920</v>
+      </c>
+      <c r="D110" s="2">
+        <f t="shared" si="2"/>
+        <v>17919</v>
+      </c>
+      <c r="E110">
+        <v>109</v>
+      </c>
+      <c r="F110" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <f>france_land!A110</f>
+        <v>43939</v>
+      </c>
+      <c r="B111">
+        <f>france_land!F110</f>
+        <v>761</v>
+      </c>
+      <c r="C111">
+        <f>SUM(B$2:B111)</f>
+        <v>18681</v>
+      </c>
+      <c r="D111" s="2">
+        <f t="shared" ref="D111:D117" si="3">ROUNDDOWN(C111-((C112-D112)/(E112-E110)),0)</f>
+        <v>18680</v>
+      </c>
+      <c r="E111">
+        <v>110</v>
+      </c>
+      <c r="F111" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <f>france_land!A111</f>
+        <v>43940</v>
+      </c>
+      <c r="B112">
+        <f>france_land!F111</f>
+        <v>642</v>
+      </c>
+      <c r="C112">
+        <f>SUM(B$2:B112)</f>
+        <v>19323</v>
+      </c>
+      <c r="D112" s="2">
+        <f t="shared" si="3"/>
+        <v>19321</v>
+      </c>
+      <c r="E112">
+        <v>111</v>
+      </c>
+      <c r="F112" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <f>france_land!A112</f>
+        <v>43941</v>
+      </c>
+      <c r="B113">
+        <f>france_land!F112</f>
+        <v>395</v>
+      </c>
+      <c r="C113">
+        <f>SUM(B$2:B113)</f>
+        <v>19718</v>
+      </c>
+      <c r="D113" s="2">
+        <f t="shared" si="3"/>
+        <v>19715</v>
+      </c>
+      <c r="E113">
+        <v>112</v>
+      </c>
+      <c r="F113" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <f>france_land!A113</f>
+        <v>43942</v>
+      </c>
+      <c r="B114">
+        <f>france_land!F113</f>
+        <v>547</v>
+      </c>
+      <c r="C114">
+        <f>SUM(B$2:B114)</f>
+        <v>20265</v>
+      </c>
+      <c r="D114" s="2">
+        <f t="shared" si="3"/>
+        <v>20260</v>
+      </c>
+      <c r="E114">
+        <v>113</v>
+      </c>
+      <c r="F114" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <f>france_land!A114</f>
+        <v>43943</v>
+      </c>
+      <c r="B115">
+        <f>france_land!F114</f>
+        <v>531</v>
+      </c>
+      <c r="C115">
+        <f>SUM(B$2:B115)</f>
+        <v>20796</v>
+      </c>
+      <c r="D115" s="2">
+        <f t="shared" si="3"/>
+        <v>20787</v>
+      </c>
+      <c r="E115">
+        <v>114</v>
+      </c>
+      <c r="F115" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <f>france_land!A115</f>
+        <v>43944</v>
+      </c>
+      <c r="B116">
+        <f>france_land!F115</f>
+        <v>544</v>
+      </c>
+      <c r="C116">
+        <f>SUM(B$2:B116)</f>
+        <v>21340</v>
+      </c>
+      <c r="D116" s="2">
+        <f t="shared" si="3"/>
+        <v>21323</v>
+      </c>
+      <c r="E116">
+        <v>115</v>
+      </c>
+      <c r="F116" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <f>france_land!A116</f>
+        <v>43945</v>
+      </c>
+      <c r="B117">
+        <f>france_land!F116</f>
+        <v>516</v>
+      </c>
+      <c r="C117">
+        <f>SUM(B$2:B117)</f>
+        <v>21856</v>
+      </c>
+      <c r="D117" s="2">
+        <v>21823</v>
+      </c>
+      <c r="E117">
+        <v>116</v>
+      </c>
+      <c r="F117" t="s">
         <v>6</v>
       </c>
     </row>
@@ -35291,10 +38267,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G107"/>
+  <dimension ref="A1:G116"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A101" sqref="A1:G107"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="F114" sqref="F114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -37763,9 +40739,216 @@
         <v>7</v>
       </c>
     </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B108">
+        <v>16</v>
+      </c>
+      <c r="C108">
+        <v>4</v>
+      </c>
+      <c r="D108">
+        <v>2020</v>
+      </c>
+      <c r="E108">
+        <v>2667</v>
+      </c>
+      <c r="F108">
+        <v>578</v>
+      </c>
+      <c r="G108" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B109">
+        <v>17</v>
+      </c>
+      <c r="C109">
+        <v>4</v>
+      </c>
+      <c r="D109">
+        <v>2020</v>
+      </c>
+      <c r="E109">
+        <v>3786</v>
+      </c>
+      <c r="F109">
+        <v>525</v>
+      </c>
+      <c r="G109" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B110">
+        <v>18</v>
+      </c>
+      <c r="C110">
+        <v>4</v>
+      </c>
+      <c r="D110">
+        <v>2020</v>
+      </c>
+      <c r="E110">
+        <v>3493</v>
+      </c>
+      <c r="F110">
+        <v>575</v>
+      </c>
+      <c r="G110" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B111">
+        <v>19</v>
+      </c>
+      <c r="C111">
+        <v>4</v>
+      </c>
+      <c r="D111">
+        <v>2020</v>
+      </c>
+      <c r="E111">
+        <v>3491</v>
+      </c>
+      <c r="F111">
+        <v>480</v>
+      </c>
+      <c r="G111" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B112">
+        <v>20</v>
+      </c>
+      <c r="C112">
+        <v>4</v>
+      </c>
+      <c r="D112">
+        <v>2020</v>
+      </c>
+      <c r="E112">
+        <v>3047</v>
+      </c>
+      <c r="F112">
+        <v>433</v>
+      </c>
+      <c r="G112" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B113">
+        <v>21</v>
+      </c>
+      <c r="C113">
+        <v>4</v>
+      </c>
+      <c r="D113">
+        <v>2020</v>
+      </c>
+      <c r="E113">
+        <v>2256</v>
+      </c>
+      <c r="F113">
+        <v>454</v>
+      </c>
+      <c r="G113" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B114">
+        <v>22</v>
+      </c>
+      <c r="C114">
+        <v>4</v>
+      </c>
+      <c r="D114">
+        <v>2020</v>
+      </c>
+      <c r="E114">
+        <v>2729</v>
+      </c>
+      <c r="F114">
+        <v>534</v>
+      </c>
+      <c r="G114" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B115">
+        <v>23</v>
+      </c>
+      <c r="C115">
+        <v>4</v>
+      </c>
+      <c r="D115">
+        <v>2020</v>
+      </c>
+      <c r="E115">
+        <v>3370</v>
+      </c>
+      <c r="F115">
+        <v>437</v>
+      </c>
+      <c r="G115" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B116">
+        <v>24</v>
+      </c>
+      <c r="C116">
+        <v>4</v>
+      </c>
+      <c r="D116">
+        <v>2020</v>
+      </c>
+      <c r="E116">
+        <v>2646</v>
+      </c>
+      <c r="F116">
+        <v>464</v>
+      </c>
+      <c r="G116" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A1:G107">
-    <sortCondition ref="A1:A107"/>
+  <sortState ref="A1:G116">
+    <sortCondition ref="A1:A116"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -37773,10 +40956,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F108"/>
+  <dimension ref="A1:F118"/>
   <sheetViews>
     <sheetView topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="D102" sqref="D102"/>
+      <selection activeCell="I113" sqref="I113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -40091,7 +43274,7 @@
         <v>19470</v>
       </c>
       <c r="D105" s="2">
-        <f t="shared" ref="D105:D107" si="2">ROUNDDOWN(C105-((C106-D106)/(E106-E104)),0)</f>
+        <f t="shared" ref="D105:D111" si="2">ROUNDDOWN(C105-((C106-D106)/(E106-E104)),0)</f>
         <v>19470</v>
       </c>
       <c r="E105">
@@ -40162,7 +43345,8 @@
         <f>SUM(B$2:B108)</f>
         <v>21069</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="2">
+        <f t="shared" si="2"/>
         <v>21069</v>
       </c>
       <c r="E108">
@@ -40171,6 +43355,226 @@
       <c r="F108" t="s">
         <v>7</v>
       </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <f>italy_land!A108</f>
+        <v>43937</v>
+      </c>
+      <c r="B109">
+        <f>italy_land!F108</f>
+        <v>578</v>
+      </c>
+      <c r="C109">
+        <f>SUM(B$2:B109)</f>
+        <v>21647</v>
+      </c>
+      <c r="D109" s="2">
+        <f t="shared" si="2"/>
+        <v>21647</v>
+      </c>
+      <c r="E109">
+        <v>108</v>
+      </c>
+      <c r="F109" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <f>italy_land!A109</f>
+        <v>43938</v>
+      </c>
+      <c r="B110">
+        <f>italy_land!F109</f>
+        <v>525</v>
+      </c>
+      <c r="C110">
+        <f>SUM(B$2:B110)</f>
+        <v>22172</v>
+      </c>
+      <c r="D110" s="2">
+        <f t="shared" si="2"/>
+        <v>22172</v>
+      </c>
+      <c r="E110">
+        <v>109</v>
+      </c>
+      <c r="F110" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <f>italy_land!A110</f>
+        <v>43939</v>
+      </c>
+      <c r="B111">
+        <f>italy_land!F110</f>
+        <v>575</v>
+      </c>
+      <c r="C111">
+        <f>SUM(B$2:B111)</f>
+        <v>22747</v>
+      </c>
+      <c r="D111" s="2">
+        <f t="shared" si="2"/>
+        <v>22747</v>
+      </c>
+      <c r="E111">
+        <v>110</v>
+      </c>
+      <c r="F111" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <f>italy_land!A111</f>
+        <v>43940</v>
+      </c>
+      <c r="B112">
+        <f>italy_land!F111</f>
+        <v>480</v>
+      </c>
+      <c r="C112">
+        <f>SUM(B$2:B112)</f>
+        <v>23227</v>
+      </c>
+      <c r="D112" s="2">
+        <f t="shared" ref="D112:D118" si="3">ROUNDDOWN(C112-((C113-D113)/(E113-E111)),0)</f>
+        <v>23227</v>
+      </c>
+      <c r="E112">
+        <v>111</v>
+      </c>
+      <c r="F112" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <f>italy_land!A112</f>
+        <v>43941</v>
+      </c>
+      <c r="B113">
+        <f>italy_land!F112</f>
+        <v>433</v>
+      </c>
+      <c r="C113">
+        <f>SUM(B$2:B113)</f>
+        <v>23660</v>
+      </c>
+      <c r="D113" s="2">
+        <f t="shared" si="3"/>
+        <v>23660</v>
+      </c>
+      <c r="E113">
+        <v>112</v>
+      </c>
+      <c r="F113" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <f>italy_land!A113</f>
+        <v>43942</v>
+      </c>
+      <c r="B114">
+        <f>italy_land!F113</f>
+        <v>454</v>
+      </c>
+      <c r="C114">
+        <f>SUM(B$2:B114)</f>
+        <v>24114</v>
+      </c>
+      <c r="D114" s="2">
+        <f t="shared" si="3"/>
+        <v>24114</v>
+      </c>
+      <c r="E114">
+        <v>113</v>
+      </c>
+      <c r="F114" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <f>italy_land!A114</f>
+        <v>43943</v>
+      </c>
+      <c r="B115">
+        <f>italy_land!F114</f>
+        <v>534</v>
+      </c>
+      <c r="C115">
+        <f>SUM(B$2:B115)</f>
+        <v>24648</v>
+      </c>
+      <c r="D115" s="2">
+        <f t="shared" si="3"/>
+        <v>24648</v>
+      </c>
+      <c r="E115">
+        <v>114</v>
+      </c>
+      <c r="F115" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <f>italy_land!A115</f>
+        <v>43944</v>
+      </c>
+      <c r="B116">
+        <f>italy_land!F115</f>
+        <v>437</v>
+      </c>
+      <c r="C116">
+        <f>SUM(B$2:B116)</f>
+        <v>25085</v>
+      </c>
+      <c r="D116" s="2">
+        <f t="shared" si="3"/>
+        <v>25085</v>
+      </c>
+      <c r="E116">
+        <v>115</v>
+      </c>
+      <c r="F116" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <f>italy_land!A116</f>
+        <v>43945</v>
+      </c>
+      <c r="B117">
+        <f>italy_land!F116</f>
+        <v>464</v>
+      </c>
+      <c r="C117">
+        <f>SUM(B$2:B117)</f>
+        <v>25549</v>
+      </c>
+      <c r="D117" s="2">
+        <f t="shared" si="3"/>
+        <v>25549</v>
+      </c>
+      <c r="E117">
+        <v>116</v>
+      </c>
+      <c r="F117" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="1"/>
+      <c r="D118" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/reg.xlsx
+++ b/data/reg.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="348" windowWidth="22692" windowHeight="9804" firstSheet="6" activeTab="16"/>
+    <workbookView xWindow="264" yWindow="552" windowWidth="22692" windowHeight="9804" firstSheet="6" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="datadictionary" sheetId="14" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1815" uniqueCount="30">
   <si>
     <t>y</t>
   </si>
@@ -636,10 +636,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G116"/>
+  <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A98" sqref="A1:G116"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="N125" sqref="N125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3315,9 +3315,216 @@
         <v>10</v>
       </c>
     </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B117">
+        <v>25</v>
+      </c>
+      <c r="C117">
+        <v>4</v>
+      </c>
+      <c r="D117">
+        <v>2020</v>
+      </c>
+      <c r="E117">
+        <v>652</v>
+      </c>
+      <c r="F117">
+        <v>17</v>
+      </c>
+      <c r="G117" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B118">
+        <v>26</v>
+      </c>
+      <c r="C118">
+        <v>4</v>
+      </c>
+      <c r="D118">
+        <v>2020</v>
+      </c>
+      <c r="E118">
+        <v>290</v>
+      </c>
+      <c r="F118">
+        <v>14</v>
+      </c>
+      <c r="G118" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B119">
+        <v>27</v>
+      </c>
+      <c r="C119">
+        <v>4</v>
+      </c>
+      <c r="D119">
+        <v>2020</v>
+      </c>
+      <c r="E119">
+        <v>203</v>
+      </c>
+      <c r="F119">
+        <v>3</v>
+      </c>
+      <c r="G119" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B120">
+        <v>28</v>
+      </c>
+      <c r="C120">
+        <v>4</v>
+      </c>
+      <c r="D120">
+        <v>2020</v>
+      </c>
+      <c r="E120">
+        <v>191</v>
+      </c>
+      <c r="F120">
+        <v>25</v>
+      </c>
+      <c r="G120" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B121">
+        <v>29</v>
+      </c>
+      <c r="C121">
+        <v>4</v>
+      </c>
+      <c r="D121">
+        <v>2020</v>
+      </c>
+      <c r="E121">
+        <v>276</v>
+      </c>
+      <c r="F121">
+        <v>13</v>
+      </c>
+      <c r="G121" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B122">
+        <v>30</v>
+      </c>
+      <c r="C122">
+        <v>4</v>
+      </c>
+      <c r="D122">
+        <v>2020</v>
+      </c>
+      <c r="E122">
+        <v>236</v>
+      </c>
+      <c r="F122">
+        <v>26</v>
+      </c>
+      <c r="G122" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123">
+        <v>5</v>
+      </c>
+      <c r="D123">
+        <v>2020</v>
+      </c>
+      <c r="E123">
+        <v>193</v>
+      </c>
+      <c r="F123">
+        <v>17</v>
+      </c>
+      <c r="G123" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B124">
+        <v>2</v>
+      </c>
+      <c r="C124">
+        <v>5</v>
+      </c>
+      <c r="D124">
+        <v>2020</v>
+      </c>
+      <c r="E124">
+        <v>263</v>
+      </c>
+      <c r="F124">
+        <v>26</v>
+      </c>
+      <c r="G124" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B125">
+        <v>3</v>
+      </c>
+      <c r="C125">
+        <v>5</v>
+      </c>
+      <c r="D125">
+        <v>2020</v>
+      </c>
+      <c r="E125">
+        <v>295</v>
+      </c>
+      <c r="F125">
+        <v>34</v>
+      </c>
+      <c r="G125" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A1:G116">
-    <sortCondition ref="A1:A116"/>
+  <sortState ref="A1:G125">
+    <sortCondition ref="A1:A125"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3325,10 +3532,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F117"/>
+  <dimension ref="A1:F126"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="J115" sqref="J115"/>
+    <sheetView topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="D126" sqref="D126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5941,6 +6148,222 @@
         <v>10</v>
       </c>
     </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <f>japan_land!A117</f>
+        <v>43946</v>
+      </c>
+      <c r="B118">
+        <f>japan_land!F117</f>
+        <v>17</v>
+      </c>
+      <c r="C118">
+        <f>SUM(B$2:B118)</f>
+        <v>334</v>
+      </c>
+      <c r="D118" s="2">
+        <f t="shared" ref="D118:D126" si="4">ROUNDDOWN(C118-((C119-D119)/(E119-E117)),0)</f>
+        <v>334</v>
+      </c>
+      <c r="E118">
+        <v>117</v>
+      </c>
+      <c r="F118" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <f>japan_land!A118</f>
+        <v>43947</v>
+      </c>
+      <c r="B119">
+        <f>japan_land!F118</f>
+        <v>14</v>
+      </c>
+      <c r="C119">
+        <f>SUM(B$2:B119)</f>
+        <v>348</v>
+      </c>
+      <c r="D119" s="2">
+        <f t="shared" si="4"/>
+        <v>348</v>
+      </c>
+      <c r="E119">
+        <v>118</v>
+      </c>
+      <c r="F119" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <f>japan_land!A119</f>
+        <v>43948</v>
+      </c>
+      <c r="B120">
+        <f>japan_land!F119</f>
+        <v>3</v>
+      </c>
+      <c r="C120">
+        <f>SUM(B$2:B120)</f>
+        <v>351</v>
+      </c>
+      <c r="D120" s="2">
+        <f t="shared" si="4"/>
+        <v>351</v>
+      </c>
+      <c r="E120">
+        <v>119</v>
+      </c>
+      <c r="F120" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <f>japan_land!A120</f>
+        <v>43949</v>
+      </c>
+      <c r="B121">
+        <f>japan_land!F120</f>
+        <v>25</v>
+      </c>
+      <c r="C121">
+        <f>SUM(B$2:B121)</f>
+        <v>376</v>
+      </c>
+      <c r="D121" s="2">
+        <f t="shared" si="4"/>
+        <v>376</v>
+      </c>
+      <c r="E121">
+        <v>120</v>
+      </c>
+      <c r="F121" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <f>japan_land!A121</f>
+        <v>43950</v>
+      </c>
+      <c r="B122">
+        <f>japan_land!F121</f>
+        <v>13</v>
+      </c>
+      <c r="C122">
+        <f>SUM(B$2:B122)</f>
+        <v>389</v>
+      </c>
+      <c r="D122" s="2">
+        <f t="shared" si="4"/>
+        <v>389</v>
+      </c>
+      <c r="E122">
+        <v>121</v>
+      </c>
+      <c r="F122" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <f>japan_land!A122</f>
+        <v>43951</v>
+      </c>
+      <c r="B123">
+        <f>japan_land!F122</f>
+        <v>26</v>
+      </c>
+      <c r="C123">
+        <f>SUM(B$2:B123)</f>
+        <v>415</v>
+      </c>
+      <c r="D123" s="2">
+        <f t="shared" si="4"/>
+        <v>415</v>
+      </c>
+      <c r="E123">
+        <v>122</v>
+      </c>
+      <c r="F123" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <f>japan_land!A123</f>
+        <v>43952</v>
+      </c>
+      <c r="B124">
+        <f>japan_land!F123</f>
+        <v>17</v>
+      </c>
+      <c r="C124">
+        <f>SUM(B$2:B124)</f>
+        <v>432</v>
+      </c>
+      <c r="D124" s="2">
+        <f t="shared" si="4"/>
+        <v>432</v>
+      </c>
+      <c r="E124">
+        <v>123</v>
+      </c>
+      <c r="F124" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <f>japan_land!A124</f>
+        <v>43953</v>
+      </c>
+      <c r="B125">
+        <f>japan_land!F124</f>
+        <v>26</v>
+      </c>
+      <c r="C125">
+        <f>SUM(B$2:B125)</f>
+        <v>458</v>
+      </c>
+      <c r="D125" s="2">
+        <f t="shared" si="4"/>
+        <v>458</v>
+      </c>
+      <c r="E125">
+        <v>124</v>
+      </c>
+      <c r="F125" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <f>japan_land!A125</f>
+        <v>43954</v>
+      </c>
+      <c r="B126">
+        <f>japan_land!F125</f>
+        <v>34</v>
+      </c>
+      <c r="C126">
+        <f>SUM(B$2:B126)</f>
+        <v>492</v>
+      </c>
+      <c r="D126" s="2">
+        <f t="shared" si="4"/>
+        <v>492</v>
+      </c>
+      <c r="E126">
+        <v>125</v>
+      </c>
+      <c r="F126" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5948,10 +6371,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G116"/>
+  <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="K104" sqref="K104"/>
+    <sheetView topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="Q117" sqref="Q117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8627,9 +9050,216 @@
         <v>11</v>
       </c>
     </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B117">
+        <v>25</v>
+      </c>
+      <c r="C117">
+        <v>4</v>
+      </c>
+      <c r="D117">
+        <v>2020</v>
+      </c>
+      <c r="E117">
+        <v>10</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B118">
+        <v>26</v>
+      </c>
+      <c r="C118">
+        <v>4</v>
+      </c>
+      <c r="D118">
+        <v>2020</v>
+      </c>
+      <c r="E118">
+        <v>10</v>
+      </c>
+      <c r="F118">
+        <v>2</v>
+      </c>
+      <c r="G118" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B119">
+        <v>27</v>
+      </c>
+      <c r="C119">
+        <v>4</v>
+      </c>
+      <c r="D119">
+        <v>2020</v>
+      </c>
+      <c r="E119">
+        <v>10</v>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+      <c r="G119" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B120">
+        <v>28</v>
+      </c>
+      <c r="C120">
+        <v>4</v>
+      </c>
+      <c r="D120">
+        <v>2020</v>
+      </c>
+      <c r="E120">
+        <v>14</v>
+      </c>
+      <c r="F120">
+        <v>1</v>
+      </c>
+      <c r="G120" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B121">
+        <v>29</v>
+      </c>
+      <c r="C121">
+        <v>4</v>
+      </c>
+      <c r="D121">
+        <v>2020</v>
+      </c>
+      <c r="E121">
+        <v>9</v>
+      </c>
+      <c r="F121">
+        <v>2</v>
+      </c>
+      <c r="G121" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B122">
+        <v>30</v>
+      </c>
+      <c r="C122">
+        <v>4</v>
+      </c>
+      <c r="D122">
+        <v>2020</v>
+      </c>
+      <c r="E122">
+        <v>4</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+      <c r="G122" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123">
+        <v>5</v>
+      </c>
+      <c r="D123">
+        <v>2020</v>
+      </c>
+      <c r="E123">
+        <v>9</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+      <c r="G123" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B124">
+        <v>2</v>
+      </c>
+      <c r="C124">
+        <v>5</v>
+      </c>
+      <c r="D124">
+        <v>2020</v>
+      </c>
+      <c r="E124">
+        <v>6</v>
+      </c>
+      <c r="F124">
+        <v>2</v>
+      </c>
+      <c r="G124" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B125">
+        <v>3</v>
+      </c>
+      <c r="C125">
+        <v>5</v>
+      </c>
+      <c r="D125">
+        <v>2020</v>
+      </c>
+      <c r="E125">
+        <v>13</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A1:G116">
-    <sortCondition ref="A1:A116"/>
+  <sortState ref="A1:G125">
+    <sortCondition ref="A1:A125"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8637,10 +9267,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F117"/>
+  <dimension ref="A1:F126"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="E114" sqref="E114"/>
+    <sheetView topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="H124" sqref="H124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11255,6 +11885,222 @@
         <v>11</v>
       </c>
     </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <f>sk_land!A117</f>
+        <v>43946</v>
+      </c>
+      <c r="B118">
+        <f>sk_land!F117</f>
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <f>SUM(B$2:B118)</f>
+        <v>240</v>
+      </c>
+      <c r="D118" s="2">
+        <f t="shared" ref="D118:D126" si="4">ROUNDDOWN(C118-((C119-D119)/(E119-E117)),0)</f>
+        <v>240</v>
+      </c>
+      <c r="E118">
+        <v>117</v>
+      </c>
+      <c r="F118" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <f>sk_land!A118</f>
+        <v>43947</v>
+      </c>
+      <c r="B119">
+        <f>sk_land!F118</f>
+        <v>2</v>
+      </c>
+      <c r="C119">
+        <f>SUM(B$2:B119)</f>
+        <v>242</v>
+      </c>
+      <c r="D119" s="2">
+        <f t="shared" si="4"/>
+        <v>242</v>
+      </c>
+      <c r="E119">
+        <v>118</v>
+      </c>
+      <c r="F119" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <f>sk_land!A119</f>
+        <v>43948</v>
+      </c>
+      <c r="B120">
+        <f>sk_land!F119</f>
+        <v>1</v>
+      </c>
+      <c r="C120">
+        <f>SUM(B$2:B120)</f>
+        <v>243</v>
+      </c>
+      <c r="D120" s="2">
+        <f t="shared" si="4"/>
+        <v>243</v>
+      </c>
+      <c r="E120">
+        <v>119</v>
+      </c>
+      <c r="F120" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <f>sk_land!A120</f>
+        <v>43949</v>
+      </c>
+      <c r="B121">
+        <f>sk_land!F120</f>
+        <v>1</v>
+      </c>
+      <c r="C121">
+        <f>SUM(B$2:B121)</f>
+        <v>244</v>
+      </c>
+      <c r="D121" s="2">
+        <f t="shared" si="4"/>
+        <v>244</v>
+      </c>
+      <c r="E121">
+        <v>120</v>
+      </c>
+      <c r="F121" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <f>sk_land!A121</f>
+        <v>43950</v>
+      </c>
+      <c r="B122">
+        <f>sk_land!F121</f>
+        <v>2</v>
+      </c>
+      <c r="C122">
+        <f>SUM(B$2:B122)</f>
+        <v>246</v>
+      </c>
+      <c r="D122" s="2">
+        <f t="shared" si="4"/>
+        <v>246</v>
+      </c>
+      <c r="E122">
+        <v>121</v>
+      </c>
+      <c r="F122" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <f>sk_land!A122</f>
+        <v>43951</v>
+      </c>
+      <c r="B123">
+        <f>sk_land!F122</f>
+        <v>1</v>
+      </c>
+      <c r="C123">
+        <f>SUM(B$2:B123)</f>
+        <v>247</v>
+      </c>
+      <c r="D123" s="2">
+        <f t="shared" si="4"/>
+        <v>247</v>
+      </c>
+      <c r="E123">
+        <v>122</v>
+      </c>
+      <c r="F123" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <f>sk_land!A123</f>
+        <v>43952</v>
+      </c>
+      <c r="B124">
+        <f>sk_land!F123</f>
+        <v>1</v>
+      </c>
+      <c r="C124">
+        <f>SUM(B$2:B124)</f>
+        <v>248</v>
+      </c>
+      <c r="D124" s="2">
+        <f t="shared" si="4"/>
+        <v>248</v>
+      </c>
+      <c r="E124">
+        <v>123</v>
+      </c>
+      <c r="F124" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <f>sk_land!A124</f>
+        <v>43953</v>
+      </c>
+      <c r="B125">
+        <f>sk_land!F124</f>
+        <v>2</v>
+      </c>
+      <c r="C125">
+        <f>SUM(B$2:B125)</f>
+        <v>250</v>
+      </c>
+      <c r="D125" s="2">
+        <f t="shared" si="4"/>
+        <v>250</v>
+      </c>
+      <c r="E125">
+        <v>124</v>
+      </c>
+      <c r="F125" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <f>sk_land!A125</f>
+        <v>43954</v>
+      </c>
+      <c r="B126">
+        <f>sk_land!F125</f>
+        <v>0</v>
+      </c>
+      <c r="C126">
+        <f>SUM(B$2:B126)</f>
+        <v>250</v>
+      </c>
+      <c r="D126" s="2">
+        <f t="shared" si="4"/>
+        <v>250</v>
+      </c>
+      <c r="E126">
+        <v>125</v>
+      </c>
+      <c r="F126" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11262,10 +12108,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G113"/>
+  <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="J102" sqref="J102"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="E116" sqref="A1:G121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13872,9 +14718,193 @@
         <v>28</v>
       </c>
     </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B114">
+        <v>26</v>
+      </c>
+      <c r="C114">
+        <v>4</v>
+      </c>
+      <c r="D114">
+        <v>2020</v>
+      </c>
+      <c r="E114">
+        <v>5514</v>
+      </c>
+      <c r="F114">
+        <v>346</v>
+      </c>
+      <c r="G114" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B115">
+        <v>27</v>
+      </c>
+      <c r="C115">
+        <v>4</v>
+      </c>
+      <c r="D115">
+        <v>2020</v>
+      </c>
+      <c r="E115">
+        <v>3379</v>
+      </c>
+      <c r="F115">
+        <v>189</v>
+      </c>
+      <c r="G115" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B116">
+        <v>28</v>
+      </c>
+      <c r="C116">
+        <v>4</v>
+      </c>
+      <c r="D116">
+        <v>2020</v>
+      </c>
+      <c r="E116">
+        <v>4613</v>
+      </c>
+      <c r="F116">
+        <v>338</v>
+      </c>
+      <c r="G116" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B117">
+        <v>29</v>
+      </c>
+      <c r="C117">
+        <v>4</v>
+      </c>
+      <c r="D117">
+        <v>2020</v>
+      </c>
+      <c r="E117">
+        <v>5385</v>
+      </c>
+      <c r="F117">
+        <v>474</v>
+      </c>
+      <c r="G117" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B118">
+        <v>30</v>
+      </c>
+      <c r="C118">
+        <v>4</v>
+      </c>
+      <c r="D118">
+        <v>2020</v>
+      </c>
+      <c r="E118">
+        <v>6276</v>
+      </c>
+      <c r="F118">
+        <v>449</v>
+      </c>
+      <c r="G118" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119">
+        <v>5</v>
+      </c>
+      <c r="D119">
+        <v>2020</v>
+      </c>
+      <c r="E119">
+        <v>7218</v>
+      </c>
+      <c r="F119">
+        <v>435</v>
+      </c>
+      <c r="G119" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B120">
+        <v>2</v>
+      </c>
+      <c r="C120">
+        <v>5</v>
+      </c>
+      <c r="D120">
+        <v>2020</v>
+      </c>
+      <c r="E120">
+        <v>6209</v>
+      </c>
+      <c r="F120">
+        <v>428</v>
+      </c>
+      <c r="G120" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B121">
+        <v>3</v>
+      </c>
+      <c r="C121">
+        <v>5</v>
+      </c>
+      <c r="D121">
+        <v>2020</v>
+      </c>
+      <c r="E121">
+        <v>4970</v>
+      </c>
+      <c r="F121">
+        <v>421</v>
+      </c>
+      <c r="G121" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A1:G113">
-    <sortCondition ref="A1:A113"/>
+  <sortState ref="A1:G121">
+    <sortCondition ref="A1:A121"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13882,10 +14912,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F114"/>
+  <dimension ref="A1:F122"/>
   <sheetViews>
     <sheetView topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="D115" sqref="D115"/>
+      <selection activeCell="D123" sqref="D123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16503,7 +17533,7 @@
         <v>1532</v>
       </c>
       <c r="D105" s="2">
-        <f t="shared" ref="D105:D114" si="2">ROUNDDOWN(C105-((C106-D106)/(E106-E104)),0)</f>
+        <f t="shared" ref="D105:D113" si="2">ROUNDDOWN(C105-((C106-D106)/(E106-E104)),0)</f>
         <v>1531</v>
       </c>
       <c r="E105">
@@ -16529,7 +17559,7 @@
       </c>
       <c r="D106" s="2">
         <f t="shared" si="2"/>
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="E106">
         <v>105</v>
@@ -16554,7 +17584,7 @@
       </c>
       <c r="D107" s="2">
         <f t="shared" si="2"/>
-        <v>1920</v>
+        <v>1923</v>
       </c>
       <c r="E107">
         <v>106</v>
@@ -16579,7 +17609,7 @@
       </c>
       <c r="D108" s="2">
         <f t="shared" si="2"/>
-        <v>2134</v>
+        <v>2140</v>
       </c>
       <c r="E108">
         <v>107</v>
@@ -16604,7 +17634,7 @@
       </c>
       <c r="D109" s="2">
         <f t="shared" si="2"/>
-        <v>2334</v>
+        <v>2346</v>
       </c>
       <c r="E109">
         <v>108</v>
@@ -16629,7 +17659,7 @@
       </c>
       <c r="D110" s="2">
         <f t="shared" si="2"/>
-        <v>2436</v>
+        <v>2461</v>
       </c>
       <c r="E110">
         <v>109</v>
@@ -16654,7 +17684,7 @@
       </c>
       <c r="D111" s="2">
         <f t="shared" si="2"/>
-        <v>2524</v>
+        <v>2574</v>
       </c>
       <c r="E111">
         <v>110</v>
@@ -16679,7 +17709,7 @@
       </c>
       <c r="D112" s="2">
         <f t="shared" si="2"/>
-        <v>2639</v>
+        <v>2740</v>
       </c>
       <c r="E112">
         <v>111</v>
@@ -16704,7 +17734,7 @@
       </c>
       <c r="D113" s="2">
         <f t="shared" si="2"/>
-        <v>2702</v>
+        <v>2905</v>
       </c>
       <c r="E113">
         <v>112</v>
@@ -16728,13 +17758,213 @@
         <v>3313</v>
       </c>
       <c r="D114" s="2">
-        <v>2906</v>
+        <f t="shared" ref="D114:D122" si="3">ROUNDDOWN(C114-((C115-D115)/(E115-E113)),0)</f>
+        <v>3312</v>
       </c>
       <c r="E114">
         <v>113</v>
       </c>
       <c r="F114" t="str">
         <f>brazil_land!G113</f>
+        <v>Brazil</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <f>brazil_land!A114</f>
+        <v>43947</v>
+      </c>
+      <c r="B115">
+        <f>brazil_land!F114</f>
+        <v>346</v>
+      </c>
+      <c r="C115">
+        <f>SUM(B$2:B115)</f>
+        <v>3659</v>
+      </c>
+      <c r="D115" s="2">
+        <f t="shared" si="3"/>
+        <v>3658</v>
+      </c>
+      <c r="E115">
+        <v>114</v>
+      </c>
+      <c r="F115" t="str">
+        <f>brazil_land!G114</f>
+        <v>Brazil</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <f>brazil_land!A115</f>
+        <v>43948</v>
+      </c>
+      <c r="B116">
+        <f>brazil_land!F115</f>
+        <v>189</v>
+      </c>
+      <c r="C116">
+        <f>SUM(B$2:B116)</f>
+        <v>3848</v>
+      </c>
+      <c r="D116" s="2">
+        <f t="shared" si="3"/>
+        <v>3847</v>
+      </c>
+      <c r="E116">
+        <v>115</v>
+      </c>
+      <c r="F116" t="str">
+        <f>brazil_land!G115</f>
+        <v>Brazil</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <f>brazil_land!A116</f>
+        <v>43949</v>
+      </c>
+      <c r="B117">
+        <f>brazil_land!F116</f>
+        <v>338</v>
+      </c>
+      <c r="C117">
+        <f>SUM(B$2:B117)</f>
+        <v>4186</v>
+      </c>
+      <c r="D117" s="2">
+        <f t="shared" si="3"/>
+        <v>4184</v>
+      </c>
+      <c r="E117">
+        <v>116</v>
+      </c>
+      <c r="F117" t="str">
+        <f>brazil_land!G116</f>
+        <v>Brazil</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <f>brazil_land!A117</f>
+        <v>43950</v>
+      </c>
+      <c r="B118">
+        <f>brazil_land!F117</f>
+        <v>474</v>
+      </c>
+      <c r="C118">
+        <f>SUM(B$2:B118)</f>
+        <v>4660</v>
+      </c>
+      <c r="D118" s="2">
+        <f t="shared" si="3"/>
+        <v>4656</v>
+      </c>
+      <c r="E118">
+        <v>117</v>
+      </c>
+      <c r="F118" t="str">
+        <f>brazil_land!G117</f>
+        <v>Brazil</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <f>brazil_land!A118</f>
+        <v>43951</v>
+      </c>
+      <c r="B119">
+        <f>brazil_land!F118</f>
+        <v>449</v>
+      </c>
+      <c r="C119">
+        <f>SUM(B$2:B119)</f>
+        <v>5109</v>
+      </c>
+      <c r="D119" s="2">
+        <f t="shared" si="3"/>
+        <v>5101</v>
+      </c>
+      <c r="E119">
+        <v>118</v>
+      </c>
+      <c r="F119" t="str">
+        <f>brazil_land!G118</f>
+        <v>Brazil</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <f>brazil_land!A119</f>
+        <v>43952</v>
+      </c>
+      <c r="B120">
+        <f>brazil_land!F119</f>
+        <v>435</v>
+      </c>
+      <c r="C120">
+        <f>SUM(B$2:B120)</f>
+        <v>5544</v>
+      </c>
+      <c r="D120" s="2">
+        <f t="shared" si="3"/>
+        <v>5528</v>
+      </c>
+      <c r="E120">
+        <v>119</v>
+      </c>
+      <c r="F120" t="str">
+        <f>brazil_land!G119</f>
+        <v>Brazil</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <f>brazil_land!A120</f>
+        <v>43953</v>
+      </c>
+      <c r="B121">
+        <f>brazil_land!F120</f>
+        <v>428</v>
+      </c>
+      <c r="C121">
+        <f>SUM(B$2:B121)</f>
+        <v>5972</v>
+      </c>
+      <c r="D121" s="2">
+        <f t="shared" si="3"/>
+        <v>5940</v>
+      </c>
+      <c r="E121">
+        <v>120</v>
+      </c>
+      <c r="F121" t="str">
+        <f>brazil_land!G120</f>
+        <v>Brazil</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <f>brazil_land!A121</f>
+        <v>43954</v>
+      </c>
+      <c r="B122">
+        <f>brazil_land!F121</f>
+        <v>421</v>
+      </c>
+      <c r="C122">
+        <f>SUM(B$2:B122)</f>
+        <v>6393</v>
+      </c>
+      <c r="D122" s="2">
+        <v>6329</v>
+      </c>
+      <c r="E122">
+        <v>121</v>
+      </c>
+      <c r="F122" t="str">
+        <f>brazil_land!G121</f>
         <v>Brazil</v>
       </c>
     </row>
@@ -16745,10 +17975,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G115"/>
+  <dimension ref="A1:G123"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="M106" sqref="M106"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="P109" sqref="P109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19401,9 +20631,193 @@
         <v>29</v>
       </c>
     </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B116">
+        <v>26</v>
+      </c>
+      <c r="C116">
+        <v>4</v>
+      </c>
+      <c r="D116">
+        <v>2020</v>
+      </c>
+      <c r="E116">
+        <v>1990</v>
+      </c>
+      <c r="F116">
+        <v>49</v>
+      </c>
+      <c r="G116" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B117">
+        <v>27</v>
+      </c>
+      <c r="C117">
+        <v>4</v>
+      </c>
+      <c r="D117">
+        <v>2020</v>
+      </c>
+      <c r="E117">
+        <v>1396</v>
+      </c>
+      <c r="F117">
+        <v>48</v>
+      </c>
+      <c r="G117" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B118">
+        <v>28</v>
+      </c>
+      <c r="C118">
+        <v>4</v>
+      </c>
+      <c r="D118">
+        <v>2020</v>
+      </c>
+      <c r="E118">
+        <v>1543</v>
+      </c>
+      <c r="F118">
+        <v>62</v>
+      </c>
+      <c r="G118" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B119">
+        <v>29</v>
+      </c>
+      <c r="C119">
+        <v>4</v>
+      </c>
+      <c r="D119">
+        <v>2020</v>
+      </c>
+      <c r="E119">
+        <v>1897</v>
+      </c>
+      <c r="F119">
+        <v>73</v>
+      </c>
+      <c r="G119" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B120">
+        <v>30</v>
+      </c>
+      <c r="C120">
+        <v>4</v>
+      </c>
+      <c r="D120">
+        <v>2020</v>
+      </c>
+      <c r="E120">
+        <v>1718</v>
+      </c>
+      <c r="F120">
+        <v>67</v>
+      </c>
+      <c r="G120" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121">
+        <v>5</v>
+      </c>
+      <c r="D121">
+        <v>2020</v>
+      </c>
+      <c r="E121">
+        <v>1993</v>
+      </c>
+      <c r="F121">
+        <v>73</v>
+      </c>
+      <c r="G121" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B122">
+        <v>2</v>
+      </c>
+      <c r="C122">
+        <v>5</v>
+      </c>
+      <c r="D122">
+        <v>2020</v>
+      </c>
+      <c r="E122">
+        <v>2293</v>
+      </c>
+      <c r="F122">
+        <v>71</v>
+      </c>
+      <c r="G122" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B123">
+        <v>3</v>
+      </c>
+      <c r="C123">
+        <v>5</v>
+      </c>
+      <c r="D123">
+        <v>2020</v>
+      </c>
+      <c r="E123">
+        <v>2644</v>
+      </c>
+      <c r="F123">
+        <v>83</v>
+      </c>
+      <c r="G123" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A1:G115">
-    <sortCondition ref="A1:A115"/>
+  <sortState ref="A1:G123">
+    <sortCondition ref="A1:A123"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19414,7 +20828,7 @@
   <dimension ref="A1:F116"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="I116" sqref="I116"/>
+      <selection activeCell="N116" sqref="N116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22083,7 +23497,7 @@
       </c>
       <c r="D107" s="2">
         <f t="shared" ref="D107:D116" si="2">ROUNDDOWN(C107-((C108-D108)/(E108-E106)),0)</f>
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E107">
         <v>106</v>
@@ -22108,7 +23522,7 @@
       </c>
       <c r="D108" s="2">
         <f t="shared" si="2"/>
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="E108">
         <v>107</v>
@@ -22133,7 +23547,7 @@
       </c>
       <c r="D109" s="2">
         <f t="shared" si="2"/>
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="E109">
         <v>108</v>
@@ -22158,7 +23572,7 @@
       </c>
       <c r="D110" s="2">
         <f t="shared" si="2"/>
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="E110">
         <v>109</v>
@@ -22183,7 +23597,7 @@
       </c>
       <c r="D111" s="2">
         <f t="shared" si="2"/>
-        <v>507</v>
+        <v>525</v>
       </c>
       <c r="E111">
         <v>110</v>
@@ -22208,7 +23622,7 @@
       </c>
       <c r="D112" s="2">
         <f t="shared" si="2"/>
-        <v>543</v>
+        <v>579</v>
       </c>
       <c r="E112">
         <v>111</v>
@@ -22233,7 +23647,7 @@
       </c>
       <c r="D113" s="2">
         <f t="shared" si="2"/>
-        <v>590</v>
+        <v>662</v>
       </c>
       <c r="E113">
         <v>112</v>
@@ -22258,7 +23672,7 @@
       </c>
       <c r="D114" s="2">
         <f t="shared" si="2"/>
-        <v>640</v>
+        <v>785</v>
       </c>
       <c r="E114">
         <v>113</v>
@@ -22283,7 +23697,7 @@
       </c>
       <c r="D115" s="2">
         <f t="shared" si="2"/>
-        <v>681</v>
+        <v>972</v>
       </c>
       <c r="E115">
         <v>114</v>
@@ -22307,8 +23721,7 @@
         <v>718</v>
       </c>
       <c r="D116" s="2">
-        <f t="shared" si="2"/>
-        <v>718</v>
+        <v>1301</v>
       </c>
       <c r="E116">
         <v>115</v>
@@ -22325,10 +23738,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G116"/>
+  <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="J100" sqref="J100"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="M119" sqref="M119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25004,9 +26417,216 @@
         <v>4</v>
       </c>
     </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B117">
+        <v>25</v>
+      </c>
+      <c r="C117">
+        <v>4</v>
+      </c>
+      <c r="D117">
+        <v>2020</v>
+      </c>
+      <c r="E117">
+        <v>21352</v>
+      </c>
+      <c r="F117">
+        <v>1054</v>
+      </c>
+      <c r="G117" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B118">
+        <v>26</v>
+      </c>
+      <c r="C118">
+        <v>4</v>
+      </c>
+      <c r="D118">
+        <v>2020</v>
+      </c>
+      <c r="E118">
+        <v>48529</v>
+      </c>
+      <c r="F118">
+        <v>2172</v>
+      </c>
+      <c r="G118" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B119">
+        <v>27</v>
+      </c>
+      <c r="C119">
+        <v>4</v>
+      </c>
+      <c r="D119">
+        <v>2020</v>
+      </c>
+      <c r="E119">
+        <v>26857</v>
+      </c>
+      <c r="F119">
+        <v>1687</v>
+      </c>
+      <c r="G119" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B120">
+        <v>28</v>
+      </c>
+      <c r="C120">
+        <v>4</v>
+      </c>
+      <c r="D120">
+        <v>2020</v>
+      </c>
+      <c r="E120">
+        <v>22541</v>
+      </c>
+      <c r="F120">
+        <v>1369</v>
+      </c>
+      <c r="G120" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B121">
+        <v>29</v>
+      </c>
+      <c r="C121">
+        <v>4</v>
+      </c>
+      <c r="D121">
+        <v>2020</v>
+      </c>
+      <c r="E121">
+        <v>24132</v>
+      </c>
+      <c r="F121">
+        <v>2110</v>
+      </c>
+      <c r="G121" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B122">
+        <v>30</v>
+      </c>
+      <c r="C122">
+        <v>4</v>
+      </c>
+      <c r="D122">
+        <v>2020</v>
+      </c>
+      <c r="E122">
+        <v>27326</v>
+      </c>
+      <c r="F122">
+        <v>2611</v>
+      </c>
+      <c r="G122" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123">
+        <v>5</v>
+      </c>
+      <c r="D123">
+        <v>2020</v>
+      </c>
+      <c r="E123">
+        <v>29917</v>
+      </c>
+      <c r="F123">
+        <v>2040</v>
+      </c>
+      <c r="G123" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B124">
+        <v>2</v>
+      </c>
+      <c r="C124">
+        <v>5</v>
+      </c>
+      <c r="D124">
+        <v>2020</v>
+      </c>
+      <c r="E124">
+        <v>33955</v>
+      </c>
+      <c r="F124">
+        <v>2062</v>
+      </c>
+      <c r="G124" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B125">
+        <v>3</v>
+      </c>
+      <c r="C125">
+        <v>5</v>
+      </c>
+      <c r="D125">
+        <v>2020</v>
+      </c>
+      <c r="E125">
+        <v>29288</v>
+      </c>
+      <c r="F125">
+        <v>1317</v>
+      </c>
+      <c r="G125" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A1:G116">
-    <sortCondition ref="A1:A116"/>
+  <sortState ref="A1:G125">
+    <sortCondition ref="A1:A125"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -25014,10 +26634,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L117"/>
+  <dimension ref="A1:L126"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="D118" sqref="D118"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="E126" sqref="E126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27341,7 +28961,7 @@
       </c>
       <c r="D105" s="2">
         <f t="shared" si="1"/>
-        <v>20606</v>
+        <v>20607</v>
       </c>
       <c r="E105">
         <v>104</v>
@@ -27365,7 +28985,7 @@
       </c>
       <c r="D106" s="2">
         <f t="shared" si="1"/>
-        <v>22104</v>
+        <v>22107</v>
       </c>
       <c r="E106">
         <v>105</v>
@@ -27389,7 +29009,7 @@
       </c>
       <c r="D107" s="2">
         <f t="shared" si="1"/>
-        <v>23641</v>
+        <v>23648</v>
       </c>
       <c r="E107">
         <v>106</v>
@@ -27412,8 +29032,8 @@
         <v>26057</v>
       </c>
       <c r="D108" s="2">
-        <f t="shared" ref="D108:D117" si="2">ROUNDDOWN(C108-((C109-D109)/(E109-E107)),0)</f>
-        <v>26042</v>
+        <f t="shared" ref="D108:D116" si="2">ROUNDDOWN(C108-((C109-D109)/(E109-E107)),0)</f>
+        <v>26056</v>
       </c>
       <c r="E108">
         <v>107</v>
@@ -27437,7 +29057,7 @@
       </c>
       <c r="D109" s="2">
         <f t="shared" si="2"/>
-        <v>30955</v>
+        <v>30984</v>
       </c>
       <c r="E109">
         <v>108</v>
@@ -27461,7 +29081,7 @@
       </c>
       <c r="D110" s="2">
         <f t="shared" si="2"/>
-        <v>33224</v>
+        <v>33283</v>
       </c>
       <c r="E110">
         <v>109</v>
@@ -27485,7 +29105,7 @@
       </c>
       <c r="D111" s="2">
         <f t="shared" si="2"/>
-        <v>36934</v>
+        <v>37053</v>
       </c>
       <c r="E111">
         <v>110</v>
@@ -27509,7 +29129,7 @@
       </c>
       <c r="D112" s="2">
         <f t="shared" si="2"/>
-        <v>38670</v>
+        <v>38909</v>
       </c>
       <c r="E112">
         <v>111</v>
@@ -27533,7 +29153,7 @@
       </c>
       <c r="D113" s="2">
         <f t="shared" si="2"/>
-        <v>40203</v>
+        <v>40681</v>
       </c>
       <c r="E113">
         <v>112</v>
@@ -27557,7 +29177,7 @@
       </c>
       <c r="D114" s="2">
         <f t="shared" si="2"/>
-        <v>41582</v>
+        <v>42538</v>
       </c>
       <c r="E114">
         <v>113</v>
@@ -27581,7 +29201,7 @@
       </c>
       <c r="D115" s="2">
         <f t="shared" si="2"/>
-        <v>43150</v>
+        <v>45061</v>
       </c>
       <c r="E115">
         <v>114</v>
@@ -27605,7 +29225,7 @@
       </c>
       <c r="D116" s="2">
         <f t="shared" si="2"/>
-        <v>42958</v>
+        <v>46780</v>
       </c>
       <c r="E116">
         <v>115</v>
@@ -27628,12 +29248,228 @@
         <v>49963</v>
       </c>
       <c r="D117" s="2">
-        <v>42311</v>
+        <f t="shared" ref="D117:D126" si="3">ROUNDDOWN(C117-((C118-D118)/(E118-E116)),0)</f>
+        <v>49955</v>
       </c>
       <c r="E117">
         <v>116</v>
       </c>
       <c r="F117" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <f>usa_land!A117</f>
+        <v>43946</v>
+      </c>
+      <c r="B118">
+        <f>usa_land!F117</f>
+        <v>1054</v>
+      </c>
+      <c r="C118">
+        <f>SUM(B$2:B118)</f>
+        <v>51017</v>
+      </c>
+      <c r="D118" s="2">
+        <f t="shared" si="3"/>
+        <v>51001</v>
+      </c>
+      <c r="E118">
+        <v>117</v>
+      </c>
+      <c r="F118" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <f>usa_land!A118</f>
+        <v>43947</v>
+      </c>
+      <c r="B119">
+        <f>usa_land!F118</f>
+        <v>2172</v>
+      </c>
+      <c r="C119">
+        <f>SUM(B$2:B119)</f>
+        <v>53189</v>
+      </c>
+      <c r="D119" s="2">
+        <f t="shared" si="3"/>
+        <v>53157</v>
+      </c>
+      <c r="E119">
+        <v>118</v>
+      </c>
+      <c r="F119" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <f>usa_land!A119</f>
+        <v>43948</v>
+      </c>
+      <c r="B120">
+        <f>usa_land!F119</f>
+        <v>1687</v>
+      </c>
+      <c r="C120">
+        <f>SUM(B$2:B120)</f>
+        <v>54876</v>
+      </c>
+      <c r="D120" s="2">
+        <f t="shared" si="3"/>
+        <v>54813</v>
+      </c>
+      <c r="E120">
+        <v>119</v>
+      </c>
+      <c r="F120" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <f>usa_land!A120</f>
+        <v>43949</v>
+      </c>
+      <c r="B121">
+        <f>usa_land!F120</f>
+        <v>1369</v>
+      </c>
+      <c r="C121">
+        <f>SUM(B$2:B121)</f>
+        <v>56245</v>
+      </c>
+      <c r="D121" s="2">
+        <f t="shared" si="3"/>
+        <v>56120</v>
+      </c>
+      <c r="E121">
+        <v>120</v>
+      </c>
+      <c r="F121" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <f>usa_land!A121</f>
+        <v>43950</v>
+      </c>
+      <c r="B122">
+        <f>usa_land!F121</f>
+        <v>2110</v>
+      </c>
+      <c r="C122">
+        <f>SUM(B$2:B122)</f>
+        <v>58355</v>
+      </c>
+      <c r="D122" s="2">
+        <f t="shared" si="3"/>
+        <v>58106</v>
+      </c>
+      <c r="E122">
+        <v>121</v>
+      </c>
+      <c r="F122" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <f>usa_land!A122</f>
+        <v>43951</v>
+      </c>
+      <c r="B123">
+        <f>usa_land!F122</f>
+        <v>2611</v>
+      </c>
+      <c r="C123">
+        <f>SUM(B$2:B123)</f>
+        <v>60966</v>
+      </c>
+      <c r="D123" s="2">
+        <f t="shared" si="3"/>
+        <v>60468</v>
+      </c>
+      <c r="E123">
+        <v>122</v>
+      </c>
+      <c r="F123" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <f>usa_land!A123</f>
+        <v>43952</v>
+      </c>
+      <c r="B124">
+        <f>usa_land!F123</f>
+        <v>2040</v>
+      </c>
+      <c r="C124">
+        <f>SUM(B$2:B124)</f>
+        <v>63006</v>
+      </c>
+      <c r="D124" s="2">
+        <f t="shared" si="3"/>
+        <v>62011</v>
+      </c>
+      <c r="E124">
+        <v>123</v>
+      </c>
+      <c r="F124" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <f>usa_land!A124</f>
+        <v>43953</v>
+      </c>
+      <c r="B125">
+        <f>usa_land!F124</f>
+        <v>2062</v>
+      </c>
+      <c r="C125">
+        <f>SUM(B$2:B125)</f>
+        <v>65068</v>
+      </c>
+      <c r="D125" s="2">
+        <f t="shared" si="3"/>
+        <v>63078</v>
+      </c>
+      <c r="E125">
+        <v>124</v>
+      </c>
+      <c r="F125" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <f>usa_land!A125</f>
+        <v>43954</v>
+      </c>
+      <c r="B126">
+        <f>usa_land!F125</f>
+        <v>1317</v>
+      </c>
+      <c r="C126">
+        <f>SUM(B$2:B126)</f>
+        <v>66385</v>
+      </c>
+      <c r="D126" s="2">
+        <v>62406</v>
+      </c>
+      <c r="E126">
+        <v>125</v>
+      </c>
+      <c r="F126" t="s">
         <v>9</v>
       </c>
     </row>
@@ -27644,10 +29480,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G116"/>
+  <dimension ref="A1:G125"/>
   <sheetViews>
     <sheetView topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="B105" sqref="A1:G116"/>
+      <selection activeCell="M123" sqref="M123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30323,9 +32159,216 @@
         <v>5</v>
       </c>
     </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B117">
+        <v>25</v>
+      </c>
+      <c r="C117">
+        <v>4</v>
+      </c>
+      <c r="D117">
+        <v>2020</v>
+      </c>
+      <c r="E117">
+        <v>15</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B118">
+        <v>26</v>
+      </c>
+      <c r="C118">
+        <v>4</v>
+      </c>
+      <c r="D118">
+        <v>2020</v>
+      </c>
+      <c r="E118">
+        <v>10</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B119">
+        <v>27</v>
+      </c>
+      <c r="C119">
+        <v>4</v>
+      </c>
+      <c r="D119">
+        <v>2020</v>
+      </c>
+      <c r="E119">
+        <v>3</v>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+      <c r="G119" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B120">
+        <v>28</v>
+      </c>
+      <c r="C120">
+        <v>4</v>
+      </c>
+      <c r="D120">
+        <v>2020</v>
+      </c>
+      <c r="E120">
+        <v>26</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B121">
+        <v>29</v>
+      </c>
+      <c r="C121">
+        <v>4</v>
+      </c>
+      <c r="D121">
+        <v>2020</v>
+      </c>
+      <c r="E121">
+        <v>2</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B122">
+        <v>30</v>
+      </c>
+      <c r="C122">
+        <v>4</v>
+      </c>
+      <c r="D122">
+        <v>2020</v>
+      </c>
+      <c r="E122">
+        <v>4</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123">
+        <v>5</v>
+      </c>
+      <c r="D123">
+        <v>2020</v>
+      </c>
+      <c r="E123">
+        <v>12</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B124">
+        <v>2</v>
+      </c>
+      <c r="C124">
+        <v>5</v>
+      </c>
+      <c r="D124">
+        <v>2020</v>
+      </c>
+      <c r="E124">
+        <v>3</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B125">
+        <v>3</v>
+      </c>
+      <c r="C125">
+        <v>5</v>
+      </c>
+      <c r="D125">
+        <v>2020</v>
+      </c>
+      <c r="E125">
+        <v>2</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A1:G116">
-    <sortCondition ref="A1:A116"/>
+  <sortState ref="A1:G125">
+    <sortCondition ref="A1:A125"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -30333,10 +32376,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F117"/>
+  <dimension ref="A1:F126"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="E117" sqref="E117"/>
+    <sheetView topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="D127" sqref="D127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32939,13 +34982,228 @@
         <v>4641</v>
       </c>
       <c r="D117" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="D117:D125" si="5">ROUNDDOWN(C117-((C118-D118)/(E118-E116)),0)</f>
         <v>4641</v>
       </c>
       <c r="E117">
         <v>116</v>
       </c>
       <c r="F117" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <f>chin_land!A117</f>
+        <v>43946</v>
+      </c>
+      <c r="B118">
+        <f>chin_land!F117</f>
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <f>SUM(B$2:B118)</f>
+        <v>4641</v>
+      </c>
+      <c r="D118" s="2">
+        <f t="shared" si="5"/>
+        <v>4641</v>
+      </c>
+      <c r="E118">
+        <v>117</v>
+      </c>
+      <c r="F118" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <f>chin_land!A118</f>
+        <v>43947</v>
+      </c>
+      <c r="B119">
+        <f>chin_land!F118</f>
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <f>SUM(B$2:B119)</f>
+        <v>4641</v>
+      </c>
+      <c r="D119" s="2">
+        <f t="shared" si="5"/>
+        <v>4641</v>
+      </c>
+      <c r="E119">
+        <v>118</v>
+      </c>
+      <c r="F119" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <f>chin_land!A119</f>
+        <v>43948</v>
+      </c>
+      <c r="B120">
+        <f>chin_land!F119</f>
+        <v>1</v>
+      </c>
+      <c r="C120">
+        <f>SUM(B$2:B120)</f>
+        <v>4642</v>
+      </c>
+      <c r="D120" s="2">
+        <f t="shared" si="5"/>
+        <v>4642</v>
+      </c>
+      <c r="E120">
+        <v>119</v>
+      </c>
+      <c r="F120" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <f>chin_land!A120</f>
+        <v>43949</v>
+      </c>
+      <c r="B121">
+        <f>chin_land!F120</f>
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <f>SUM(B$2:B121)</f>
+        <v>4642</v>
+      </c>
+      <c r="D121" s="2">
+        <f t="shared" si="5"/>
+        <v>4642</v>
+      </c>
+      <c r="E121">
+        <v>120</v>
+      </c>
+      <c r="F121" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <f>chin_land!A121</f>
+        <v>43950</v>
+      </c>
+      <c r="B122">
+        <f>chin_land!F121</f>
+        <v>0</v>
+      </c>
+      <c r="C122">
+        <f>SUM(B$2:B122)</f>
+        <v>4642</v>
+      </c>
+      <c r="D122" s="2">
+        <f t="shared" si="5"/>
+        <v>4642</v>
+      </c>
+      <c r="E122">
+        <v>121</v>
+      </c>
+      <c r="F122" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <f>chin_land!A122</f>
+        <v>43951</v>
+      </c>
+      <c r="B123">
+        <f>chin_land!F122</f>
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <f>SUM(B$2:B123)</f>
+        <v>4642</v>
+      </c>
+      <c r="D123" s="2">
+        <f t="shared" si="5"/>
+        <v>4642</v>
+      </c>
+      <c r="E123">
+        <v>122</v>
+      </c>
+      <c r="F123" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <f>chin_land!A123</f>
+        <v>43952</v>
+      </c>
+      <c r="B124">
+        <f>chin_land!F123</f>
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <f>SUM(B$2:B124)</f>
+        <v>4642</v>
+      </c>
+      <c r="D124" s="2">
+        <f t="shared" si="5"/>
+        <v>4642</v>
+      </c>
+      <c r="E124">
+        <v>123</v>
+      </c>
+      <c r="F124" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <f>chin_land!A124</f>
+        <v>43953</v>
+      </c>
+      <c r="B125">
+        <f>chin_land!F124</f>
+        <v>0</v>
+      </c>
+      <c r="C125">
+        <f>SUM(B$2:B125)</f>
+        <v>4642</v>
+      </c>
+      <c r="D125" s="2">
+        <f t="shared" si="5"/>
+        <v>4642</v>
+      </c>
+      <c r="E125">
+        <v>124</v>
+      </c>
+      <c r="F125" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <f>chin_land!A125</f>
+        <v>43954</v>
+      </c>
+      <c r="B126">
+        <f>chin_land!F125</f>
+        <v>0</v>
+      </c>
+      <c r="C126">
+        <f>SUM(B$2:B126)</f>
+        <v>4642</v>
+      </c>
+      <c r="D126" s="2">
+        <v>4643</v>
+      </c>
+      <c r="E126">
+        <v>125</v>
+      </c>
+      <c r="F126" t="s">
         <v>5</v>
       </c>
     </row>
@@ -32956,10 +35214,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G116"/>
+  <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="F116" sqref="F116"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="N112" sqref="N112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35635,9 +37893,216 @@
         <v>6</v>
       </c>
     </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B117">
+        <v>25</v>
+      </c>
+      <c r="C117">
+        <v>4</v>
+      </c>
+      <c r="D117">
+        <v>2020</v>
+      </c>
+      <c r="E117">
+        <v>1773</v>
+      </c>
+      <c r="F117">
+        <v>389</v>
+      </c>
+      <c r="G117" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B118">
+        <v>26</v>
+      </c>
+      <c r="C118">
+        <v>4</v>
+      </c>
+      <c r="D118">
+        <v>2020</v>
+      </c>
+      <c r="E118">
+        <v>1537</v>
+      </c>
+      <c r="F118">
+        <v>369</v>
+      </c>
+      <c r="G118" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B119">
+        <v>27</v>
+      </c>
+      <c r="C119">
+        <v>4</v>
+      </c>
+      <c r="D119">
+        <v>2020</v>
+      </c>
+      <c r="E119">
+        <v>461</v>
+      </c>
+      <c r="F119">
+        <v>242</v>
+      </c>
+      <c r="G119" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B120">
+        <v>28</v>
+      </c>
+      <c r="C120">
+        <v>4</v>
+      </c>
+      <c r="D120">
+        <v>2020</v>
+      </c>
+      <c r="E120">
+        <v>1195</v>
+      </c>
+      <c r="F120">
+        <v>437</v>
+      </c>
+      <c r="G120" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B121">
+        <v>29</v>
+      </c>
+      <c r="C121">
+        <v>4</v>
+      </c>
+      <c r="D121">
+        <v>2020</v>
+      </c>
+      <c r="E121">
+        <v>1065</v>
+      </c>
+      <c r="F121">
+        <v>367</v>
+      </c>
+      <c r="G121" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B122">
+        <v>30</v>
+      </c>
+      <c r="C122">
+        <v>4</v>
+      </c>
+      <c r="D122">
+        <v>2020</v>
+      </c>
+      <c r="E122">
+        <v>1607</v>
+      </c>
+      <c r="F122">
+        <v>427</v>
+      </c>
+      <c r="G122" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123">
+        <v>5</v>
+      </c>
+      <c r="D123">
+        <v>2020</v>
+      </c>
+      <c r="E123">
+        <v>1139</v>
+      </c>
+      <c r="F123">
+        <v>289</v>
+      </c>
+      <c r="G123" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B124">
+        <v>2</v>
+      </c>
+      <c r="C124">
+        <v>5</v>
+      </c>
+      <c r="D124">
+        <v>2020</v>
+      </c>
+      <c r="E124">
+        <v>604</v>
+      </c>
+      <c r="F124">
+        <v>218</v>
+      </c>
+      <c r="G124" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B125">
+        <v>3</v>
+      </c>
+      <c r="C125">
+        <v>5</v>
+      </c>
+      <c r="D125">
+        <v>2020</v>
+      </c>
+      <c r="E125">
+        <v>794</v>
+      </c>
+      <c r="F125">
+        <v>166</v>
+      </c>
+      <c r="G125" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A1:G116">
-    <sortCondition ref="A1:A116"/>
+  <sortState ref="A1:G125">
+    <sortCondition ref="A1:A125"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -35645,10 +38110,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F117"/>
+  <dimension ref="A1:F126"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="E117" sqref="E117"/>
+    <sheetView topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="D127" sqref="D127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -38107,7 +40572,7 @@
         <v>18681</v>
       </c>
       <c r="D111" s="2">
-        <f t="shared" ref="D111:D117" si="3">ROUNDDOWN(C111-((C112-D112)/(E112-E110)),0)</f>
+        <f t="shared" ref="D111:D116" si="3">ROUNDDOWN(C111-((C112-D112)/(E112-E110)),0)</f>
         <v>18680</v>
       </c>
       <c r="E111">
@@ -38132,7 +40597,7 @@
       </c>
       <c r="D112" s="2">
         <f t="shared" si="3"/>
-        <v>19321</v>
+        <v>19322</v>
       </c>
       <c r="E112">
         <v>111</v>
@@ -38156,7 +40621,7 @@
       </c>
       <c r="D113" s="2">
         <f t="shared" si="3"/>
-        <v>19715</v>
+        <v>19717</v>
       </c>
       <c r="E113">
         <v>112</v>
@@ -38180,7 +40645,7 @@
       </c>
       <c r="D114" s="2">
         <f t="shared" si="3"/>
-        <v>20260</v>
+        <v>20264</v>
       </c>
       <c r="E114">
         <v>113</v>
@@ -38204,7 +40669,7 @@
       </c>
       <c r="D115" s="2">
         <f t="shared" si="3"/>
-        <v>20787</v>
+        <v>20795</v>
       </c>
       <c r="E115">
         <v>114</v>
@@ -38228,7 +40693,7 @@
       </c>
       <c r="D116" s="2">
         <f t="shared" si="3"/>
-        <v>21323</v>
+        <v>21339</v>
       </c>
       <c r="E116">
         <v>115</v>
@@ -38251,12 +40716,228 @@
         <v>21856</v>
       </c>
       <c r="D117" s="2">
-        <v>21823</v>
+        <f t="shared" ref="D117:D126" si="4">ROUNDDOWN(C117-((C118-D118)/(E118-E116)),0)</f>
+        <v>21855</v>
       </c>
       <c r="E117">
         <v>116</v>
       </c>
       <c r="F117" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <f>france_land!A117</f>
+        <v>43946</v>
+      </c>
+      <c r="B118">
+        <f>france_land!F117</f>
+        <v>389</v>
+      </c>
+      <c r="C118">
+        <f>SUM(B$2:B118)</f>
+        <v>22245</v>
+      </c>
+      <c r="D118" s="2">
+        <f t="shared" si="4"/>
+        <v>22244</v>
+      </c>
+      <c r="E118">
+        <v>117</v>
+      </c>
+      <c r="F118" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <f>france_land!A118</f>
+        <v>43947</v>
+      </c>
+      <c r="B119">
+        <f>france_land!F118</f>
+        <v>369</v>
+      </c>
+      <c r="C119">
+        <f>SUM(B$2:B119)</f>
+        <v>22614</v>
+      </c>
+      <c r="D119" s="2">
+        <f t="shared" si="4"/>
+        <v>22613</v>
+      </c>
+      <c r="E119">
+        <v>118</v>
+      </c>
+      <c r="F119" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <f>france_land!A119</f>
+        <v>43948</v>
+      </c>
+      <c r="B120">
+        <f>france_land!F119</f>
+        <v>242</v>
+      </c>
+      <c r="C120">
+        <f>SUM(B$2:B120)</f>
+        <v>22856</v>
+      </c>
+      <c r="D120" s="2">
+        <f t="shared" si="4"/>
+        <v>22855</v>
+      </c>
+      <c r="E120">
+        <v>119</v>
+      </c>
+      <c r="F120" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <f>france_land!A120</f>
+        <v>43949</v>
+      </c>
+      <c r="B121">
+        <f>france_land!F120</f>
+        <v>437</v>
+      </c>
+      <c r="C121">
+        <f>SUM(B$2:B121)</f>
+        <v>23293</v>
+      </c>
+      <c r="D121" s="2">
+        <f t="shared" si="4"/>
+        <v>23291</v>
+      </c>
+      <c r="E121">
+        <v>120</v>
+      </c>
+      <c r="F121" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <f>france_land!A121</f>
+        <v>43950</v>
+      </c>
+      <c r="B122">
+        <f>france_land!F121</f>
+        <v>367</v>
+      </c>
+      <c r="C122">
+        <f>SUM(B$2:B122)</f>
+        <v>23660</v>
+      </c>
+      <c r="D122" s="2">
+        <f t="shared" si="4"/>
+        <v>23657</v>
+      </c>
+      <c r="E122">
+        <v>121</v>
+      </c>
+      <c r="F122" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <f>france_land!A122</f>
+        <v>43951</v>
+      </c>
+      <c r="B123">
+        <f>france_land!F122</f>
+        <v>427</v>
+      </c>
+      <c r="C123">
+        <f>SUM(B$2:B123)</f>
+        <v>24087</v>
+      </c>
+      <c r="D123" s="2">
+        <f t="shared" si="4"/>
+        <v>24082</v>
+      </c>
+      <c r="E123">
+        <v>122</v>
+      </c>
+      <c r="F123" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <f>france_land!A123</f>
+        <v>43952</v>
+      </c>
+      <c r="B124">
+        <f>france_land!F123</f>
+        <v>289</v>
+      </c>
+      <c r="C124">
+        <f>SUM(B$2:B124)</f>
+        <v>24376</v>
+      </c>
+      <c r="D124" s="2">
+        <f t="shared" si="4"/>
+        <v>24367</v>
+      </c>
+      <c r="E124">
+        <v>123</v>
+      </c>
+      <c r="F124" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <f>france_land!A124</f>
+        <v>43953</v>
+      </c>
+      <c r="B125">
+        <f>france_land!F124</f>
+        <v>218</v>
+      </c>
+      <c r="C125">
+        <f>SUM(B$2:B125)</f>
+        <v>24594</v>
+      </c>
+      <c r="D125" s="2">
+        <f t="shared" si="4"/>
+        <v>24576</v>
+      </c>
+      <c r="E125">
+        <v>124</v>
+      </c>
+      <c r="F125" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <f>france_land!A125</f>
+        <v>43954</v>
+      </c>
+      <c r="B126">
+        <f>france_land!F125</f>
+        <v>166</v>
+      </c>
+      <c r="C126">
+        <f>SUM(B$2:B126)</f>
+        <v>24760</v>
+      </c>
+      <c r="D126" s="2">
+        <v>24724</v>
+      </c>
+      <c r="E126">
+        <v>125</v>
+      </c>
+      <c r="F126" t="s">
         <v>6</v>
       </c>
     </row>
@@ -38267,10 +40948,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G116"/>
+  <dimension ref="A1:G125"/>
   <sheetViews>
     <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="F114" sqref="F114"/>
+      <selection activeCell="O115" sqref="O115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -40946,9 +43627,216 @@
         <v>7</v>
       </c>
     </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B117">
+        <v>25</v>
+      </c>
+      <c r="C117">
+        <v>4</v>
+      </c>
+      <c r="D117">
+        <v>2020</v>
+      </c>
+      <c r="E117">
+        <v>3021</v>
+      </c>
+      <c r="F117">
+        <v>420</v>
+      </c>
+      <c r="G117" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B118">
+        <v>26</v>
+      </c>
+      <c r="C118">
+        <v>4</v>
+      </c>
+      <c r="D118">
+        <v>2020</v>
+      </c>
+      <c r="E118">
+        <v>2357</v>
+      </c>
+      <c r="F118">
+        <v>415</v>
+      </c>
+      <c r="G118" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B119">
+        <v>27</v>
+      </c>
+      <c r="C119">
+        <v>4</v>
+      </c>
+      <c r="D119">
+        <v>2020</v>
+      </c>
+      <c r="E119">
+        <v>2324</v>
+      </c>
+      <c r="F119">
+        <v>260</v>
+      </c>
+      <c r="G119" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B120">
+        <v>28</v>
+      </c>
+      <c r="C120">
+        <v>4</v>
+      </c>
+      <c r="D120">
+        <v>2020</v>
+      </c>
+      <c r="E120">
+        <v>1739</v>
+      </c>
+      <c r="F120">
+        <v>333</v>
+      </c>
+      <c r="G120" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B121">
+        <v>29</v>
+      </c>
+      <c r="C121">
+        <v>4</v>
+      </c>
+      <c r="D121">
+        <v>2020</v>
+      </c>
+      <c r="E121">
+        <v>2091</v>
+      </c>
+      <c r="F121">
+        <v>382</v>
+      </c>
+      <c r="G121" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B122">
+        <v>30</v>
+      </c>
+      <c r="C122">
+        <v>4</v>
+      </c>
+      <c r="D122">
+        <v>2020</v>
+      </c>
+      <c r="E122">
+        <v>2086</v>
+      </c>
+      <c r="F122">
+        <v>323</v>
+      </c>
+      <c r="G122" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123">
+        <v>5</v>
+      </c>
+      <c r="D123">
+        <v>2020</v>
+      </c>
+      <c r="E123">
+        <v>1872</v>
+      </c>
+      <c r="F123">
+        <v>285</v>
+      </c>
+      <c r="G123" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B124">
+        <v>2</v>
+      </c>
+      <c r="C124">
+        <v>5</v>
+      </c>
+      <c r="D124">
+        <v>2020</v>
+      </c>
+      <c r="E124">
+        <v>1965</v>
+      </c>
+      <c r="F124">
+        <v>269</v>
+      </c>
+      <c r="G124" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B125">
+        <v>3</v>
+      </c>
+      <c r="C125">
+        <v>5</v>
+      </c>
+      <c r="D125">
+        <v>2020</v>
+      </c>
+      <c r="E125">
+        <v>1900</v>
+      </c>
+      <c r="F125">
+        <v>474</v>
+      </c>
+      <c r="G125" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A1:G116">
-    <sortCondition ref="A1:A116"/>
+  <sortState ref="A1:G125">
+    <sortCondition ref="A1:A125"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -40956,10 +43844,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F118"/>
+  <dimension ref="A1:F126"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="I113" sqref="I113"/>
+    <sheetView topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="D126" sqref="D126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -43442,7 +46330,7 @@
         <v>23227</v>
       </c>
       <c r="D112" s="2">
-        <f t="shared" ref="D112:D118" si="3">ROUNDDOWN(C112-((C113-D113)/(E113-E111)),0)</f>
+        <f t="shared" ref="D112:D117" si="3">ROUNDDOWN(C112-((C113-D113)/(E113-E111)),0)</f>
         <v>23227</v>
       </c>
       <c r="E112">
@@ -43562,7 +46450,7 @@
         <v>25549</v>
       </c>
       <c r="D117" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="D117:D126" si="4">ROUNDDOWN(C117-((C118-D118)/(E118-E116)),0)</f>
         <v>25549</v>
       </c>
       <c r="E117">
@@ -43573,8 +46461,219 @@
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118" s="1"/>
-      <c r="D118" s="2"/>
+      <c r="A118" s="1">
+        <f>italy_land!A117</f>
+        <v>43946</v>
+      </c>
+      <c r="B118">
+        <f>italy_land!F117</f>
+        <v>420</v>
+      </c>
+      <c r="C118">
+        <f>SUM(B$2:B118)</f>
+        <v>25969</v>
+      </c>
+      <c r="D118" s="2">
+        <f t="shared" si="4"/>
+        <v>25969</v>
+      </c>
+      <c r="E118">
+        <v>117</v>
+      </c>
+      <c r="F118" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <f>italy_land!A118</f>
+        <v>43947</v>
+      </c>
+      <c r="B119">
+        <f>italy_land!F118</f>
+        <v>415</v>
+      </c>
+      <c r="C119">
+        <f>SUM(B$2:B119)</f>
+        <v>26384</v>
+      </c>
+      <c r="D119" s="2">
+        <f t="shared" si="4"/>
+        <v>26384</v>
+      </c>
+      <c r="E119">
+        <v>118</v>
+      </c>
+      <c r="F119" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <f>italy_land!A119</f>
+        <v>43948</v>
+      </c>
+      <c r="B120">
+        <f>italy_land!F119</f>
+        <v>260</v>
+      </c>
+      <c r="C120">
+        <f>SUM(B$2:B120)</f>
+        <v>26644</v>
+      </c>
+      <c r="D120" s="2">
+        <f t="shared" si="4"/>
+        <v>26644</v>
+      </c>
+      <c r="E120">
+        <v>119</v>
+      </c>
+      <c r="F120" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <f>italy_land!A120</f>
+        <v>43949</v>
+      </c>
+      <c r="B121">
+        <f>italy_land!F120</f>
+        <v>333</v>
+      </c>
+      <c r="C121">
+        <f>SUM(B$2:B121)</f>
+        <v>26977</v>
+      </c>
+      <c r="D121" s="2">
+        <f t="shared" si="4"/>
+        <v>26977</v>
+      </c>
+      <c r="E121">
+        <v>120</v>
+      </c>
+      <c r="F121" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <f>italy_land!A121</f>
+        <v>43950</v>
+      </c>
+      <c r="B122">
+        <f>italy_land!F121</f>
+        <v>382</v>
+      </c>
+      <c r="C122">
+        <f>SUM(B$2:B122)</f>
+        <v>27359</v>
+      </c>
+      <c r="D122" s="2">
+        <f t="shared" si="4"/>
+        <v>27359</v>
+      </c>
+      <c r="E122">
+        <v>121</v>
+      </c>
+      <c r="F122" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <f>italy_land!A122</f>
+        <v>43951</v>
+      </c>
+      <c r="B123">
+        <f>italy_land!F122</f>
+        <v>323</v>
+      </c>
+      <c r="C123">
+        <f>SUM(B$2:B123)</f>
+        <v>27682</v>
+      </c>
+      <c r="D123" s="2">
+        <f t="shared" si="4"/>
+        <v>27682</v>
+      </c>
+      <c r="E123">
+        <v>122</v>
+      </c>
+      <c r="F123" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <f>italy_land!A123</f>
+        <v>43952</v>
+      </c>
+      <c r="B124">
+        <f>italy_land!F123</f>
+        <v>285</v>
+      </c>
+      <c r="C124">
+        <f>SUM(B$2:B124)</f>
+        <v>27967</v>
+      </c>
+      <c r="D124" s="2">
+        <f t="shared" si="4"/>
+        <v>27967</v>
+      </c>
+      <c r="E124">
+        <v>123</v>
+      </c>
+      <c r="F124" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <f>italy_land!A124</f>
+        <v>43953</v>
+      </c>
+      <c r="B125">
+        <f>italy_land!F124</f>
+        <v>269</v>
+      </c>
+      <c r="C125">
+        <f>SUM(B$2:B125)</f>
+        <v>28236</v>
+      </c>
+      <c r="D125" s="2">
+        <f t="shared" si="4"/>
+        <v>28236</v>
+      </c>
+      <c r="E125">
+        <v>124</v>
+      </c>
+      <c r="F125" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <f>italy_land!A125</f>
+        <v>43954</v>
+      </c>
+      <c r="B126">
+        <f>italy_land!F125</f>
+        <v>474</v>
+      </c>
+      <c r="C126">
+        <f>SUM(B$2:B126)</f>
+        <v>28710</v>
+      </c>
+      <c r="D126" s="2">
+        <v>28710</v>
+      </c>
+      <c r="E126">
+        <v>125</v>
+      </c>
+      <c r="F126" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
